--- a/Document/Config/Config_Actor.xlsx
+++ b/Document/Config/Config_Actor.xlsx
@@ -17,6 +17,9 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -995,7 +998,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>xu xu:</t>
@@ -1005,15 +1007,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-护盾类型
-没有护盾属性 = 0,
-先使用护盾再使用生命 = 1,
-先使用生命再使用护盾 = 2,
-填写类型：0-2整数
+绝技 （即0阶）
+1-9阶能力
+填写类型：（阶数,技能ID,技能类型）
+多个技能使用|隔开
+eg:0,1001,1|1,1002,2|5,1003,3|5,1004,3
 </t>
         </r>
       </text>
@@ -1023,14 +1024,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Description</t>
@@ -1043,7 +1044,7 @@
   </si>
   <si>
     <t>Nationality</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Color</t>
@@ -1053,7 +1054,7 @@
   </si>
   <si>
     <t>LV</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>L1MainAttribute</t>
@@ -1084,7 +1085,7 @@
   </si>
   <si>
     <t>Hit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CriticalDamge</t>
@@ -1097,17 +1098,10 @@
   </si>
   <si>
     <t>Broken</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SpecialAttribute</t>
-  </si>
-  <si>
-    <t>ShieldType</t>
-  </si>
-  <si>
-    <t>技能还未进行设计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>孙策</t>
@@ -1207,43 +1201,47 @@
   </si>
   <si>
     <t>Icon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Profession</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sex</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>IQ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Agile</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Dodge</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Critical</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>OpposeCritical</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CriticalDamgeCounteract</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Block</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1251,21 +1249,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="176" formatCode="0_ ;[Red]\-0\ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1305,21 +1294,29 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1327,30 +1324,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1358,33 +1337,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="2"/>
-    <cellStyle name="检查单元格" xfId="1" builtinId="23"/>
+    <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1401,7 +1415,6 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="一阶段"/>
-      <sheetName val="actor角色表"/>
       <sheetName val="天气"/>
       <sheetName val="永久性通用被动"/>
       <sheetName val="条件性通用被动"/>
@@ -1417,43 +1430,43 @@
             <v>姓名</v>
           </cell>
           <cell r="C1" t="str">
-            <v>性别</v>
+            <v>人物特点</v>
           </cell>
           <cell r="D1" t="str">
-            <v>人物特点</v>
+            <v>职业</v>
           </cell>
           <cell r="E1" t="str">
-            <v>职业</v>
+            <v>品质</v>
           </cell>
           <cell r="F1" t="str">
-            <v>品质</v>
+            <v>国籍</v>
           </cell>
           <cell r="G1" t="str">
-            <v>国籍</v>
+            <v>主属性</v>
           </cell>
           <cell r="H1" t="str">
-            <v>主属性</v>
+            <v>力量</v>
           </cell>
           <cell r="I1" t="str">
-            <v>力量</v>
+            <v>智力</v>
           </cell>
           <cell r="J1" t="str">
-            <v>智力</v>
+            <v>敏捷</v>
           </cell>
           <cell r="K1" t="str">
-            <v>敏捷</v>
+            <v>体质</v>
           </cell>
           <cell r="L1" t="str">
-            <v>体质</v>
+            <v>总属性</v>
           </cell>
           <cell r="M1" t="str">
-            <v>总属性</v>
+            <v>武器1</v>
           </cell>
           <cell r="N1" t="str">
-            <v>武器1</v>
+            <v>武器2</v>
           </cell>
           <cell r="O1" t="str">
-            <v>武器2</v>
+            <v>绝技</v>
           </cell>
         </row>
         <row r="2">
@@ -1461,43 +1474,43 @@
             <v>孙策</v>
           </cell>
           <cell r="C2" t="str">
-            <v>男</v>
+            <v>残血觉醒，效果强力，单秒收人头，吴国小光环</v>
           </cell>
           <cell r="D2" t="str">
-            <v>残血觉醒，效果强力，单秒收人头，吴国小光环</v>
+            <v>七杀</v>
           </cell>
           <cell r="E2" t="str">
-            <v>七杀</v>
+            <v>7星</v>
           </cell>
           <cell r="F2" t="str">
-            <v>7星</v>
+            <v>吴</v>
           </cell>
           <cell r="G2" t="str">
-            <v>吴</v>
-          </cell>
-          <cell r="H2" t="str">
             <v>力量</v>
           </cell>
+          <cell r="H2">
+            <v>96</v>
+          </cell>
           <cell r="I2">
-            <v>96</v>
+            <v>76</v>
           </cell>
           <cell r="J2">
-            <v>76</v>
+            <v>94</v>
           </cell>
           <cell r="K2">
-            <v>94</v>
+            <v>88</v>
           </cell>
           <cell r="L2">
-            <v>88</v>
-          </cell>
-          <cell r="M2">
             <v>354</v>
           </cell>
+          <cell r="M2" t="str">
+            <v>穿刺</v>
+          </cell>
           <cell r="N2" t="str">
-            <v>穿刺</v>
+            <v>短兵</v>
           </cell>
           <cell r="O2" t="str">
-            <v>短兵</v>
+            <v>霸王降临：对生命最低的敌方单位造成250%~300%的伤害，并晕眩1回合</v>
           </cell>
         </row>
         <row r="3">
@@ -1505,43 +1518,43 @@
             <v>周瑜</v>
           </cell>
           <cell r="C3" t="str">
-            <v>男</v>
+            <v>群攻群疗，灼烧叠加，大风天气专家，召唤</v>
           </cell>
           <cell r="D3" t="str">
-            <v>群攻群疗，灼烧叠加，大风天气专家，召唤</v>
+            <v>贪狼</v>
           </cell>
           <cell r="E3" t="str">
-            <v>贪狼</v>
+            <v>7星</v>
           </cell>
           <cell r="F3" t="str">
-            <v>7星</v>
+            <v>吴</v>
           </cell>
           <cell r="G3" t="str">
-            <v>吴</v>
-          </cell>
-          <cell r="H3" t="str">
             <v>智力</v>
           </cell>
+          <cell r="H3">
+            <v>84</v>
+          </cell>
           <cell r="I3">
-            <v>84</v>
+            <v>98</v>
           </cell>
           <cell r="J3">
-            <v>98</v>
+            <v>89</v>
           </cell>
           <cell r="K3">
-            <v>89</v>
+            <v>82</v>
           </cell>
           <cell r="L3">
-            <v>82</v>
-          </cell>
-          <cell r="M3">
             <v>353</v>
           </cell>
+          <cell r="M3" t="str">
+            <v>法术</v>
+          </cell>
           <cell r="N3" t="str">
-            <v>法术</v>
+            <v>短兵</v>
           </cell>
           <cell r="O3" t="str">
-            <v>短兵</v>
+            <v>红莲业火：对敌方全造成X伤害，有30%几率附带【灼烧】2回合，调息3回合，消耗X法力</v>
           </cell>
         </row>
         <row r="4">
@@ -1549,43 +1562,43 @@
             <v>甘宁</v>
           </cell>
           <cell r="C4" t="str">
-            <v>男</v>
+            <v>短兵肉，高格挡反击；远射高输出，克破军</v>
           </cell>
           <cell r="D4" t="str">
-            <v>短兵肉，高格挡反击；远射高输出，克破军</v>
+            <v>七杀</v>
           </cell>
           <cell r="E4" t="str">
-            <v>七杀</v>
+            <v>6星</v>
           </cell>
           <cell r="F4" t="str">
-            <v>6星</v>
+            <v>吴</v>
           </cell>
           <cell r="G4" t="str">
-            <v>吴</v>
-          </cell>
-          <cell r="H4" t="str">
             <v>体质</v>
           </cell>
+          <cell r="H4">
+            <v>96</v>
+          </cell>
           <cell r="I4">
-            <v>96</v>
+            <v>82</v>
           </cell>
           <cell r="J4">
-            <v>82</v>
+            <v>92</v>
           </cell>
           <cell r="K4">
-            <v>92</v>
+            <v>94</v>
           </cell>
           <cell r="L4">
-            <v>94</v>
-          </cell>
-          <cell r="M4">
             <v>364</v>
           </cell>
+          <cell r="M4" t="str">
+            <v>短兵</v>
+          </cell>
           <cell r="N4" t="str">
-            <v>短兵</v>
+            <v>远射</v>
           </cell>
           <cell r="O4" t="str">
-            <v>远射</v>
+            <v>对单体目标造成X伤害，额外击破X破军盾，并提升X格挡率</v>
           </cell>
         </row>
         <row r="5">
@@ -1593,43 +1606,43 @@
             <v>陆逊</v>
           </cell>
           <cell r="C5" t="str">
-            <v>男</v>
+            <v>火烧一切，召唤</v>
           </cell>
           <cell r="D5" t="str">
-            <v>火烧一切，召唤</v>
+            <v>贪狼</v>
           </cell>
           <cell r="E5" t="str">
-            <v>贪狼</v>
+            <v>6星</v>
           </cell>
           <cell r="F5" t="str">
-            <v>6星</v>
+            <v>吴</v>
           </cell>
           <cell r="G5" t="str">
-            <v>吴</v>
-          </cell>
-          <cell r="H5" t="str">
             <v>智力</v>
           </cell>
+          <cell r="H5">
+            <v>72</v>
+          </cell>
           <cell r="I5">
-            <v>72</v>
+            <v>97</v>
           </cell>
           <cell r="J5">
-            <v>97</v>
+            <v>93</v>
           </cell>
           <cell r="K5">
-            <v>93</v>
+            <v>88</v>
           </cell>
           <cell r="L5">
-            <v>88</v>
-          </cell>
-          <cell r="M5">
             <v>350</v>
           </cell>
+          <cell r="M5" t="str">
+            <v>法术</v>
+          </cell>
           <cell r="N5" t="str">
-            <v>法术</v>
+            <v>短兵</v>
           </cell>
           <cell r="O5" t="str">
-            <v>短兵</v>
+            <v>火烧联营：对敌方直线造成X伤害，并附加【灼烧】2回合，3回合调息，消耗X法力</v>
           </cell>
         </row>
         <row r="6">
@@ -1637,22 +1650,22 @@
             <v>吕蒙</v>
           </cell>
           <cell r="C6" t="str">
-            <v>男</v>
+            <v>持续回合越久越强力，前期输出薄弱，召唤</v>
           </cell>
           <cell r="D6" t="str">
-            <v>持续回合越久越强力，前期输出薄弱，召唤</v>
+            <v>破军</v>
           </cell>
           <cell r="E6" t="str">
-            <v>破军</v>
+            <v>6星</v>
           </cell>
           <cell r="F6" t="str">
-            <v>6星</v>
+            <v>吴</v>
           </cell>
           <cell r="G6" t="str">
-            <v>吴</v>
-          </cell>
-          <cell r="H6" t="str">
             <v>敏捷</v>
+          </cell>
+          <cell r="H6">
+            <v>90</v>
           </cell>
           <cell r="I6">
             <v>90</v>
@@ -1664,16 +1677,16 @@
             <v>90</v>
           </cell>
           <cell r="L6">
-            <v>90</v>
-          </cell>
-          <cell r="M6">
             <v>360</v>
           </cell>
+          <cell r="M6" t="str">
+            <v>法术</v>
+          </cell>
           <cell r="N6" t="str">
-            <v>法术</v>
+            <v>短兵</v>
           </cell>
           <cell r="O6" t="str">
-            <v>短兵</v>
+            <v>对随机三个单位造成X的伤害,并提升自身闪避20%2回合，5回合调息</v>
           </cell>
         </row>
         <row r="7">
@@ -1681,28 +1694,28 @@
             <v>太史慈</v>
           </cell>
           <cell r="C7" t="str">
-            <v>男</v>
+            <v>远射群伤，短兵连击，输出位</v>
           </cell>
           <cell r="D7" t="str">
-            <v>远射群伤，短兵连击，输出位</v>
+            <v>七杀</v>
           </cell>
           <cell r="E7" t="str">
-            <v>七杀</v>
+            <v>6星</v>
           </cell>
           <cell r="F7" t="str">
-            <v>6星</v>
+            <v>吴</v>
           </cell>
           <cell r="G7" t="str">
-            <v>吴</v>
-          </cell>
-          <cell r="H7" t="str">
             <v>敏捷</v>
           </cell>
+          <cell r="M7" t="str">
+            <v>远射</v>
+          </cell>
           <cell r="N7" t="str">
-            <v>远射</v>
+            <v>短兵</v>
           </cell>
           <cell r="O7" t="str">
-            <v>短兵</v>
+            <v>对随机三个单位造成X伤害，有X几率再次发动，造成一半伤害</v>
           </cell>
         </row>
         <row r="8">
@@ -1710,43 +1723,43 @@
             <v>周泰</v>
           </cell>
           <cell r="C8" t="str">
-            <v>男</v>
+            <v>死亡出盾，纯肉，防高，压血</v>
           </cell>
           <cell r="D8" t="str">
-            <v>死亡出盾，纯肉，防高，压血</v>
+            <v>破军</v>
           </cell>
           <cell r="E8" t="str">
-            <v>破军</v>
+            <v>6星</v>
           </cell>
           <cell r="F8" t="str">
-            <v>6星</v>
+            <v>吴</v>
           </cell>
           <cell r="G8" t="str">
-            <v>吴</v>
-          </cell>
-          <cell r="H8" t="str">
             <v>体质</v>
           </cell>
+          <cell r="H8">
+            <v>92</v>
+          </cell>
           <cell r="I8">
-            <v>92</v>
+            <v>70</v>
           </cell>
           <cell r="J8">
-            <v>70</v>
+            <v>80</v>
           </cell>
           <cell r="K8">
-            <v>80</v>
+            <v>98</v>
           </cell>
           <cell r="L8">
-            <v>98</v>
-          </cell>
-          <cell r="M8">
             <v>340</v>
           </cell>
+          <cell r="M8" t="str">
+            <v>粉碎</v>
+          </cell>
           <cell r="N8" t="str">
-            <v>粉碎</v>
+            <v>穿刺</v>
           </cell>
           <cell r="O8" t="str">
-            <v>穿刺</v>
+            <v>对竖排3个敌人造成X伤害，并增加自身格挡率30%，5回合调息</v>
           </cell>
         </row>
         <row r="9">
@@ -1754,239 +1767,263 @@
             <v>凌统</v>
           </cell>
           <cell r="C9" t="str">
-            <v>男</v>
+            <v>射手，几率触发多次打击，高速度，吴国第一速度</v>
           </cell>
           <cell r="D9" t="str">
-            <v>射手，几率触发多次打击，高速度，吴国第一速度</v>
+            <v>破军</v>
           </cell>
           <cell r="E9" t="str">
-            <v>破军</v>
+            <v>6星</v>
           </cell>
           <cell r="F9" t="str">
-            <v>6星</v>
+            <v>吴</v>
           </cell>
           <cell r="G9" t="str">
-            <v>吴</v>
-          </cell>
-          <cell r="H9" t="str">
             <v>敏捷</v>
           </cell>
-          <cell r="M9">
+          <cell r="L9">
             <v>0</v>
           </cell>
-          <cell r="N9" t="str">
+          <cell r="M9" t="str">
             <v>远射</v>
+          </cell>
+          <cell r="O9" t="str">
+            <v>索命：对敌方后排单体造成X伤害，并【封技】一回合，5回合调息</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10" t="str">
             <v>黄盖</v>
           </cell>
+          <cell r="C10" t="str">
+            <v>高血反伤</v>
+          </cell>
           <cell r="D10" t="str">
-            <v>高血反伤</v>
+            <v>破军</v>
           </cell>
           <cell r="E10" t="str">
-            <v>破军</v>
+            <v>5星</v>
           </cell>
           <cell r="F10" t="str">
-            <v>5星</v>
+            <v>吴</v>
           </cell>
           <cell r="G10" t="str">
-            <v>吴</v>
-          </cell>
-          <cell r="H10" t="str">
             <v>体质</v>
           </cell>
-          <cell r="M10">
+          <cell r="L10">
             <v>0</v>
           </cell>
+          <cell r="M10" t="str">
+            <v>粉碎</v>
+          </cell>
           <cell r="N10" t="str">
-            <v>粉碎</v>
+            <v>短兵</v>
           </cell>
           <cell r="O10" t="str">
-            <v>短兵</v>
+            <v>诈降：消耗自身当前百分之五生命，对敌方单体造成X伤害，并陷入【混乱】1回合，5回合调息</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
             <v>鲁肃</v>
           </cell>
+          <cell r="C11" t="str">
+            <v>治疗，减少自身伤害，召唤</v>
+          </cell>
           <cell r="D11" t="str">
-            <v>治疗，减少自身伤害，召唤</v>
+            <v>贪狼</v>
           </cell>
           <cell r="E11" t="str">
-            <v>贪狼</v>
+            <v>5星</v>
           </cell>
           <cell r="F11" t="str">
-            <v>5星</v>
+            <v>吴</v>
           </cell>
           <cell r="G11" t="str">
-            <v>吴</v>
-          </cell>
-          <cell r="H11" t="str">
             <v>智力</v>
           </cell>
-          <cell r="N11" t="str">
+          <cell r="M11" t="str">
             <v>法术</v>
+          </cell>
+          <cell r="O11" t="str">
+            <v>对地方全造成X伤害并附带灼烧，调息五回合，消耗X法力</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
             <v>张昭</v>
           </cell>
+          <cell r="C12" t="str">
+            <v>辅助带减益，克贪狼</v>
+          </cell>
           <cell r="D12" t="str">
-            <v>辅助带减益，克贪狼</v>
+            <v>贪狼</v>
           </cell>
           <cell r="E12" t="str">
-            <v>贪狼</v>
+            <v>5星</v>
           </cell>
           <cell r="F12" t="str">
-            <v>5星</v>
+            <v>吴</v>
           </cell>
           <cell r="G12" t="str">
-            <v>吴</v>
-          </cell>
-          <cell r="H12" t="str">
             <v>智力</v>
           </cell>
-          <cell r="N12" t="str">
+          <cell r="M12" t="str">
             <v>法术</v>
+          </cell>
+          <cell r="O12" t="str">
+            <v>对地方全造成X伤害并附带灼烧，调息五回合，消耗X法力</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
             <v>大乔</v>
           </cell>
+          <cell r="C13" t="str">
+            <v>锤主控制，法术生七杀</v>
+          </cell>
           <cell r="D13" t="str">
-            <v>锤主控制，法术生七杀</v>
+            <v>七杀</v>
           </cell>
           <cell r="E13" t="str">
-            <v>七杀</v>
+            <v>5星</v>
           </cell>
           <cell r="F13" t="str">
-            <v>5星</v>
+            <v>吴</v>
           </cell>
           <cell r="G13" t="str">
-            <v>吴</v>
-          </cell>
-          <cell r="H13" t="str">
             <v>力量</v>
           </cell>
+          <cell r="M13" t="str">
+            <v>法术</v>
+          </cell>
           <cell r="N13" t="str">
-            <v>法术</v>
+            <v>粉碎</v>
           </cell>
           <cell r="O13" t="str">
-            <v>粉碎</v>
+            <v>对地方全造成X伤害并附带灼烧，调息五回合，消耗X法力</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14" t="str">
             <v>小乔</v>
           </cell>
+          <cell r="C14" t="str">
+            <v>增益，生贪狼</v>
+          </cell>
           <cell r="D14" t="str">
-            <v>增益，生贪狼</v>
+            <v>贪狼</v>
           </cell>
           <cell r="E14" t="str">
-            <v>贪狼</v>
+            <v>5星</v>
           </cell>
           <cell r="F14" t="str">
-            <v>5星</v>
+            <v>吴</v>
           </cell>
           <cell r="G14" t="str">
-            <v>吴</v>
-          </cell>
-          <cell r="H14" t="str">
             <v>智力</v>
           </cell>
+          <cell r="M14" t="str">
+            <v>法术</v>
+          </cell>
           <cell r="N14" t="str">
-            <v>法术</v>
+            <v>治疗</v>
           </cell>
           <cell r="O14" t="str">
-            <v>治疗</v>
+            <v>对地方全造成X伤害并附带灼烧，调息五回合，消耗X法力</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
             <v>孙权</v>
           </cell>
+          <cell r="C15" t="str">
+            <v>吴国大光环，灵魂锁链</v>
+          </cell>
           <cell r="D15" t="str">
-            <v>吴国大光环，灵魂锁链</v>
+            <v>破军</v>
           </cell>
           <cell r="E15" t="str">
-            <v>破军</v>
+            <v>5星</v>
           </cell>
           <cell r="F15" t="str">
-            <v>5星</v>
+            <v>吴</v>
           </cell>
           <cell r="G15" t="str">
-            <v>吴</v>
-          </cell>
-          <cell r="H15" t="str">
             <v>体质</v>
           </cell>
-          <cell r="M15">
+          <cell r="L15">
             <v>0</v>
           </cell>
+          <cell r="M15" t="str">
+            <v>短兵</v>
+          </cell>
           <cell r="N15" t="str">
-            <v>短兵</v>
+            <v>法术</v>
           </cell>
           <cell r="O15" t="str">
-            <v>法术</v>
+            <v>对敌方单体造成X伤害，并为生命最少的友方单体回复X生命，5回合调息</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16" t="str">
             <v>孙尚香</v>
           </cell>
+          <cell r="C16" t="str">
+            <v>双人回复，输出带破甲，克七杀</v>
+          </cell>
           <cell r="D16" t="str">
-            <v>双人回复，输出带破甲，克七杀</v>
+            <v>破军</v>
           </cell>
           <cell r="E16" t="str">
-            <v>破军</v>
+            <v>5星</v>
           </cell>
           <cell r="F16" t="str">
-            <v>5星</v>
+            <v>吴</v>
           </cell>
           <cell r="G16" t="str">
-            <v>吴</v>
-          </cell>
-          <cell r="H16" t="str">
             <v>敏捷</v>
           </cell>
-          <cell r="M16">
+          <cell r="L16">
             <v>0</v>
           </cell>
+          <cell r="M16" t="str">
+            <v>远射</v>
+          </cell>
           <cell r="N16" t="str">
-            <v>远射</v>
+            <v>短兵</v>
           </cell>
           <cell r="O16" t="str">
-            <v>短兵</v>
+            <v>对敌方前排全部目标造成X伤害，并陷入【破甲】状态两回合，调息5回合</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
             <v>程普</v>
           </cell>
+          <cell r="C17" t="str">
+            <v>标准战士，生破军</v>
+          </cell>
           <cell r="D17" t="str">
-            <v>标准战士，生破军</v>
+            <v>破军</v>
           </cell>
           <cell r="E17" t="str">
-            <v>破军</v>
+            <v>5星</v>
           </cell>
           <cell r="F17" t="str">
-            <v>5星</v>
+            <v>吴</v>
           </cell>
           <cell r="G17" t="str">
-            <v>吴</v>
-          </cell>
-          <cell r="H17" t="str">
             <v>力量</v>
           </cell>
-          <cell r="M17">
+          <cell r="L17">
             <v>0</v>
           </cell>
-          <cell r="N17" t="str">
+          <cell r="M17" t="str">
             <v>穿刺</v>
+          </cell>
+          <cell r="O17" t="str">
+            <v>铁脊蛇矛：对竖排敌人造成X伤害，并增加自身破军盾X点，5回合调息</v>
           </cell>
         </row>
         <row r="18">
@@ -1994,43 +2031,43 @@
             <v>典韦</v>
           </cell>
           <cell r="C18" t="str">
-            <v>男</v>
+            <v>高格挡，死亡出盾</v>
           </cell>
           <cell r="D18" t="str">
-            <v>高格挡，死亡出盾</v>
+            <v>破军</v>
           </cell>
           <cell r="E18" t="str">
-            <v>破军</v>
+            <v>7星</v>
           </cell>
           <cell r="F18" t="str">
-            <v>7星</v>
+            <v>魏</v>
           </cell>
           <cell r="G18" t="str">
-            <v>魏</v>
-          </cell>
-          <cell r="H18" t="str">
             <v>体质</v>
           </cell>
+          <cell r="H18">
+            <v>99</v>
+          </cell>
           <cell r="I18">
-            <v>99</v>
+            <v>75</v>
           </cell>
           <cell r="J18">
-            <v>75</v>
+            <v>87</v>
           </cell>
           <cell r="K18">
-            <v>87</v>
+            <v>100</v>
           </cell>
           <cell r="L18">
-            <v>100</v>
-          </cell>
-          <cell r="M18">
             <v>361</v>
           </cell>
+          <cell r="M18" t="str">
+            <v>粉碎</v>
+          </cell>
           <cell r="N18" t="str">
-            <v>粉碎</v>
+            <v>短兵</v>
           </cell>
           <cell r="O18" t="str">
-            <v>短兵</v>
+            <v>对敌方单体造成X的伤害，并提高自身格挡率2回合，调息5回合</v>
           </cell>
         </row>
         <row r="19">
@@ -2038,43 +2075,43 @@
             <v>司马懿</v>
           </cell>
           <cell r="C19" t="str">
-            <v>男</v>
+            <v>单点击破，沙暴天气专家，收人头刷cd，法术兵器回复法力，永动机；短兵回复生命，靠普攻</v>
           </cell>
           <cell r="D19" t="str">
-            <v>单点击破，沙暴天气专家，收人头刷cd，法术兵器回复法力，永动机；短兵回复生命，靠普攻</v>
+            <v>贪狼</v>
           </cell>
           <cell r="E19" t="str">
-            <v>贪狼</v>
+            <v>7星</v>
           </cell>
           <cell r="F19" t="str">
-            <v>7星</v>
+            <v>魏</v>
           </cell>
           <cell r="G19" t="str">
-            <v>魏</v>
-          </cell>
-          <cell r="H19" t="str">
             <v>智力</v>
           </cell>
+          <cell r="H19">
+            <v>72</v>
+          </cell>
           <cell r="I19">
-            <v>72</v>
+            <v>100</v>
           </cell>
           <cell r="J19">
-            <v>100</v>
+            <v>92</v>
           </cell>
           <cell r="K19">
-            <v>92</v>
+            <v>95</v>
           </cell>
           <cell r="L19">
-            <v>95</v>
-          </cell>
-          <cell r="M19">
             <v>359</v>
           </cell>
+          <cell r="M19" t="str">
+            <v>法术</v>
+          </cell>
           <cell r="N19" t="str">
-            <v>法术</v>
+            <v>短兵</v>
           </cell>
           <cell r="O19" t="str">
-            <v>短兵</v>
+            <v>连破:对敌方单体造成300%~380%的伤害，调息3回合，消耗X点法力</v>
           </cell>
         </row>
         <row r="20">
@@ -2082,40 +2119,40 @@
             <v>郭嘉</v>
           </cell>
           <cell r="C20" t="str">
-            <v>男</v>
+            <v>死亡自爆，先机技晕眩，控制</v>
           </cell>
           <cell r="D20" t="str">
-            <v>死亡自爆，先机技晕眩，控制</v>
+            <v>贪狼</v>
           </cell>
           <cell r="E20" t="str">
-            <v>贪狼</v>
+            <v>6星</v>
           </cell>
           <cell r="F20" t="str">
-            <v>6星</v>
+            <v>魏</v>
           </cell>
           <cell r="G20" t="str">
-            <v>魏</v>
-          </cell>
-          <cell r="H20" t="str">
             <v>智力</v>
           </cell>
+          <cell r="H20">
+            <v>70</v>
+          </cell>
           <cell r="I20">
-            <v>70</v>
+            <v>99</v>
           </cell>
           <cell r="J20">
-            <v>99</v>
+            <v>94</v>
           </cell>
           <cell r="K20">
-            <v>94</v>
+            <v>68</v>
           </cell>
           <cell r="L20">
-            <v>68</v>
-          </cell>
-          <cell r="M20">
             <v>331</v>
           </cell>
-          <cell r="N20" t="str">
+          <cell r="M20" t="str">
             <v>法术</v>
+          </cell>
+          <cell r="O20" t="str">
+            <v>蜚语：对敌方随机3名目标造成150%~170%的伤害，对【晕眩】状态的敌人伤害增加50%，调息3回合，消耗200点法力</v>
           </cell>
         </row>
         <row r="21">
@@ -2123,40 +2160,40 @@
             <v>许褚</v>
           </cell>
           <cell r="C21" t="str">
-            <v>男</v>
+            <v>速度很慢，开局减伤，高伤害，面积伤害</v>
           </cell>
           <cell r="D21" t="str">
-            <v>速度很慢，开局减伤，高伤害，面积伤害</v>
+            <v>七杀</v>
           </cell>
           <cell r="E21" t="str">
-            <v>七杀</v>
+            <v>6星</v>
           </cell>
           <cell r="F21" t="str">
-            <v>6星</v>
+            <v>魏</v>
           </cell>
           <cell r="G21" t="str">
-            <v>魏</v>
-          </cell>
-          <cell r="H21" t="str">
             <v>体质</v>
           </cell>
+          <cell r="H21">
+            <v>98</v>
+          </cell>
           <cell r="I21">
-            <v>98</v>
+            <v>66</v>
           </cell>
           <cell r="J21">
-            <v>66</v>
+            <v>72</v>
           </cell>
           <cell r="K21">
-            <v>72</v>
+            <v>99</v>
           </cell>
           <cell r="L21">
-            <v>99</v>
-          </cell>
-          <cell r="M21">
             <v>335</v>
           </cell>
-          <cell r="N21" t="str">
+          <cell r="M21" t="str">
             <v>粉碎</v>
+          </cell>
+          <cell r="O21" t="str">
+            <v>对全体敌人造成X伤害，并20%附加【晕眩】1回合</v>
           </cell>
         </row>
         <row r="22">
@@ -2164,43 +2201,43 @@
             <v>张辽</v>
           </cell>
           <cell r="C22" t="str">
-            <v>男</v>
+            <v>稳定输出，可横排可竖排，生破军</v>
           </cell>
           <cell r="D22" t="str">
-            <v>稳定输出，可横排可竖排，生破军</v>
+            <v>破军</v>
           </cell>
           <cell r="E22" t="str">
-            <v>破军</v>
+            <v>6星</v>
           </cell>
           <cell r="F22" t="str">
-            <v>6星</v>
+            <v>魏</v>
           </cell>
           <cell r="G22" t="str">
-            <v>魏</v>
-          </cell>
-          <cell r="H22" t="str">
             <v>力量</v>
           </cell>
+          <cell r="H22">
+            <v>95</v>
+          </cell>
           <cell r="I22">
+            <v>89</v>
+          </cell>
+          <cell r="J22">
+            <v>80</v>
+          </cell>
+          <cell r="K22">
             <v>95</v>
           </cell>
-          <cell r="J22">
-            <v>89</v>
-          </cell>
-          <cell r="K22">
-            <v>80</v>
-          </cell>
           <cell r="L22">
-            <v>95</v>
-          </cell>
-          <cell r="M22">
             <v>359</v>
           </cell>
+          <cell r="M22" t="str">
+            <v>横扫</v>
+          </cell>
           <cell r="N22" t="str">
-            <v>横扫</v>
+            <v>穿刺</v>
           </cell>
           <cell r="O22" t="str">
-            <v>穿刺</v>
+            <v>威震：对随机5名敌方单位造成X伤害并回复己方全体破军盾X点，5回合调息</v>
           </cell>
         </row>
         <row r="23">
@@ -2208,25 +2245,25 @@
             <v>夏侯惇</v>
           </cell>
           <cell r="C23" t="str">
-            <v>男</v>
+            <v>命中较低，暴击伤害高，格挡后反击暴击高</v>
           </cell>
           <cell r="D23" t="str">
-            <v>命中较低，暴击伤害高，格挡后反击暴击高</v>
+            <v>七杀</v>
           </cell>
           <cell r="E23" t="str">
-            <v>七杀</v>
+            <v>6星</v>
           </cell>
           <cell r="F23" t="str">
-            <v>6星</v>
+            <v>魏</v>
           </cell>
           <cell r="G23" t="str">
-            <v>魏</v>
-          </cell>
-          <cell r="H23" t="str">
             <v>力量</v>
           </cell>
-          <cell r="N23" t="str">
+          <cell r="M23" t="str">
             <v>穿刺</v>
+          </cell>
+          <cell r="O23" t="str">
+            <v>对直线造成X伤害，并提升自身格挡率50%</v>
           </cell>
         </row>
         <row r="24">
@@ -2234,28 +2271,28 @@
             <v>夏侯渊</v>
           </cell>
           <cell r="C24" t="str">
-            <v>男</v>
+            <v>远程高伤害克破军，魏国第一速度</v>
           </cell>
           <cell r="D24" t="str">
-            <v>远程高伤害克破军，魏国第一速度</v>
+            <v>七杀</v>
           </cell>
           <cell r="E24" t="str">
-            <v>七杀</v>
+            <v>6星</v>
           </cell>
           <cell r="F24" t="str">
-            <v>6星</v>
+            <v>魏</v>
           </cell>
           <cell r="G24" t="str">
-            <v>魏</v>
-          </cell>
-          <cell r="H24" t="str">
             <v>敏捷</v>
           </cell>
+          <cell r="M24" t="str">
+            <v>远射</v>
+          </cell>
           <cell r="N24" t="str">
-            <v>远射</v>
+            <v>横扫</v>
           </cell>
           <cell r="O24" t="str">
-            <v>横扫</v>
+            <v>对后排全部单位造成X伤害，并击破X护盾</v>
           </cell>
         </row>
         <row r="25">
@@ -2263,236 +2300,260 @@
             <v>荀彧</v>
           </cell>
           <cell r="C25" t="str">
-            <v>男</v>
+            <v>治疗，生贪狼</v>
           </cell>
           <cell r="D25" t="str">
-            <v>治疗，生贪狼</v>
+            <v>贪狼</v>
           </cell>
           <cell r="E25" t="str">
-            <v>贪狼</v>
+            <v>6星</v>
           </cell>
           <cell r="F25" t="str">
-            <v>6星</v>
+            <v>魏</v>
           </cell>
           <cell r="G25" t="str">
-            <v>魏</v>
-          </cell>
-          <cell r="H25" t="str">
             <v>智力</v>
           </cell>
+          <cell r="M25" t="str">
+            <v>法术</v>
+          </cell>
           <cell r="N25" t="str">
-            <v>法术</v>
+            <v>治疗</v>
           </cell>
           <cell r="O25" t="str">
-            <v>治疗</v>
+            <v>对全体友方回复X生命，消耗X法力，调息3回合</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
             <v>曹操</v>
           </cell>
+          <cell r="C26" t="str">
+            <v>高血，魏国大光环</v>
+          </cell>
           <cell r="D26" t="str">
-            <v>高血，魏国大光环</v>
+            <v>破军</v>
           </cell>
           <cell r="E26" t="str">
-            <v>破军</v>
+            <v>5星</v>
           </cell>
           <cell r="F26" t="str">
-            <v>5星</v>
+            <v>魏</v>
           </cell>
           <cell r="G26" t="str">
-            <v>魏</v>
-          </cell>
-          <cell r="H26" t="str">
             <v>体质</v>
           </cell>
-          <cell r="M26">
+          <cell r="L26">
             <v>0</v>
           </cell>
-          <cell r="N26" t="str">
+          <cell r="M26" t="str">
             <v>短兵</v>
+          </cell>
+          <cell r="O26" t="str">
+            <v>对地方全造成X伤害并附带灼烧，调息五回合，消耗X法力</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27" t="str">
             <v>张合</v>
           </cell>
+          <cell r="C27" t="str">
+            <v>单点击破，高暴击率，克七杀</v>
+          </cell>
           <cell r="D27" t="str">
-            <v>单点击破，高暴击率，克七杀</v>
+            <v>破军</v>
           </cell>
           <cell r="E27" t="str">
-            <v>破军</v>
+            <v>5星</v>
           </cell>
           <cell r="F27" t="str">
-            <v>5星</v>
+            <v>魏</v>
           </cell>
           <cell r="G27" t="str">
-            <v>魏</v>
-          </cell>
-          <cell r="H27" t="str">
             <v>敏捷</v>
           </cell>
-          <cell r="M27">
+          <cell r="L27">
             <v>0</v>
           </cell>
+          <cell r="M27" t="str">
+            <v>穿刺</v>
+          </cell>
           <cell r="N27" t="str">
-            <v>穿刺</v>
+            <v>远射</v>
           </cell>
           <cell r="O27" t="str">
-            <v>远射</v>
+            <v>对后排单体造成</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28" t="str">
             <v>曹仁</v>
           </cell>
+          <cell r="C28" t="str">
+            <v>高防御，可无敌</v>
+          </cell>
           <cell r="D28" t="str">
-            <v>高防御，可无敌</v>
+            <v>破军</v>
           </cell>
           <cell r="E28" t="str">
-            <v>破军</v>
+            <v>5星</v>
           </cell>
           <cell r="F28" t="str">
-            <v>5星</v>
+            <v>魏</v>
           </cell>
           <cell r="G28" t="str">
-            <v>魏</v>
-          </cell>
-          <cell r="H28" t="str">
             <v>体质</v>
           </cell>
-          <cell r="M28">
+          <cell r="L28">
             <v>0</v>
           </cell>
-          <cell r="N28" t="str">
+          <cell r="M28" t="str">
             <v>短兵</v>
+          </cell>
+          <cell r="O28" t="str">
+            <v>对地方全造成X伤害并附带灼烧，调息五回合，消耗X法力</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29" t="str">
             <v>荀攸</v>
           </cell>
+          <cell r="C29" t="str">
+            <v>先机技加全体速度，依赖法力</v>
+          </cell>
           <cell r="D29" t="str">
-            <v>先机技加全体速度，依赖法力</v>
+            <v>贪狼</v>
           </cell>
           <cell r="E29" t="str">
-            <v>贪狼</v>
+            <v>5星</v>
           </cell>
           <cell r="F29" t="str">
-            <v>5星</v>
+            <v>魏</v>
           </cell>
           <cell r="G29" t="str">
-            <v>魏</v>
-          </cell>
-          <cell r="H29" t="str">
             <v>智力</v>
           </cell>
-          <cell r="N29" t="str">
+          <cell r="M29" t="str">
             <v>法术</v>
+          </cell>
+          <cell r="O29" t="str">
+            <v>对地方全造成X伤害并附带灼烧，调息五回合，消耗X法力</v>
           </cell>
         </row>
         <row r="30">
           <cell r="B30" t="str">
             <v>程昱</v>
           </cell>
+          <cell r="C30" t="str">
+            <v>随机AOE伤害，生七杀</v>
+          </cell>
           <cell r="D30" t="str">
-            <v>随机AOE伤害，生七杀</v>
+            <v>七杀</v>
           </cell>
           <cell r="E30" t="str">
-            <v>七杀</v>
+            <v>5星</v>
           </cell>
           <cell r="F30" t="str">
-            <v>5星</v>
+            <v>魏</v>
           </cell>
           <cell r="G30" t="str">
-            <v>魏</v>
-          </cell>
-          <cell r="H30" t="str">
             <v>智力</v>
           </cell>
-          <cell r="N30" t="str">
+          <cell r="M30" t="str">
             <v>法术</v>
+          </cell>
+          <cell r="O30" t="str">
+            <v>对地方全造成X伤害并附带灼烧，调息五回合，消耗X法力</v>
           </cell>
         </row>
         <row r="31">
           <cell r="B31" t="str">
             <v>徐晃</v>
           </cell>
+          <cell r="C31" t="str">
+            <v>长驱直入，前几次攻击较高，先机技带破甲</v>
+          </cell>
           <cell r="D31" t="str">
-            <v>长驱直入，前几次攻击较高，先机技带破甲</v>
+            <v>破军</v>
           </cell>
           <cell r="E31" t="str">
-            <v>破军</v>
+            <v>5星</v>
           </cell>
           <cell r="F31" t="str">
-            <v>5星</v>
+            <v>魏</v>
           </cell>
           <cell r="G31" t="str">
-            <v>魏</v>
-          </cell>
-          <cell r="H31" t="str">
             <v>力量</v>
           </cell>
-          <cell r="M31">
+          <cell r="L31">
             <v>0</v>
           </cell>
+          <cell r="M31" t="str">
+            <v>粉碎</v>
+          </cell>
           <cell r="N31" t="str">
-            <v>粉碎</v>
+            <v>横扫</v>
           </cell>
           <cell r="O31" t="str">
-            <v>横扫</v>
+            <v>对地方全造成X伤害并附带灼烧，调息五回合，消耗X法力</v>
           </cell>
         </row>
         <row r="32">
           <cell r="B32" t="str">
             <v>曹丕</v>
           </cell>
+          <cell r="C32" t="str">
+            <v>魏国小光环，克贪狼</v>
+          </cell>
           <cell r="D32" t="str">
-            <v>魏国小光环，克贪狼</v>
+            <v>七杀</v>
           </cell>
           <cell r="E32" t="str">
-            <v>七杀</v>
+            <v>5星</v>
           </cell>
           <cell r="F32" t="str">
-            <v>5星</v>
+            <v>魏</v>
           </cell>
           <cell r="G32" t="str">
-            <v>魏</v>
-          </cell>
-          <cell r="H32" t="str">
             <v>敏捷</v>
           </cell>
+          <cell r="M32" t="str">
+            <v>短兵</v>
+          </cell>
           <cell r="N32" t="str">
-            <v>短兵</v>
+            <v>远射</v>
           </cell>
           <cell r="O32" t="str">
-            <v>远射</v>
+            <v>对地方全造成X伤害并附带灼烧，调息五回合，消耗X法力</v>
           </cell>
         </row>
         <row r="33">
           <cell r="B33" t="str">
             <v>甄姬</v>
           </cell>
+          <cell r="C33" t="str">
+            <v>高闪避高速度，减益增益</v>
+          </cell>
           <cell r="D33" t="str">
-            <v>高闪避高速度，减益增益</v>
+            <v>贪狼</v>
           </cell>
           <cell r="E33" t="str">
-            <v>贪狼</v>
+            <v>5星</v>
           </cell>
           <cell r="F33" t="str">
-            <v>5星</v>
+            <v>魏</v>
           </cell>
           <cell r="G33" t="str">
-            <v>魏</v>
-          </cell>
-          <cell r="H33" t="str">
             <v>敏捷</v>
           </cell>
+          <cell r="M33" t="str">
+            <v>法术</v>
+          </cell>
           <cell r="N33" t="str">
-            <v>法术</v>
+            <v>治疗</v>
           </cell>
           <cell r="O33" t="str">
-            <v>治疗</v>
+            <v>对地方全造成X伤害并附带灼烧，调息五回合，消耗X法力</v>
           </cell>
         </row>
         <row r="34">
@@ -2500,43 +2561,43 @@
             <v>赵云</v>
           </cell>
           <cell r="C34" t="str">
-            <v>男</v>
+            <v>速度快，直线突击，受伤减CD，克破军</v>
           </cell>
           <cell r="D34" t="str">
-            <v>速度快，直线突击，受伤减CD，克破军</v>
+            <v>破军</v>
           </cell>
           <cell r="E34" t="str">
-            <v>破军</v>
+            <v>7星</v>
           </cell>
           <cell r="F34" t="str">
-            <v>7星</v>
+            <v>蜀</v>
           </cell>
           <cell r="G34" t="str">
-            <v>蜀</v>
-          </cell>
-          <cell r="H34" t="str">
             <v>敏捷</v>
           </cell>
+          <cell r="H34">
+            <v>94</v>
+          </cell>
           <cell r="I34">
-            <v>94</v>
+            <v>86</v>
           </cell>
           <cell r="J34">
-            <v>86</v>
+            <v>100</v>
           </cell>
           <cell r="K34">
-            <v>100</v>
+            <v>90</v>
           </cell>
           <cell r="L34">
-            <v>90</v>
-          </cell>
-          <cell r="M34">
             <v>370</v>
           </cell>
+          <cell r="M34" t="str">
+            <v>穿刺</v>
+          </cell>
           <cell r="N34" t="str">
-            <v>穿刺</v>
+            <v>短兵</v>
           </cell>
           <cell r="O34" t="str">
-            <v>短兵</v>
+            <v>百鸟朝凤：对直线敌人造成x伤害，并击破额外X破军盾，调息5回合</v>
           </cell>
         </row>
         <row r="35">
@@ -2544,40 +2605,40 @@
             <v>诸葛亮</v>
           </cell>
           <cell r="C35" t="str">
-            <v>男</v>
+            <v>高闪避，面积伤害，大雾天气专家</v>
           </cell>
           <cell r="D35" t="str">
-            <v>高闪避，面积伤害，大雾天气专家</v>
+            <v>贪狼</v>
           </cell>
           <cell r="E35" t="str">
-            <v>贪狼</v>
+            <v>7星</v>
           </cell>
           <cell r="F35" t="str">
-            <v>7星</v>
+            <v>蜀</v>
           </cell>
           <cell r="G35" t="str">
-            <v>蜀</v>
-          </cell>
-          <cell r="H35" t="str">
             <v>智力</v>
           </cell>
+          <cell r="H35">
+            <v>66</v>
+          </cell>
           <cell r="I35">
-            <v>66</v>
+            <v>100</v>
           </cell>
           <cell r="J35">
-            <v>100</v>
+            <v>90</v>
           </cell>
           <cell r="K35">
-            <v>90</v>
+            <v>78</v>
           </cell>
           <cell r="L35">
-            <v>78</v>
-          </cell>
-          <cell r="M35">
             <v>334</v>
           </cell>
-          <cell r="N35" t="str">
+          <cell r="M35" t="str">
             <v>法术</v>
+          </cell>
+          <cell r="O35" t="str">
+            <v>空城计：对敌方全体造成X伤害，并【提升全队友方闪避】X，持续1回合，调息时间5回合，消耗X法力</v>
           </cell>
         </row>
         <row r="36">
@@ -2585,40 +2646,40 @@
             <v>关羽</v>
           </cell>
           <cell r="C36" t="str">
-            <v>男</v>
+            <v>点杀，死亡废掉一人</v>
           </cell>
           <cell r="D36" t="str">
-            <v>点杀，死亡废掉一人</v>
+            <v>破军</v>
           </cell>
           <cell r="E36" t="str">
-            <v>破军</v>
+            <v>6星</v>
           </cell>
           <cell r="F36" t="str">
-            <v>6星</v>
+            <v>蜀</v>
           </cell>
           <cell r="G36" t="str">
-            <v>蜀</v>
-          </cell>
-          <cell r="H36" t="str">
             <v>力量</v>
           </cell>
+          <cell r="H36">
+            <v>96</v>
+          </cell>
           <cell r="I36">
-            <v>96</v>
+            <v>88</v>
           </cell>
           <cell r="J36">
-            <v>88</v>
+            <v>85</v>
           </cell>
           <cell r="K36">
-            <v>85</v>
+            <v>90</v>
           </cell>
           <cell r="L36">
-            <v>90</v>
-          </cell>
-          <cell r="M36">
             <v>359</v>
           </cell>
-          <cell r="N36" t="str">
+          <cell r="M36" t="str">
             <v>横扫</v>
+          </cell>
+          <cell r="O36" t="str">
+            <v>对敌方单体造成X的伤害，并附加【封技】两回合，调息5回合，无消耗</v>
           </cell>
         </row>
         <row r="37">
@@ -2626,40 +2687,40 @@
             <v>马超</v>
           </cell>
           <cell r="C37" t="str">
-            <v>男</v>
+            <v>蜀国第一速度，先机技废掉对面一个</v>
           </cell>
           <cell r="D37" t="str">
-            <v>蜀国第一速度，先机技废掉对面一个</v>
+            <v>七杀</v>
           </cell>
           <cell r="E37" t="str">
-            <v>七杀</v>
+            <v>6星</v>
           </cell>
           <cell r="F37" t="str">
-            <v>6星</v>
+            <v>蜀</v>
           </cell>
           <cell r="G37" t="str">
-            <v>蜀</v>
-          </cell>
-          <cell r="H37" t="str">
             <v>敏捷</v>
           </cell>
+          <cell r="H37">
+            <v>92</v>
+          </cell>
           <cell r="I37">
-            <v>92</v>
+            <v>67</v>
           </cell>
           <cell r="J37">
-            <v>67</v>
+            <v>99</v>
           </cell>
           <cell r="K37">
-            <v>99</v>
+            <v>88</v>
           </cell>
           <cell r="L37">
-            <v>88</v>
-          </cell>
-          <cell r="M37">
             <v>346</v>
           </cell>
-          <cell r="N37" t="str">
+          <cell r="M37" t="str">
             <v>穿刺</v>
+          </cell>
+          <cell r="O37" t="str">
+            <v>马踏天下：对直线敌人造成X伤害，百分之20附加【迟缓】</v>
           </cell>
         </row>
         <row r="38">
@@ -2667,40 +2728,40 @@
             <v>庞统</v>
           </cell>
           <cell r="C38" t="str">
-            <v>男</v>
+            <v>连环伤害，克贪狼</v>
           </cell>
           <cell r="D38" t="str">
-            <v>连环伤害，克贪狼</v>
+            <v>贪狼</v>
           </cell>
           <cell r="E38" t="str">
-            <v>贪狼</v>
+            <v>6星</v>
           </cell>
           <cell r="F38" t="str">
-            <v>6星</v>
+            <v>蜀</v>
           </cell>
           <cell r="G38" t="str">
-            <v>蜀</v>
-          </cell>
-          <cell r="H38" t="str">
             <v>智力</v>
           </cell>
+          <cell r="H38">
+            <v>72</v>
+          </cell>
           <cell r="I38">
-            <v>72</v>
+            <v>97</v>
           </cell>
           <cell r="J38">
-            <v>97</v>
+            <v>80</v>
           </cell>
           <cell r="K38">
-            <v>80</v>
+            <v>90</v>
           </cell>
           <cell r="L38">
-            <v>90</v>
-          </cell>
-          <cell r="M38">
             <v>339</v>
           </cell>
-          <cell r="N38" t="str">
+          <cell r="M38" t="str">
             <v>法术</v>
+          </cell>
+          <cell r="O38" t="str">
+            <v>铁索连环：对随机两个单位造成X伤害，并【连环】3回合，优先选择未被【连环】的单位，调息2回合，消耗X法力</v>
           </cell>
         </row>
         <row r="39">
@@ -2708,40 +2769,40 @@
             <v>张飞</v>
           </cell>
           <cell r="C39" t="str">
-            <v>男</v>
+            <v>横排减怒，克七杀</v>
           </cell>
           <cell r="D39" t="str">
-            <v>横排减怒，克七杀</v>
+            <v>七杀</v>
           </cell>
           <cell r="E39" t="str">
-            <v>七杀</v>
+            <v>6星</v>
           </cell>
           <cell r="F39" t="str">
-            <v>6星</v>
+            <v>蜀</v>
           </cell>
           <cell r="G39" t="str">
-            <v>蜀</v>
-          </cell>
-          <cell r="H39" t="str">
             <v>力量</v>
           </cell>
+          <cell r="H39">
+            <v>99</v>
+          </cell>
           <cell r="I39">
-            <v>99</v>
+            <v>75</v>
           </cell>
           <cell r="J39">
-            <v>75</v>
+            <v>83</v>
           </cell>
           <cell r="K39">
-            <v>83</v>
+            <v>96</v>
           </cell>
           <cell r="L39">
-            <v>96</v>
-          </cell>
-          <cell r="M39">
             <v>353</v>
           </cell>
-          <cell r="N39" t="str">
+          <cell r="M39" t="str">
             <v>穿刺</v>
+          </cell>
+          <cell r="O39" t="str">
+            <v>长版怒吼：对横排全部敌人造成X伤害，并对其中的七杀减少X怒气</v>
           </cell>
         </row>
         <row r="40">
@@ -2749,28 +2810,28 @@
             <v>黄忠</v>
           </cell>
           <cell r="C40" t="str">
-            <v>男</v>
+            <v>后排单点，高命中，高伤害</v>
           </cell>
           <cell r="D40" t="str">
-            <v>后排单点，高命中，高伤害</v>
+            <v>七杀</v>
           </cell>
           <cell r="E40" t="str">
-            <v>七杀</v>
+            <v>6星</v>
           </cell>
           <cell r="F40" t="str">
-            <v>6星</v>
+            <v>蜀</v>
           </cell>
           <cell r="G40" t="str">
-            <v>蜀</v>
-          </cell>
-          <cell r="H40" t="str">
             <v>敏捷</v>
           </cell>
+          <cell r="M40" t="str">
+            <v>远射</v>
+          </cell>
           <cell r="N40" t="str">
-            <v>远射</v>
+            <v>横扫</v>
           </cell>
           <cell r="O40" t="str">
-            <v>横扫</v>
+            <v>对后排单体造成X伤害，并造成【麻痹】状态2回合</v>
           </cell>
         </row>
         <row r="41">
@@ -2778,227 +2839,251 @@
             <v>姜维</v>
           </cell>
           <cell r="C41" t="str">
-            <v>男</v>
+            <v>伤害很高</v>
           </cell>
           <cell r="D41" t="str">
-            <v>伤害很高</v>
+            <v>贪狼</v>
           </cell>
           <cell r="E41" t="str">
-            <v>贪狼</v>
+            <v>6星</v>
           </cell>
           <cell r="F41" t="str">
-            <v>6星</v>
+            <v>蜀</v>
           </cell>
           <cell r="G41" t="str">
-            <v>蜀</v>
-          </cell>
-          <cell r="H41" t="str">
             <v>敏捷</v>
           </cell>
+          <cell r="M41" t="str">
+            <v>穿刺</v>
+          </cell>
           <cell r="N41" t="str">
-            <v>穿刺</v>
+            <v>法术</v>
           </cell>
           <cell r="O41" t="str">
-            <v>法术</v>
+            <v>对随机3名敌人造成X伤害，消耗X法力</v>
           </cell>
         </row>
         <row r="42">
           <cell r="B42" t="str">
             <v>马岱</v>
           </cell>
+          <cell r="C42" t="str">
+            <v>告诉封疗</v>
+          </cell>
           <cell r="D42" t="str">
-            <v>告诉封疗</v>
+            <v>七杀</v>
           </cell>
           <cell r="E42" t="str">
-            <v>七杀</v>
+            <v>5星</v>
           </cell>
           <cell r="F42" t="str">
-            <v>5星</v>
+            <v>蜀</v>
           </cell>
           <cell r="G42" t="str">
-            <v>蜀</v>
-          </cell>
-          <cell r="H42" t="str">
             <v>力量</v>
           </cell>
-          <cell r="N42" t="str">
+          <cell r="M42" t="str">
             <v>横扫</v>
+          </cell>
+          <cell r="O42" t="str">
+            <v>对地方全造成X伤害并附带灼烧，调息五回合，消耗X法力</v>
           </cell>
         </row>
         <row r="43">
           <cell r="B43" t="str">
             <v>魏延</v>
           </cell>
+          <cell r="C43" t="str">
+            <v>无限吸血</v>
+          </cell>
           <cell r="D43" t="str">
-            <v>无限吸血</v>
+            <v>七杀</v>
           </cell>
           <cell r="E43" t="str">
-            <v>七杀</v>
+            <v>5星</v>
           </cell>
           <cell r="F43" t="str">
-            <v>5星</v>
+            <v>蜀</v>
           </cell>
           <cell r="G43" t="str">
-            <v>蜀</v>
-          </cell>
-          <cell r="H43" t="str">
             <v>体质</v>
           </cell>
-          <cell r="N43" t="str">
+          <cell r="M43" t="str">
             <v>横扫</v>
+          </cell>
+          <cell r="O43" t="str">
+            <v>对地方全造成X伤害并附带灼烧，调息五回合，消耗X法力</v>
           </cell>
         </row>
         <row r="44">
           <cell r="B44" t="str">
             <v>黄月英</v>
           </cell>
+          <cell r="C44" t="str">
+            <v>生贪狼，控制</v>
+          </cell>
           <cell r="D44" t="str">
-            <v>生贪狼，控制</v>
+            <v>贪狼</v>
           </cell>
           <cell r="E44" t="str">
-            <v>贪狼</v>
+            <v>5星</v>
           </cell>
           <cell r="F44" t="str">
-            <v>5星</v>
+            <v>蜀</v>
           </cell>
           <cell r="G44" t="str">
-            <v>蜀</v>
-          </cell>
-          <cell r="H44" t="str">
             <v>智力</v>
           </cell>
+          <cell r="M44" t="str">
+            <v>法术</v>
+          </cell>
           <cell r="N44" t="str">
-            <v>法术</v>
+            <v>治疗</v>
           </cell>
           <cell r="O44" t="str">
-            <v>治疗</v>
+            <v>对地方全造成X伤害并附带灼烧，调息五回合，消耗X法力</v>
           </cell>
         </row>
         <row r="45">
           <cell r="B45" t="str">
             <v>刘备</v>
           </cell>
+          <cell r="C45" t="str">
+            <v>生破军，蜀国大光环</v>
+          </cell>
           <cell r="D45" t="str">
-            <v>生破军，蜀国大光环</v>
+            <v>破军</v>
           </cell>
           <cell r="E45" t="str">
-            <v>破军</v>
+            <v>5星</v>
           </cell>
           <cell r="F45" t="str">
-            <v>5星</v>
+            <v>蜀</v>
           </cell>
           <cell r="G45" t="str">
-            <v>蜀</v>
-          </cell>
-          <cell r="H45" t="str">
             <v>敏捷</v>
           </cell>
-          <cell r="M45">
+          <cell r="L45">
             <v>0</v>
           </cell>
+          <cell r="M45" t="str">
+            <v>短兵</v>
+          </cell>
           <cell r="N45" t="str">
-            <v>短兵</v>
+            <v>治疗</v>
           </cell>
           <cell r="O45" t="str">
-            <v>治疗</v>
+            <v>对地方全造成X伤害并附带灼烧，调息五回合，消耗X法力</v>
           </cell>
         </row>
         <row r="46">
           <cell r="B46" t="str">
             <v>孟获</v>
           </cell>
+          <cell r="C46" t="str">
+            <v>无敌加控制</v>
+          </cell>
           <cell r="D46" t="str">
-            <v>无敌加控制</v>
+            <v>七杀</v>
           </cell>
           <cell r="E46" t="str">
-            <v>七杀</v>
+            <v>5星</v>
           </cell>
           <cell r="F46" t="str">
-            <v>5星</v>
+            <v>蜀</v>
           </cell>
           <cell r="G46" t="str">
-            <v>蜀</v>
-          </cell>
-          <cell r="H46" t="str">
             <v>体质</v>
           </cell>
-          <cell r="N46" t="str">
+          <cell r="M46" t="str">
             <v>粉碎</v>
+          </cell>
+          <cell r="O46" t="str">
+            <v>对地方全造成X伤害并附带灼烧，调息五回合，消耗X法力</v>
           </cell>
         </row>
         <row r="47">
           <cell r="B47" t="str">
             <v>徐庶</v>
           </cell>
+          <cell r="C47" t="str">
+            <v>依赖法力，法力耗尽觉醒</v>
+          </cell>
           <cell r="D47" t="str">
-            <v>依赖法力，法力耗尽觉醒</v>
+            <v>贪狼</v>
           </cell>
           <cell r="E47" t="str">
-            <v>贪狼</v>
+            <v>5星</v>
           </cell>
           <cell r="F47" t="str">
-            <v>5星</v>
+            <v>蜀</v>
           </cell>
           <cell r="G47" t="str">
-            <v>蜀</v>
-          </cell>
-          <cell r="H47" t="str">
             <v>智力</v>
           </cell>
+          <cell r="M47" t="str">
+            <v>短兵</v>
+          </cell>
           <cell r="N47" t="str">
-            <v>短兵</v>
+            <v>法术</v>
           </cell>
           <cell r="O47" t="str">
-            <v>法术</v>
+            <v>对地方全造成X伤害并附带灼烧，调息五回合，消耗X法力</v>
           </cell>
         </row>
         <row r="48">
           <cell r="B48" t="str">
             <v>刘禅</v>
           </cell>
+          <cell r="C48" t="str">
+            <v>减伤，蜀国小光环</v>
+          </cell>
           <cell r="D48" t="str">
-            <v>减伤，蜀国小光环</v>
+            <v>破军</v>
           </cell>
           <cell r="E48" t="str">
-            <v>破军</v>
+            <v>5星</v>
           </cell>
           <cell r="F48" t="str">
-            <v>5星</v>
+            <v>蜀</v>
           </cell>
           <cell r="G48" t="str">
-            <v>蜀</v>
-          </cell>
-          <cell r="H48" t="str">
             <v>体质</v>
           </cell>
-          <cell r="M48">
+          <cell r="L48">
             <v>0</v>
           </cell>
-          <cell r="N48" t="str">
+          <cell r="M48" t="str">
             <v>短兵</v>
+          </cell>
+          <cell r="O48" t="str">
+            <v>对地方全造成X伤害并附带灼烧，调息五回合，消耗X法力</v>
           </cell>
         </row>
         <row r="49">
           <cell r="B49" t="str">
             <v>祝融夫人</v>
           </cell>
+          <cell r="C49" t="str">
+            <v>生七杀</v>
+          </cell>
           <cell r="D49" t="str">
-            <v>生七杀</v>
+            <v>七杀</v>
           </cell>
           <cell r="E49" t="str">
-            <v>七杀</v>
+            <v>5星</v>
           </cell>
           <cell r="F49" t="str">
-            <v>5星</v>
+            <v>蜀</v>
           </cell>
           <cell r="G49" t="str">
-            <v>蜀</v>
-          </cell>
-          <cell r="H49" t="str">
             <v>敏捷</v>
           </cell>
-          <cell r="N49" t="str">
+          <cell r="M49" t="str">
             <v>远射</v>
+          </cell>
+          <cell r="O49" t="str">
+            <v>对地方全造成X伤害并附带灼烧，调息五回合，消耗X法力</v>
           </cell>
         </row>
         <row r="50">
@@ -3006,43 +3091,43 @@
             <v>吕布</v>
           </cell>
           <cell r="C50" t="str">
-            <v>男</v>
+            <v>横扫全屏，远射必中，克破军</v>
           </cell>
           <cell r="D50" t="str">
-            <v>横扫全屏，远射必中，克破军</v>
+            <v>破军</v>
           </cell>
           <cell r="E50" t="str">
-            <v>破军</v>
+            <v>7星</v>
           </cell>
           <cell r="F50" t="str">
-            <v>7星</v>
+            <v>群</v>
           </cell>
           <cell r="G50" t="str">
-            <v>群</v>
-          </cell>
-          <cell r="H50" t="str">
             <v>力量</v>
           </cell>
+          <cell r="H50">
+            <v>100</v>
+          </cell>
           <cell r="I50">
+            <v>62</v>
+          </cell>
+          <cell r="J50">
+            <v>95</v>
+          </cell>
+          <cell r="K50">
             <v>100</v>
           </cell>
-          <cell r="J50">
-            <v>62</v>
-          </cell>
-          <cell r="K50">
-            <v>95</v>
-          </cell>
           <cell r="L50">
-            <v>100</v>
-          </cell>
-          <cell r="M50">
             <v>357</v>
           </cell>
+          <cell r="M50" t="str">
+            <v>横扫</v>
+          </cell>
           <cell r="N50" t="str">
-            <v>横扫</v>
+            <v>远射</v>
           </cell>
           <cell r="O50" t="str">
-            <v>远射</v>
+            <v>对敌方全体造成X伤害，并30%附加【恫吓】状态两回合，【恫吓】状态下的目标攻防速都减少5%，调息时间5回合</v>
           </cell>
         </row>
         <row r="51">
@@ -3050,40 +3135,40 @@
             <v>左慈</v>
           </cell>
           <cell r="C51" t="str">
-            <v>男</v>
+            <v>克贪狼，控制高速</v>
           </cell>
           <cell r="D51" t="str">
-            <v>克贪狼，控制高速</v>
+            <v>贪狼</v>
           </cell>
           <cell r="E51" t="str">
-            <v>贪狼</v>
+            <v>7星</v>
           </cell>
           <cell r="F51" t="str">
-            <v>7星</v>
+            <v>群</v>
           </cell>
           <cell r="G51" t="str">
-            <v>群</v>
-          </cell>
-          <cell r="H51" t="str">
             <v>智力</v>
           </cell>
+          <cell r="H51">
+            <v>77</v>
+          </cell>
           <cell r="I51">
-            <v>77</v>
+            <v>99</v>
           </cell>
           <cell r="J51">
             <v>99</v>
           </cell>
           <cell r="K51">
-            <v>99</v>
+            <v>77</v>
           </cell>
           <cell r="L51">
-            <v>77</v>
-          </cell>
-          <cell r="M51">
             <v>352</v>
           </cell>
-          <cell r="N51" t="str">
+          <cell r="M51" t="str">
             <v>法术</v>
+          </cell>
+          <cell r="O51" t="str">
+            <v>对敌方前排全部目标造成X伤害，并附加【封技】状态两回合，调息3回合，消耗X法力</v>
           </cell>
         </row>
         <row r="52">
@@ -3091,40 +3176,40 @@
             <v>贾诩</v>
           </cell>
           <cell r="C52" t="str">
-            <v>男</v>
+            <v>中毒减益伤害</v>
           </cell>
           <cell r="D52" t="str">
-            <v>中毒减益伤害</v>
+            <v>破军</v>
           </cell>
           <cell r="E52" t="str">
-            <v>破军</v>
+            <v>6星</v>
           </cell>
           <cell r="F52" t="str">
-            <v>6星</v>
+            <v>群</v>
           </cell>
           <cell r="G52" t="str">
-            <v>群</v>
-          </cell>
-          <cell r="H52" t="str">
             <v>智力</v>
           </cell>
+          <cell r="H52">
+            <v>72</v>
+          </cell>
           <cell r="I52">
-            <v>72</v>
+            <v>97</v>
           </cell>
           <cell r="J52">
-            <v>97</v>
+            <v>75</v>
           </cell>
           <cell r="K52">
-            <v>75</v>
+            <v>92</v>
           </cell>
           <cell r="L52">
-            <v>92</v>
-          </cell>
-          <cell r="M52">
             <v>336</v>
           </cell>
-          <cell r="N52" t="str">
+          <cell r="M52" t="str">
             <v>法术</v>
+          </cell>
+          <cell r="O52" t="str">
+            <v>乱武：对敌方全体造成X的伤害，并附加2回合的【易损】状态，该状态下的单位受到的全部伤害增加10%，持续3回合，消耗20%最大血量，冷却5回合，生命30%以下无法释放</v>
           </cell>
         </row>
         <row r="53">
@@ -3132,40 +3217,40 @@
             <v>貂蝉</v>
           </cell>
           <cell r="C53" t="str">
-            <v>女</v>
+            <v>生贪狼，减益</v>
           </cell>
           <cell r="D53" t="str">
-            <v>生贪狼，减益</v>
+            <v>贪狼</v>
           </cell>
           <cell r="E53" t="str">
-            <v>贪狼</v>
+            <v>6星</v>
           </cell>
           <cell r="F53" t="str">
-            <v>6星</v>
+            <v>群</v>
           </cell>
           <cell r="G53" t="str">
-            <v>群</v>
-          </cell>
-          <cell r="H53" t="str">
             <v>敏捷</v>
           </cell>
+          <cell r="H53">
+            <v>67</v>
+          </cell>
           <cell r="I53">
-            <v>67</v>
+            <v>91</v>
           </cell>
           <cell r="J53">
-            <v>91</v>
+            <v>98</v>
           </cell>
           <cell r="K53">
-            <v>98</v>
+            <v>80</v>
           </cell>
           <cell r="L53">
-            <v>80</v>
-          </cell>
-          <cell r="M53">
             <v>336</v>
           </cell>
-          <cell r="N53" t="str">
+          <cell r="M53" t="str">
             <v>法术</v>
+          </cell>
+          <cell r="O53" t="str">
+            <v>闭月：对随机两名敌方目标造成X伤害，优先选择贪狼，若目标为贪狼，则降低其10%最大法力，调息3回合</v>
           </cell>
         </row>
         <row r="54">
@@ -3173,43 +3258,43 @@
             <v>于吉</v>
           </cell>
           <cell r="C54" t="str">
-            <v>男</v>
+            <v>中毒伤害，克七杀</v>
           </cell>
           <cell r="D54" t="str">
-            <v>中毒伤害，克七杀</v>
+            <v>贪狼</v>
           </cell>
           <cell r="E54" t="str">
-            <v>贪狼</v>
+            <v>6星</v>
           </cell>
           <cell r="F54" t="str">
-            <v>6星</v>
+            <v>群</v>
           </cell>
           <cell r="G54" t="str">
-            <v>群</v>
-          </cell>
-          <cell r="H54" t="str">
             <v>智力</v>
           </cell>
+          <cell r="H54">
+            <v>71</v>
+          </cell>
           <cell r="I54">
-            <v>71</v>
+            <v>92</v>
           </cell>
           <cell r="J54">
-            <v>92</v>
+            <v>90</v>
           </cell>
           <cell r="K54">
-            <v>90</v>
+            <v>82</v>
           </cell>
           <cell r="L54">
-            <v>82</v>
-          </cell>
-          <cell r="M54">
             <v>335</v>
           </cell>
+          <cell r="M54" t="str">
+            <v>法术</v>
+          </cell>
           <cell r="N54" t="str">
-            <v>法术</v>
+            <v>治疗</v>
           </cell>
           <cell r="O54" t="str">
-            <v>治疗</v>
+            <v>对随机3名敌人造成X伤害，并附加【中毒】，消耗X法力</v>
           </cell>
         </row>
         <row r="55">
@@ -3217,43 +3302,43 @@
             <v>张角</v>
           </cell>
           <cell r="C55" t="str">
-            <v>男</v>
+            <v>闪避劈人，雷雨天气专家，带感电，增加法术伤害</v>
           </cell>
           <cell r="D55" t="str">
-            <v>闪避劈人，雷雨天气专家，带感电，增加法术伤害</v>
+            <v>贪狼</v>
           </cell>
           <cell r="E55" t="str">
-            <v>贪狼</v>
+            <v>6星</v>
           </cell>
           <cell r="F55" t="str">
-            <v>6星</v>
+            <v>群</v>
           </cell>
           <cell r="G55" t="str">
-            <v>群</v>
-          </cell>
-          <cell r="H55" t="str">
             <v>敏捷</v>
           </cell>
+          <cell r="H55">
+            <v>76</v>
+          </cell>
           <cell r="I55">
-            <v>76</v>
+            <v>88</v>
           </cell>
           <cell r="J55">
-            <v>88</v>
+            <v>94</v>
           </cell>
           <cell r="K55">
-            <v>94</v>
+            <v>87</v>
           </cell>
           <cell r="L55">
-            <v>87</v>
-          </cell>
-          <cell r="M55">
             <v>345</v>
           </cell>
+          <cell r="M55" t="str">
+            <v>法术</v>
+          </cell>
           <cell r="N55" t="str">
-            <v>法术</v>
+            <v>短兵</v>
           </cell>
           <cell r="O55" t="str">
-            <v>短兵</v>
+            <v>黄天当立：对敌方全造成X伤害并有30%几率附带【感电】2回合，调息3回合，消耗X法力</v>
           </cell>
         </row>
         <row r="56">
@@ -3261,43 +3346,43 @@
             <v>文丑</v>
           </cell>
           <cell r="C56" t="str">
-            <v>男</v>
+            <v>对撕裂状态有加成</v>
           </cell>
           <cell r="D56" t="str">
-            <v>对撕裂状态有加成</v>
+            <v>七杀</v>
           </cell>
           <cell r="E56" t="str">
-            <v>七杀</v>
+            <v>6星</v>
           </cell>
           <cell r="F56" t="str">
-            <v>6星</v>
+            <v>群</v>
           </cell>
           <cell r="G56" t="str">
-            <v>群</v>
-          </cell>
-          <cell r="H56" t="str">
             <v>力量</v>
           </cell>
+          <cell r="H56">
+            <v>96</v>
+          </cell>
           <cell r="I56">
-            <v>96</v>
+            <v>67</v>
           </cell>
           <cell r="J56">
-            <v>67</v>
+            <v>82</v>
           </cell>
           <cell r="K56">
-            <v>82</v>
+            <v>92</v>
           </cell>
           <cell r="L56">
-            <v>92</v>
-          </cell>
-          <cell r="M56">
             <v>337</v>
           </cell>
+          <cell r="M56" t="str">
+            <v>穿刺</v>
+          </cell>
           <cell r="N56" t="str">
-            <v>穿刺</v>
+            <v>粉碎</v>
           </cell>
           <cell r="O56" t="str">
-            <v>粉碎</v>
+            <v>穿刺断腕：对敌方直线造成X伤害，并有50%几率附加【撕裂】2回合</v>
           </cell>
         </row>
         <row r="57">
@@ -3305,248 +3390,272 @@
             <v>颜良</v>
           </cell>
           <cell r="C57" t="str">
-            <v>男</v>
+            <v>附加撕裂状态，生七杀</v>
           </cell>
           <cell r="D57" t="str">
-            <v>附加撕裂状态，生七杀</v>
+            <v>七杀</v>
           </cell>
           <cell r="E57" t="str">
-            <v>七杀</v>
+            <v>6星</v>
           </cell>
           <cell r="F57" t="str">
-            <v>6星</v>
+            <v>群</v>
           </cell>
           <cell r="G57" t="str">
-            <v>群</v>
-          </cell>
-          <cell r="H57" t="str">
             <v>力量</v>
           </cell>
+          <cell r="H57">
+            <v>95</v>
+          </cell>
           <cell r="I57">
-            <v>95</v>
+            <v>68</v>
           </cell>
           <cell r="J57">
-            <v>68</v>
+            <v>90</v>
           </cell>
           <cell r="K57">
             <v>90</v>
           </cell>
           <cell r="L57">
-            <v>90</v>
-          </cell>
-          <cell r="M57">
             <v>343</v>
           </cell>
+          <cell r="M57" t="str">
+            <v>横扫</v>
+          </cell>
           <cell r="N57" t="str">
-            <v>横扫</v>
+            <v>粉碎</v>
           </cell>
           <cell r="O57" t="str">
-            <v>粉碎</v>
+            <v>横扫断腕：对敌方横排造成X伤害，并有40%几率附加【撕裂】2回合</v>
           </cell>
         </row>
         <row r="58">
           <cell r="B58" t="str">
             <v>陈宫</v>
           </cell>
+          <cell r="C58" t="str">
+            <v>法力抵消伤害，加攻击</v>
+          </cell>
           <cell r="D58" t="str">
-            <v>法力抵消伤害，加攻击</v>
+            <v>贪狼</v>
           </cell>
           <cell r="E58" t="str">
-            <v>贪狼</v>
+            <v>5星</v>
           </cell>
           <cell r="F58" t="str">
-            <v>5星</v>
+            <v>群</v>
           </cell>
           <cell r="G58" t="str">
-            <v>群</v>
-          </cell>
-          <cell r="H58" t="str">
             <v>智力</v>
           </cell>
+          <cell r="M58" t="str">
+            <v>法术</v>
+          </cell>
           <cell r="N58" t="str">
-            <v>法术</v>
+            <v>短兵</v>
           </cell>
           <cell r="O58" t="str">
-            <v>短兵</v>
+            <v>对地方全造成X伤害并附带灼烧，调息五回合，消耗X法力</v>
           </cell>
         </row>
         <row r="59">
           <cell r="B59" t="str">
             <v>华佗</v>
           </cell>
+          <cell r="C59" t="str">
+            <v>治疗</v>
+          </cell>
           <cell r="D59" t="str">
+            <v>贪狼</v>
+          </cell>
+          <cell r="E59" t="str">
+            <v>5星</v>
+          </cell>
+          <cell r="F59" t="str">
+            <v>群</v>
+          </cell>
+          <cell r="G59" t="str">
+            <v>体质</v>
+          </cell>
+          <cell r="M59" t="str">
             <v>治疗</v>
           </cell>
-          <cell r="E59" t="str">
-            <v>贪狼</v>
-          </cell>
-          <cell r="F59" t="str">
-            <v>5星</v>
-          </cell>
-          <cell r="G59" t="str">
-            <v>群</v>
-          </cell>
-          <cell r="H59" t="str">
-            <v>体质</v>
-          </cell>
-          <cell r="N59" t="str">
-            <v>治疗</v>
+          <cell r="O59" t="str">
+            <v>对地方全造成X伤害并附带灼烧，调息五回合，消耗X法力</v>
           </cell>
         </row>
         <row r="60">
           <cell r="B60" t="str">
             <v>华雄</v>
           </cell>
+          <cell r="C60" t="str">
+            <v>高血量，血牛</v>
+          </cell>
           <cell r="D60" t="str">
-            <v>高血量，血牛</v>
+            <v>破军</v>
           </cell>
           <cell r="E60" t="str">
-            <v>破军</v>
+            <v>5星</v>
           </cell>
           <cell r="F60" t="str">
-            <v>5星</v>
+            <v>群</v>
           </cell>
           <cell r="G60" t="str">
-            <v>群</v>
-          </cell>
-          <cell r="H60" t="str">
             <v>体质</v>
           </cell>
-          <cell r="M60">
+          <cell r="L60">
             <v>0</v>
           </cell>
+          <cell r="M60" t="str">
+            <v>粉碎</v>
+          </cell>
           <cell r="N60" t="str">
-            <v>粉碎</v>
+            <v>横扫</v>
           </cell>
           <cell r="O60" t="str">
-            <v>横扫</v>
+            <v>对地方全造成X伤害并附带灼烧，调息五回合，消耗X法力</v>
           </cell>
         </row>
         <row r="61">
           <cell r="B61" t="str">
             <v>袁绍</v>
           </cell>
+          <cell r="C61" t="str">
+            <v>群雄小光环</v>
+          </cell>
           <cell r="D61" t="str">
-            <v>群雄小光环</v>
+            <v>破军</v>
           </cell>
           <cell r="E61" t="str">
-            <v>破军</v>
+            <v>5星</v>
           </cell>
           <cell r="F61" t="str">
-            <v>5星</v>
+            <v>群</v>
           </cell>
           <cell r="G61" t="str">
-            <v>群</v>
-          </cell>
-          <cell r="H61" t="str">
             <v>敏捷</v>
           </cell>
-          <cell r="M61">
+          <cell r="L61">
             <v>0</v>
           </cell>
+          <cell r="M61" t="str">
+            <v>远射</v>
+          </cell>
           <cell r="N61" t="str">
-            <v>远射</v>
+            <v>短兵</v>
           </cell>
           <cell r="O61" t="str">
-            <v>短兵</v>
+            <v>对地方全造成X伤害并附带灼烧，调息五回合，消耗X法力</v>
           </cell>
         </row>
         <row r="62">
           <cell r="B62" t="str">
             <v>蔡文姬</v>
           </cell>
+          <cell r="C62" t="str">
+            <v>有死亡技能</v>
+          </cell>
           <cell r="D62" t="str">
-            <v>有死亡技能</v>
+            <v>贪狼</v>
           </cell>
           <cell r="E62" t="str">
-            <v>贪狼</v>
+            <v>5星</v>
           </cell>
           <cell r="F62" t="str">
-            <v>5星</v>
+            <v>群</v>
           </cell>
           <cell r="G62" t="str">
-            <v>群</v>
-          </cell>
-          <cell r="H62" t="str">
             <v>智力</v>
           </cell>
-          <cell r="N62" t="str">
+          <cell r="M62" t="str">
             <v>治疗</v>
+          </cell>
+          <cell r="O62" t="str">
+            <v>对地方全造成X伤害并附带灼烧，调息五回合，消耗X法力</v>
           </cell>
         </row>
         <row r="63">
           <cell r="B63" t="str">
             <v>董卓</v>
           </cell>
+          <cell r="C63" t="str">
+            <v>群雄大光环</v>
+          </cell>
           <cell r="D63" t="str">
-            <v>群雄大光环</v>
+            <v>七杀</v>
           </cell>
           <cell r="E63" t="str">
-            <v>七杀</v>
+            <v>5星</v>
           </cell>
           <cell r="F63" t="str">
-            <v>5星</v>
+            <v>群</v>
           </cell>
           <cell r="G63" t="str">
-            <v>群</v>
-          </cell>
-          <cell r="H63" t="str">
             <v>体质</v>
           </cell>
+          <cell r="M63" t="str">
+            <v>短兵</v>
+          </cell>
           <cell r="N63" t="str">
-            <v>短兵</v>
+            <v>粉碎</v>
           </cell>
           <cell r="O63" t="str">
-            <v>粉碎</v>
+            <v>对地方全造成X伤害并附带灼烧，调息五回合，消耗X法力</v>
           </cell>
         </row>
         <row r="64">
           <cell r="B64" t="str">
             <v>高顺</v>
           </cell>
+          <cell r="C64" t="str">
+            <v>稳定输出，生破军</v>
+          </cell>
           <cell r="D64" t="str">
-            <v>稳定输出，生破军</v>
+            <v>破军</v>
           </cell>
           <cell r="E64" t="str">
-            <v>破军</v>
+            <v>5星</v>
           </cell>
           <cell r="F64" t="str">
-            <v>5星</v>
+            <v>群</v>
           </cell>
           <cell r="G64" t="str">
-            <v>群</v>
-          </cell>
-          <cell r="H64" t="str">
             <v>体质</v>
           </cell>
-          <cell r="M64">
+          <cell r="L64">
             <v>0</v>
           </cell>
-          <cell r="N64" t="str">
+          <cell r="M64" t="str">
             <v>穿刺</v>
+          </cell>
+          <cell r="O64" t="str">
+            <v>对地方全造成X伤害并附带灼烧，调息五回合，消耗X法力</v>
           </cell>
         </row>
         <row r="65">
           <cell r="B65" t="str">
             <v>袁术</v>
           </cell>
+          <cell r="C65" t="str">
+            <v>减益</v>
+          </cell>
           <cell r="D65" t="str">
-            <v>减益</v>
+            <v>七杀</v>
           </cell>
           <cell r="E65" t="str">
-            <v>七杀</v>
+            <v>5星</v>
           </cell>
           <cell r="F65" t="str">
-            <v>5星</v>
+            <v>群</v>
           </cell>
           <cell r="G65" t="str">
-            <v>群</v>
-          </cell>
-          <cell r="H65" t="str">
             <v>敏捷</v>
           </cell>
-          <cell r="N65" t="str">
+          <cell r="M65" t="str">
             <v>法术</v>
+          </cell>
+          <cell r="O65" t="str">
+            <v>对地方全造成X伤害并附带灼烧，调息五回合，消耗X法力</v>
           </cell>
         </row>
       </sheetData>
@@ -3557,7 +3666,6 @@
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3826,29 +3934,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ33"/>
+  <dimension ref="A1:AI33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AJ13" sqref="AJ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
+      <c r="D1" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -3856,8 +3995,8 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>59</v>
+      <c r="G1" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
@@ -3865,8 +4004,8 @@
       <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>60</v>
+      <c r="J1" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>7</v>
@@ -3881,10 +4020,10 @@
         <v>10</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>11</v>
@@ -3911,19 +4050,19 @@
         <v>18</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AD1" s="2" t="s">
         <v>20</v>
@@ -3932,7 +4071,7 @@
         <v>21</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AG1" s="2" t="s">
         <v>22</v>
@@ -3941,85 +4080,82 @@
         <v>23</v>
       </c>
       <c r="AI1" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AJ1" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1001</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="5">
+      <c r="G2" s="6">
         <f>IF(VLOOKUP(B2,[1]一阶段!$B:$O,4,0)="七杀",3,IF(VLOOKUP(B2,[1]一阶段!$B:$O,4,0)="破军",1,IF(VLOOKUP(B2,[1]一阶段!$B:$O,4,0)="贪狼",2,0)))</f>
-        <v>3</v>
-      </c>
-      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
         <f>IF(VLOOKUP(B2,[1]一阶段!$B:$O,6,0)="魏",1,IF(VLOOKUP(B2,[1]一阶段!$B:$O,6,0)="蜀",2,IF(VLOOKUP(B2,[1]一阶段!$B:$O,6,0)="吴",3,IF(VLOOKUP(B2,[1]一阶段!$B:$O,6,0)="群",4,0))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
         <f>IF(VLOOKUP(B2,[1]一阶段!$B:$N,5,0)="7星",4,IF(VLOOKUP(B2,[1]一阶段!$B:$N,5,0)="6星",3,IF(VLOOKUP(B2,[1]一阶段!$B:$N,5,0)="5星",3,IF(VLOOKUP(B2,[1]一阶段!$B:$N,5,0)="4星",2,IF(VLOOKUP(B2,[1]一阶段!$B:$N,5,0)="3星",1,0)))))</f>
-        <v>4</v>
-      </c>
-      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
         <f>IF(VLOOKUP(B2,[1]一阶段!$B:$N,2,0)="男",1,IF(VLOOKUP(B2,[1]一阶段!$B:$N,2,0)="女",2,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="e">
         <f>INT(LEFT(VLOOKUP(B2,[1]一阶段!$B:$N,5,0),1))</f>
-        <v>7</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L2" s="2">
         <v>1</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="2" t="str">
         <f>IF(VLOOKUP(B2,[1]一阶段!$B:$O,7,0)="力量",0,IF(VLOOKUP(B2,[1]一阶段!$B:$O,7,0)="智力",1,IF(VLOOKUP(B2,[1]一阶段!$B:$O,7,0)="敏捷",2,IF(VLOOKUP(B2,[1]一阶段!$B:$O,7,0)="体质",3,""))))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="N2" s="2">
         <f>VLOOKUP(B2,[1]一阶段!$B:$O,8,0)</f>
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="O2" s="2">
         <f>VLOOKUP(B2,[1]一阶段!$B:$O,9,0)</f>
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="P2" s="2">
         <f>VLOOKUP(B2,[1]一阶段!$B:$O,10,0)</f>
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="Q2" s="2">
         <f>VLOOKUP(B2,[1]一阶段!$B:$O,11,0)</f>
-        <v>88</v>
+        <v>354</v>
       </c>
       <c r="R2" s="2" t="str">
         <f>IF(VLOOKUP(B2,[1]一阶段!$B:$O,13,0)="穿刺",0,IF(VLOOKUP(B2,[1]一阶段!$B:$O,13,0)="法术",1,IF(VLOOKUP(B2,[1]一阶段!$B:$O,13,0)="粉碎",2,IF(VLOOKUP(B2,[1]一阶段!$B:$O,13,0)="横扫",3,IF(VLOOKUP(B2,[1]一阶段!$B:$O,13,0)="短兵",4,IF(VLOOKUP(B2,[1]一阶段!$B:$O,13,0)="远射",5,6))))))&amp;IF(VLOOKUP(B2,[1]一阶段!$B:$O,14,0)="","",IF(VLOOKUP(B2,[1]一阶段!$B:$O,14,0)="穿刺",",0",IF(VLOOKUP(B2,[1]一阶段!$B:$O,14,0)="法术",",1",IF(VLOOKUP(B2,[1]一阶段!$B:$O,14,0)="粉碎",",2",IF(VLOOKUP(B2,[1]一阶段!$B:$O,14,0)="横扫",",3",IF(VLOOKUP(B2,[1]一阶段!$B:$O,14,0)="短兵",",4",IF(VLOOKUP(B2,[1]一阶段!$B:$O,14,0)="远射",",5",",6")))))))</f>
-        <v>0,4</v>
-      </c>
-      <c r="S2" s="2">
+        <v>4,6</v>
+      </c>
+      <c r="S2" s="2" t="e">
         <f>INT(IF(K2=7,375,IF(K2=6,325,IF(K2=5,300,250))))</f>
-        <v>375</v>
-      </c>
-      <c r="T2" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T2" s="2" t="e">
         <f>INT(IF(K2=7,125,IF(K2=6,115,IF(K2=5,100,80))))</f>
-        <v>125</v>
-      </c>
-      <c r="U2" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U2" s="2" t="e">
         <f>INT(IF(K2=7,80,IF(K2=6,75,IF(K2=5,70,56))))</f>
-        <v>80</v>
-      </c>
-      <c r="V2" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V2" s="2" t="e">
         <f>INT(IF(K2=7,80,IF(K2=6,75,IF(K2=5,70,56))))</f>
-        <v>80</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W2" s="2">
         <v>100</v>
@@ -4056,84 +4192,82 @@
       </c>
       <c r="AH2" s="2">
         <f>IF(G2=3,100,IF(G2=2,200,0))</f>
-        <v>100</v>
-      </c>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+    <row r="3" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
         <v>1002</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="5">
+      <c r="G3" s="6">
         <f>IF(VLOOKUP(B3,[1]一阶段!$B:$O,4,0)="七杀",3,IF(VLOOKUP(B3,[1]一阶段!$B:$O,4,0)="破军",1,IF(VLOOKUP(B3,[1]一阶段!$B:$O,4,0)="贪狼",2,0)))</f>
-        <v>2</v>
-      </c>
-      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
         <f>IF(VLOOKUP(B3,[1]一阶段!$B:$O,6,0)="魏",1,IF(VLOOKUP(B3,[1]一阶段!$B:$O,6,0)="蜀",2,IF(VLOOKUP(B3,[1]一阶段!$B:$O,6,0)="吴",3,IF(VLOOKUP(B3,[1]一阶段!$B:$O,6,0)="群",4,0))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
         <f>IF(VLOOKUP(B3,[1]一阶段!$B:$N,5,0)="7星",4,IF(VLOOKUP(B3,[1]一阶段!$B:$N,5,0)="6星",3,IF(VLOOKUP(B3,[1]一阶段!$B:$N,5,0)="5星",3,IF(VLOOKUP(B3,[1]一阶段!$B:$N,5,0)="4星",2,IF(VLOOKUP(B3,[1]一阶段!$B:$N,5,0)="3星",1,0)))))</f>
-        <v>4</v>
-      </c>
-      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
         <f>IF(VLOOKUP(B3,[1]一阶段!$B:$N,2,0)="男",1,IF(VLOOKUP(B3,[1]一阶段!$B:$N,2,0)="女",2,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="e">
         <f>INT(LEFT(VLOOKUP(B3,[1]一阶段!$B:$N,5,0),1))</f>
-        <v>7</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L3" s="2">
         <v>1</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="2" t="str">
         <f>IF(VLOOKUP(B3,[1]一阶段!$B:$O,7,0)="力量",0,IF(VLOOKUP(B3,[1]一阶段!$B:$O,7,0)="智力",1,IF(VLOOKUP(B3,[1]一阶段!$B:$O,7,0)="敏捷",2,IF(VLOOKUP(B3,[1]一阶段!$B:$O,7,0)="体质",3,""))))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="N3" s="2">
         <f>VLOOKUP(B3,[1]一阶段!$B:$O,8,0)</f>
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="O3" s="2">
         <f>VLOOKUP(B3,[1]一阶段!$B:$O,9,0)</f>
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="P3" s="2">
         <f>VLOOKUP(B3,[1]一阶段!$B:$O,10,0)</f>
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="Q3" s="2">
         <f>VLOOKUP(B3,[1]一阶段!$B:$O,11,0)</f>
-        <v>82</v>
+        <v>353</v>
       </c>
       <c r="R3" s="2" t="str">
         <f>IF(VLOOKUP(B3,[1]一阶段!$B:$O,13,0)="穿刺",0,IF(VLOOKUP(B3,[1]一阶段!$B:$O,13,0)="法术",1,IF(VLOOKUP(B3,[1]一阶段!$B:$O,13,0)="粉碎",2,IF(VLOOKUP(B3,[1]一阶段!$B:$O,13,0)="横扫",3,IF(VLOOKUP(B3,[1]一阶段!$B:$O,13,0)="短兵",4,IF(VLOOKUP(B3,[1]一阶段!$B:$O,13,0)="远射",5,6))))))&amp;IF(VLOOKUP(B3,[1]一阶段!$B:$O,14,0)="","",IF(VLOOKUP(B3,[1]一阶段!$B:$O,14,0)="穿刺",",0",IF(VLOOKUP(B3,[1]一阶段!$B:$O,14,0)="法术",",1",IF(VLOOKUP(B3,[1]一阶段!$B:$O,14,0)="粉碎",",2",IF(VLOOKUP(B3,[1]一阶段!$B:$O,14,0)="横扫",",3",IF(VLOOKUP(B3,[1]一阶段!$B:$O,14,0)="短兵",",4",IF(VLOOKUP(B3,[1]一阶段!$B:$O,14,0)="远射",",5",",6")))))))</f>
-        <v>1,4</v>
-      </c>
-      <c r="S3" s="2">
+        <v>4,6</v>
+      </c>
+      <c r="S3" s="2" t="e">
         <f t="shared" ref="S3:S33" si="0">INT(IF(K3=7,375,IF(K3=6,325,IF(K3=5,300,250))))</f>
-        <v>375</v>
-      </c>
-      <c r="T3" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T3" s="2" t="e">
         <f t="shared" ref="T3:T33" si="1">INT(IF(K3=7,125,IF(K3=6,115,IF(K3=5,100,80))))</f>
-        <v>125</v>
-      </c>
-      <c r="U3" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U3" s="2" t="e">
         <f t="shared" ref="U3:U33" si="2">INT(IF(K3=7,80,IF(K3=6,75,IF(K3=5,70,56))))</f>
-        <v>80</v>
-      </c>
-      <c r="V3" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V3" s="2" t="e">
         <f t="shared" ref="V3:V33" si="3">INT(IF(K3=7,80,IF(K3=6,75,IF(K3=5,70,56))))</f>
-        <v>80</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W3" s="2">
         <v>100</v>
@@ -4170,84 +4304,82 @@
       </c>
       <c r="AH3" s="2">
         <f t="shared" ref="AH3:AH33" si="4">IF(G3=3,100,IF(G3=2,200,0))</f>
-        <v>200</v>
-      </c>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+    <row r="4" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
         <v>1003</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="5">
+      <c r="G4" s="6">
         <f>IF(VLOOKUP(B4,[1]一阶段!$B:$O,4,0)="七杀",3,IF(VLOOKUP(B4,[1]一阶段!$B:$O,4,0)="破军",1,IF(VLOOKUP(B4,[1]一阶段!$B:$O,4,0)="贪狼",2,0)))</f>
-        <v>3</v>
-      </c>
-      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
         <f>IF(VLOOKUP(B4,[1]一阶段!$B:$O,6,0)="魏",1,IF(VLOOKUP(B4,[1]一阶段!$B:$O,6,0)="蜀",2,IF(VLOOKUP(B4,[1]一阶段!$B:$O,6,0)="吴",3,IF(VLOOKUP(B4,[1]一阶段!$B:$O,6,0)="群",4,0))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f>IF(VLOOKUP(B4,[1]一阶段!$B:$N,5,0)="7星",4,IF(VLOOKUP(B4,[1]一阶段!$B:$N,5,0)="6星",3,IF(VLOOKUP(B4,[1]一阶段!$B:$N,5,0)="5星",3,IF(VLOOKUP(B4,[1]一阶段!$B:$N,5,0)="4星",2,IF(VLOOKUP(B4,[1]一阶段!$B:$N,5,0)="3星",1,0)))))</f>
-        <v>3</v>
-      </c>
-      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
         <f>IF(VLOOKUP(B4,[1]一阶段!$B:$N,2,0)="男",1,IF(VLOOKUP(B4,[1]一阶段!$B:$N,2,0)="女",2,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="e">
         <f>INT(LEFT(VLOOKUP(B4,[1]一阶段!$B:$N,5,0),1))</f>
-        <v>6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L4" s="2">
         <v>1</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="2" t="str">
         <f>IF(VLOOKUP(B4,[1]一阶段!$B:$O,7,0)="力量",0,IF(VLOOKUP(B4,[1]一阶段!$B:$O,7,0)="智力",1,IF(VLOOKUP(B4,[1]一阶段!$B:$O,7,0)="敏捷",2,IF(VLOOKUP(B4,[1]一阶段!$B:$O,7,0)="体质",3,""))))</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="N4" s="2">
         <f>VLOOKUP(B4,[1]一阶段!$B:$O,8,0)</f>
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="O4" s="2">
         <f>VLOOKUP(B4,[1]一阶段!$B:$O,9,0)</f>
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="P4" s="2">
         <f>VLOOKUP(B4,[1]一阶段!$B:$O,10,0)</f>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="2">
         <f>VLOOKUP(B4,[1]一阶段!$B:$O,11,0)</f>
-        <v>94</v>
+        <v>364</v>
       </c>
       <c r="R4" s="2" t="str">
         <f>IF(VLOOKUP(B4,[1]一阶段!$B:$O,13,0)="穿刺",0,IF(VLOOKUP(B4,[1]一阶段!$B:$O,13,0)="法术",1,IF(VLOOKUP(B4,[1]一阶段!$B:$O,13,0)="粉碎",2,IF(VLOOKUP(B4,[1]一阶段!$B:$O,13,0)="横扫",3,IF(VLOOKUP(B4,[1]一阶段!$B:$O,13,0)="短兵",4,IF(VLOOKUP(B4,[1]一阶段!$B:$O,13,0)="远射",5,6))))))&amp;IF(VLOOKUP(B4,[1]一阶段!$B:$O,14,0)="","",IF(VLOOKUP(B4,[1]一阶段!$B:$O,14,0)="穿刺",",0",IF(VLOOKUP(B4,[1]一阶段!$B:$O,14,0)="法术",",1",IF(VLOOKUP(B4,[1]一阶段!$B:$O,14,0)="粉碎",",2",IF(VLOOKUP(B4,[1]一阶段!$B:$O,14,0)="横扫",",3",IF(VLOOKUP(B4,[1]一阶段!$B:$O,14,0)="短兵",",4",IF(VLOOKUP(B4,[1]一阶段!$B:$O,14,0)="远射",",5",",6")))))))</f>
-        <v>4,5</v>
-      </c>
-      <c r="S4" s="2">
+        <v>5,6</v>
+      </c>
+      <c r="S4" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>325</v>
-      </c>
-      <c r="T4" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T4" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="U4" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U4" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="V4" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V4" s="2" t="e">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W4" s="2">
         <v>100</v>
@@ -4284,84 +4416,82 @@
       </c>
       <c r="AH4" s="2">
         <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
+    <row r="5" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
         <v>1004</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="B5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="5">
+      <c r="G5" s="6">
         <f>IF(VLOOKUP(B5,[1]一阶段!$B:$O,4,0)="七杀",3,IF(VLOOKUP(B5,[1]一阶段!$B:$O,4,0)="破军",1,IF(VLOOKUP(B5,[1]一阶段!$B:$O,4,0)="贪狼",2,0)))</f>
-        <v>2</v>
-      </c>
-      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
         <f>IF(VLOOKUP(B5,[1]一阶段!$B:$O,6,0)="魏",1,IF(VLOOKUP(B5,[1]一阶段!$B:$O,6,0)="蜀",2,IF(VLOOKUP(B5,[1]一阶段!$B:$O,6,0)="吴",3,IF(VLOOKUP(B5,[1]一阶段!$B:$O,6,0)="群",4,0))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
         <f>IF(VLOOKUP(B5,[1]一阶段!$B:$N,5,0)="7星",4,IF(VLOOKUP(B5,[1]一阶段!$B:$N,5,0)="6星",3,IF(VLOOKUP(B5,[1]一阶段!$B:$N,5,0)="5星",3,IF(VLOOKUP(B5,[1]一阶段!$B:$N,5,0)="4星",2,IF(VLOOKUP(B5,[1]一阶段!$B:$N,5,0)="3星",1,0)))))</f>
-        <v>3</v>
-      </c>
-      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
         <f>IF(VLOOKUP(B5,[1]一阶段!$B:$N,2,0)="男",1,IF(VLOOKUP(B5,[1]一阶段!$B:$N,2,0)="女",2,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="e">
         <f>INT(LEFT(VLOOKUP(B5,[1]一阶段!$B:$N,5,0),1))</f>
-        <v>6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L5" s="2">
         <v>1</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="2" t="str">
         <f>IF(VLOOKUP(B5,[1]一阶段!$B:$O,7,0)="力量",0,IF(VLOOKUP(B5,[1]一阶段!$B:$O,7,0)="智力",1,IF(VLOOKUP(B5,[1]一阶段!$B:$O,7,0)="敏捷",2,IF(VLOOKUP(B5,[1]一阶段!$B:$O,7,0)="体质",3,""))))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="N5" s="2">
         <f>VLOOKUP(B5,[1]一阶段!$B:$O,8,0)</f>
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="O5" s="2">
         <f>VLOOKUP(B5,[1]一阶段!$B:$O,9,0)</f>
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P5" s="2">
         <f>VLOOKUP(B5,[1]一阶段!$B:$O,10,0)</f>
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="Q5" s="2">
         <f>VLOOKUP(B5,[1]一阶段!$B:$O,11,0)</f>
-        <v>88</v>
+        <v>350</v>
       </c>
       <c r="R5" s="2" t="str">
         <f>IF(VLOOKUP(B5,[1]一阶段!$B:$O,13,0)="穿刺",0,IF(VLOOKUP(B5,[1]一阶段!$B:$O,13,0)="法术",1,IF(VLOOKUP(B5,[1]一阶段!$B:$O,13,0)="粉碎",2,IF(VLOOKUP(B5,[1]一阶段!$B:$O,13,0)="横扫",3,IF(VLOOKUP(B5,[1]一阶段!$B:$O,13,0)="短兵",4,IF(VLOOKUP(B5,[1]一阶段!$B:$O,13,0)="远射",5,6))))))&amp;IF(VLOOKUP(B5,[1]一阶段!$B:$O,14,0)="","",IF(VLOOKUP(B5,[1]一阶段!$B:$O,14,0)="穿刺",",0",IF(VLOOKUP(B5,[1]一阶段!$B:$O,14,0)="法术",",1",IF(VLOOKUP(B5,[1]一阶段!$B:$O,14,0)="粉碎",",2",IF(VLOOKUP(B5,[1]一阶段!$B:$O,14,0)="横扫",",3",IF(VLOOKUP(B5,[1]一阶段!$B:$O,14,0)="短兵",",4",IF(VLOOKUP(B5,[1]一阶段!$B:$O,14,0)="远射",",5",",6")))))))</f>
-        <v>1,4</v>
-      </c>
-      <c r="S5" s="2">
+        <v>4,6</v>
+      </c>
+      <c r="S5" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>325</v>
-      </c>
-      <c r="T5" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T5" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="U5" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U5" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="V5" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V5" s="2" t="e">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W5" s="2">
         <v>100</v>
@@ -4398,48 +4528,46 @@
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
+    <row r="6" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
         <v>1005</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="5">
+      <c r="G6" s="6">
         <f>IF(VLOOKUP(B6,[1]一阶段!$B:$O,4,0)="七杀",3,IF(VLOOKUP(B6,[1]一阶段!$B:$O,4,0)="破军",1,IF(VLOOKUP(B6,[1]一阶段!$B:$O,4,0)="贪狼",2,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
         <f>IF(VLOOKUP(B6,[1]一阶段!$B:$O,6,0)="魏",1,IF(VLOOKUP(B6,[1]一阶段!$B:$O,6,0)="蜀",2,IF(VLOOKUP(B6,[1]一阶段!$B:$O,6,0)="吴",3,IF(VLOOKUP(B6,[1]一阶段!$B:$O,6,0)="群",4,0))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
         <f>IF(VLOOKUP(B6,[1]一阶段!$B:$N,5,0)="7星",4,IF(VLOOKUP(B6,[1]一阶段!$B:$N,5,0)="6星",3,IF(VLOOKUP(B6,[1]一阶段!$B:$N,5,0)="5星",3,IF(VLOOKUP(B6,[1]一阶段!$B:$N,5,0)="4星",2,IF(VLOOKUP(B6,[1]一阶段!$B:$N,5,0)="3星",1,0)))))</f>
-        <v>3</v>
-      </c>
-      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
         <f>IF(VLOOKUP(B6,[1]一阶段!$B:$N,2,0)="男",1,IF(VLOOKUP(B6,[1]一阶段!$B:$N,2,0)="女",2,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="e">
         <f>INT(LEFT(VLOOKUP(B6,[1]一阶段!$B:$N,5,0),1))</f>
-        <v>6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L6" s="2">
         <v>1</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="2" t="str">
         <f>IF(VLOOKUP(B6,[1]一阶段!$B:$O,7,0)="力量",0,IF(VLOOKUP(B6,[1]一阶段!$B:$O,7,0)="智力",1,IF(VLOOKUP(B6,[1]一阶段!$B:$O,7,0)="敏捷",2,IF(VLOOKUP(B6,[1]一阶段!$B:$O,7,0)="体质",3,""))))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="N6" s="2">
         <f>VLOOKUP(B6,[1]一阶段!$B:$O,8,0)</f>
@@ -4455,27 +4583,27 @@
       </c>
       <c r="Q6" s="2">
         <f>VLOOKUP(B6,[1]一阶段!$B:$O,11,0)</f>
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="R6" s="2" t="str">
         <f>IF(VLOOKUP(B6,[1]一阶段!$B:$O,13,0)="穿刺",0,IF(VLOOKUP(B6,[1]一阶段!$B:$O,13,0)="法术",1,IF(VLOOKUP(B6,[1]一阶段!$B:$O,13,0)="粉碎",2,IF(VLOOKUP(B6,[1]一阶段!$B:$O,13,0)="横扫",3,IF(VLOOKUP(B6,[1]一阶段!$B:$O,13,0)="短兵",4,IF(VLOOKUP(B6,[1]一阶段!$B:$O,13,0)="远射",5,6))))))&amp;IF(VLOOKUP(B6,[1]一阶段!$B:$O,14,0)="","",IF(VLOOKUP(B6,[1]一阶段!$B:$O,14,0)="穿刺",",0",IF(VLOOKUP(B6,[1]一阶段!$B:$O,14,0)="法术",",1",IF(VLOOKUP(B6,[1]一阶段!$B:$O,14,0)="粉碎",",2",IF(VLOOKUP(B6,[1]一阶段!$B:$O,14,0)="横扫",",3",IF(VLOOKUP(B6,[1]一阶段!$B:$O,14,0)="短兵",",4",IF(VLOOKUP(B6,[1]一阶段!$B:$O,14,0)="远射",",5",",6")))))))</f>
-        <v>1,4</v>
-      </c>
-      <c r="S6" s="2">
+        <v>4,6</v>
+      </c>
+      <c r="S6" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>325</v>
-      </c>
-      <c r="T6" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T6" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="U6" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U6" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="V6" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V6" s="2" t="e">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W6" s="2">
         <v>100</v>
@@ -4514,46 +4642,44 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
+    <row r="7" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
         <v>1006</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="5">
+      <c r="G7" s="6">
         <f>IF(VLOOKUP(B7,[1]一阶段!$B:$O,4,0)="七杀",3,IF(VLOOKUP(B7,[1]一阶段!$B:$O,4,0)="破军",1,IF(VLOOKUP(B7,[1]一阶段!$B:$O,4,0)="贪狼",2,0)))</f>
-        <v>3</v>
-      </c>
-      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
         <f>IF(VLOOKUP(B7,[1]一阶段!$B:$O,6,0)="魏",1,IF(VLOOKUP(B7,[1]一阶段!$B:$O,6,0)="蜀",2,IF(VLOOKUP(B7,[1]一阶段!$B:$O,6,0)="吴",3,IF(VLOOKUP(B7,[1]一阶段!$B:$O,6,0)="群",4,0))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
         <f>IF(VLOOKUP(B7,[1]一阶段!$B:$N,5,0)="7星",4,IF(VLOOKUP(B7,[1]一阶段!$B:$N,5,0)="6星",3,IF(VLOOKUP(B7,[1]一阶段!$B:$N,5,0)="5星",3,IF(VLOOKUP(B7,[1]一阶段!$B:$N,5,0)="4星",2,IF(VLOOKUP(B7,[1]一阶段!$B:$N,5,0)="3星",1,0)))))</f>
-        <v>3</v>
-      </c>
-      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
         <f>IF(VLOOKUP(B7,[1]一阶段!$B:$N,2,0)="男",1,IF(VLOOKUP(B7,[1]一阶段!$B:$N,2,0)="女",2,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="e">
         <f>INT(LEFT(VLOOKUP(B7,[1]一阶段!$B:$N,5,0),1))</f>
-        <v>6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L7" s="2">
         <v>1</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="2" t="str">
         <f>IF(VLOOKUP(B7,[1]一阶段!$B:$O,7,0)="力量",0,IF(VLOOKUP(B7,[1]一阶段!$B:$O,7,0)="智力",1,IF(VLOOKUP(B7,[1]一阶段!$B:$O,7,0)="敏捷",2,IF(VLOOKUP(B7,[1]一阶段!$B:$O,7,0)="体质",3,""))))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="N7" s="2">
         <f>VLOOKUP(B7,[1]一阶段!$B:$O,8,0)</f>
@@ -4573,23 +4699,23 @@
       </c>
       <c r="R7" s="2" t="str">
         <f>IF(VLOOKUP(B7,[1]一阶段!$B:$O,13,0)="穿刺",0,IF(VLOOKUP(B7,[1]一阶段!$B:$O,13,0)="法术",1,IF(VLOOKUP(B7,[1]一阶段!$B:$O,13,0)="粉碎",2,IF(VLOOKUP(B7,[1]一阶段!$B:$O,13,0)="横扫",3,IF(VLOOKUP(B7,[1]一阶段!$B:$O,13,0)="短兵",4,IF(VLOOKUP(B7,[1]一阶段!$B:$O,13,0)="远射",5,6))))))&amp;IF(VLOOKUP(B7,[1]一阶段!$B:$O,14,0)="","",IF(VLOOKUP(B7,[1]一阶段!$B:$O,14,0)="穿刺",",0",IF(VLOOKUP(B7,[1]一阶段!$B:$O,14,0)="法术",",1",IF(VLOOKUP(B7,[1]一阶段!$B:$O,14,0)="粉碎",",2",IF(VLOOKUP(B7,[1]一阶段!$B:$O,14,0)="横扫",",3",IF(VLOOKUP(B7,[1]一阶段!$B:$O,14,0)="短兵",",4",IF(VLOOKUP(B7,[1]一阶段!$B:$O,14,0)="远射",",5",",6")))))))</f>
-        <v>5,4</v>
-      </c>
-      <c r="S7" s="2">
+        <v>4,6</v>
+      </c>
+      <c r="S7" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>325</v>
-      </c>
-      <c r="T7" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T7" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="U7" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U7" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="V7" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V7" s="2" t="e">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W7" s="2">
         <v>100</v>
@@ -4626,84 +4752,82 @@
       </c>
       <c r="AH7" s="2">
         <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+    <row r="8" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
         <v>1007</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="5">
+      <c r="G8" s="6">
         <f>IF(VLOOKUP(B8,[1]一阶段!$B:$O,4,0)="七杀",3,IF(VLOOKUP(B8,[1]一阶段!$B:$O,4,0)="破军",1,IF(VLOOKUP(B8,[1]一阶段!$B:$O,4,0)="贪狼",2,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
         <f>IF(VLOOKUP(B8,[1]一阶段!$B:$O,6,0)="魏",1,IF(VLOOKUP(B8,[1]一阶段!$B:$O,6,0)="蜀",2,IF(VLOOKUP(B8,[1]一阶段!$B:$O,6,0)="吴",3,IF(VLOOKUP(B8,[1]一阶段!$B:$O,6,0)="群",4,0))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
         <f>IF(VLOOKUP(B8,[1]一阶段!$B:$N,5,0)="7星",4,IF(VLOOKUP(B8,[1]一阶段!$B:$N,5,0)="6星",3,IF(VLOOKUP(B8,[1]一阶段!$B:$N,5,0)="5星",3,IF(VLOOKUP(B8,[1]一阶段!$B:$N,5,0)="4星",2,IF(VLOOKUP(B8,[1]一阶段!$B:$N,5,0)="3星",1,0)))))</f>
-        <v>3</v>
-      </c>
-      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
         <f>IF(VLOOKUP(B8,[1]一阶段!$B:$N,2,0)="男",1,IF(VLOOKUP(B8,[1]一阶段!$B:$N,2,0)="女",2,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="e">
         <f>INT(LEFT(VLOOKUP(B8,[1]一阶段!$B:$N,5,0),1))</f>
-        <v>6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L8" s="2">
         <v>1</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="2" t="str">
         <f>IF(VLOOKUP(B8,[1]一阶段!$B:$O,7,0)="力量",0,IF(VLOOKUP(B8,[1]一阶段!$B:$O,7,0)="智力",1,IF(VLOOKUP(B8,[1]一阶段!$B:$O,7,0)="敏捷",2,IF(VLOOKUP(B8,[1]一阶段!$B:$O,7,0)="体质",3,""))))</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="N8" s="2">
         <f>VLOOKUP(B8,[1]一阶段!$B:$O,8,0)</f>
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="O8" s="2">
         <f>VLOOKUP(B8,[1]一阶段!$B:$O,9,0)</f>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="P8" s="2">
         <f>VLOOKUP(B8,[1]一阶段!$B:$O,10,0)</f>
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="Q8" s="2">
         <f>VLOOKUP(B8,[1]一阶段!$B:$O,11,0)</f>
-        <v>98</v>
+        <v>340</v>
       </c>
       <c r="R8" s="2" t="str">
         <f>IF(VLOOKUP(B8,[1]一阶段!$B:$O,13,0)="穿刺",0,IF(VLOOKUP(B8,[1]一阶段!$B:$O,13,0)="法术",1,IF(VLOOKUP(B8,[1]一阶段!$B:$O,13,0)="粉碎",2,IF(VLOOKUP(B8,[1]一阶段!$B:$O,13,0)="横扫",3,IF(VLOOKUP(B8,[1]一阶段!$B:$O,13,0)="短兵",4,IF(VLOOKUP(B8,[1]一阶段!$B:$O,13,0)="远射",5,6))))))&amp;IF(VLOOKUP(B8,[1]一阶段!$B:$O,14,0)="","",IF(VLOOKUP(B8,[1]一阶段!$B:$O,14,0)="穿刺",",0",IF(VLOOKUP(B8,[1]一阶段!$B:$O,14,0)="法术",",1",IF(VLOOKUP(B8,[1]一阶段!$B:$O,14,0)="粉碎",",2",IF(VLOOKUP(B8,[1]一阶段!$B:$O,14,0)="横扫",",3",IF(VLOOKUP(B8,[1]一阶段!$B:$O,14,0)="短兵",",4",IF(VLOOKUP(B8,[1]一阶段!$B:$O,14,0)="远射",",5",",6")))))))</f>
-        <v>2,0</v>
-      </c>
-      <c r="S8" s="2">
+        <v>0,6</v>
+      </c>
+      <c r="S8" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>325</v>
-      </c>
-      <c r="T8" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T8" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="U8" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U8" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="V8" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V8" s="2" t="e">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W8" s="2">
         <v>100</v>
@@ -4742,46 +4866,44 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
     </row>
-    <row r="9" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
+    <row r="9" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
         <v>1008</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="5">
+      <c r="G9" s="6">
         <f>IF(VLOOKUP(B9,[1]一阶段!$B:$O,4,0)="七杀",3,IF(VLOOKUP(B9,[1]一阶段!$B:$O,4,0)="破军",1,IF(VLOOKUP(B9,[1]一阶段!$B:$O,4,0)="贪狼",2,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
         <f>IF(VLOOKUP(B9,[1]一阶段!$B:$O,6,0)="魏",1,IF(VLOOKUP(B9,[1]一阶段!$B:$O,6,0)="蜀",2,IF(VLOOKUP(B9,[1]一阶段!$B:$O,6,0)="吴",3,IF(VLOOKUP(B9,[1]一阶段!$B:$O,6,0)="群",4,0))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
         <f>IF(VLOOKUP(B9,[1]一阶段!$B:$N,5,0)="7星",4,IF(VLOOKUP(B9,[1]一阶段!$B:$N,5,0)="6星",3,IF(VLOOKUP(B9,[1]一阶段!$B:$N,5,0)="5星",3,IF(VLOOKUP(B9,[1]一阶段!$B:$N,5,0)="4星",2,IF(VLOOKUP(B9,[1]一阶段!$B:$N,5,0)="3星",1,0)))))</f>
-        <v>3</v>
-      </c>
-      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
         <f>IF(VLOOKUP(B9,[1]一阶段!$B:$N,2,0)="男",1,IF(VLOOKUP(B9,[1]一阶段!$B:$N,2,0)="女",2,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="e">
         <f>INT(LEFT(VLOOKUP(B9,[1]一阶段!$B:$N,5,0),1))</f>
-        <v>6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L9" s="2">
         <v>1</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="2" t="str">
         <f>IF(VLOOKUP(B9,[1]一阶段!$B:$O,7,0)="力量",0,IF(VLOOKUP(B9,[1]一阶段!$B:$O,7,0)="智力",1,IF(VLOOKUP(B9,[1]一阶段!$B:$O,7,0)="敏捷",2,IF(VLOOKUP(B9,[1]一阶段!$B:$O,7,0)="体质",3,""))))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="N9" s="2">
         <f>VLOOKUP(B9,[1]一阶段!$B:$O,8,0)</f>
@@ -4801,23 +4923,23 @@
       </c>
       <c r="R9" s="2" t="str">
         <f>IF(VLOOKUP(B9,[1]一阶段!$B:$O,13,0)="穿刺",0,IF(VLOOKUP(B9,[1]一阶段!$B:$O,13,0)="法术",1,IF(VLOOKUP(B9,[1]一阶段!$B:$O,13,0)="粉碎",2,IF(VLOOKUP(B9,[1]一阶段!$B:$O,13,0)="横扫",3,IF(VLOOKUP(B9,[1]一阶段!$B:$O,13,0)="短兵",4,IF(VLOOKUP(B9,[1]一阶段!$B:$O,13,0)="远射",5,6))))))&amp;IF(VLOOKUP(B9,[1]一阶段!$B:$O,14,0)="","",IF(VLOOKUP(B9,[1]一阶段!$B:$O,14,0)="穿刺",",0",IF(VLOOKUP(B9,[1]一阶段!$B:$O,14,0)="法术",",1",IF(VLOOKUP(B9,[1]一阶段!$B:$O,14,0)="粉碎",",2",IF(VLOOKUP(B9,[1]一阶段!$B:$O,14,0)="横扫",",3",IF(VLOOKUP(B9,[1]一阶段!$B:$O,14,0)="短兵",",4",IF(VLOOKUP(B9,[1]一阶段!$B:$O,14,0)="远射",",5",",6")))))))</f>
-        <v>5</v>
-      </c>
-      <c r="S9" s="2">
+        <v>6,6</v>
+      </c>
+      <c r="S9" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>325</v>
-      </c>
-      <c r="T9" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T9" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="U9" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U9" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="V9" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V9" s="2" t="e">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W9" s="2">
         <v>100</v>
@@ -4856,82 +4978,80 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
     </row>
-    <row r="10" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
+    <row r="10" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
         <v>1009</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="B10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="5">
+      <c r="G10" s="6">
         <f>IF(VLOOKUP(B10,[1]一阶段!$B:$O,4,0)="七杀",3,IF(VLOOKUP(B10,[1]一阶段!$B:$O,4,0)="破军",1,IF(VLOOKUP(B10,[1]一阶段!$B:$O,4,0)="贪狼",2,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
         <f>IF(VLOOKUP(B10,[1]一阶段!$B:$O,6,0)="魏",1,IF(VLOOKUP(B10,[1]一阶段!$B:$O,6,0)="蜀",2,IF(VLOOKUP(B10,[1]一阶段!$B:$O,6,0)="吴",3,IF(VLOOKUP(B10,[1]一阶段!$B:$O,6,0)="群",4,0))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2">
         <f>IF(VLOOKUP(B10,[1]一阶段!$B:$N,5,0)="7星",4,IF(VLOOKUP(B10,[1]一阶段!$B:$N,5,0)="6星",3,IF(VLOOKUP(B10,[1]一阶段!$B:$N,5,0)="5星",3,IF(VLOOKUP(B10,[1]一阶段!$B:$N,5,0)="4星",2,IF(VLOOKUP(B10,[1]一阶段!$B:$N,5,0)="3星",1,0)))))</f>
-        <v>4</v>
-      </c>
-      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
         <f>IF(VLOOKUP(B10,[1]一阶段!$B:$N,2,0)="男",1,IF(VLOOKUP(B10,[1]一阶段!$B:$N,2,0)="女",2,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="e">
         <f>INT(LEFT(VLOOKUP(B10,[1]一阶段!$B:$N,5,0),1))</f>
-        <v>7</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L10" s="2">
         <v>1</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="2" t="str">
         <f>IF(VLOOKUP(B10,[1]一阶段!$B:$O,7,0)="力量",0,IF(VLOOKUP(B10,[1]一阶段!$B:$O,7,0)="智力",1,IF(VLOOKUP(B10,[1]一阶段!$B:$O,7,0)="敏捷",2,IF(VLOOKUP(B10,[1]一阶段!$B:$O,7,0)="体质",3,""))))</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="N10" s="2">
         <f>VLOOKUP(B10,[1]一阶段!$B:$O,8,0)</f>
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="O10" s="2">
         <f>VLOOKUP(B10,[1]一阶段!$B:$O,9,0)</f>
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="P10" s="2">
         <f>VLOOKUP(B10,[1]一阶段!$B:$O,10,0)</f>
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="2">
         <f>VLOOKUP(B10,[1]一阶段!$B:$O,11,0)</f>
-        <v>100</v>
+        <v>361</v>
       </c>
       <c r="R10" s="2" t="str">
         <f>IF(VLOOKUP(B10,[1]一阶段!$B:$O,13,0)="穿刺",0,IF(VLOOKUP(B10,[1]一阶段!$B:$O,13,0)="法术",1,IF(VLOOKUP(B10,[1]一阶段!$B:$O,13,0)="粉碎",2,IF(VLOOKUP(B10,[1]一阶段!$B:$O,13,0)="横扫",3,IF(VLOOKUP(B10,[1]一阶段!$B:$O,13,0)="短兵",4,IF(VLOOKUP(B10,[1]一阶段!$B:$O,13,0)="远射",5,6))))))&amp;IF(VLOOKUP(B10,[1]一阶段!$B:$O,14,0)="","",IF(VLOOKUP(B10,[1]一阶段!$B:$O,14,0)="穿刺",",0",IF(VLOOKUP(B10,[1]一阶段!$B:$O,14,0)="法术",",1",IF(VLOOKUP(B10,[1]一阶段!$B:$O,14,0)="粉碎",",2",IF(VLOOKUP(B10,[1]一阶段!$B:$O,14,0)="横扫",",3",IF(VLOOKUP(B10,[1]一阶段!$B:$O,14,0)="短兵",",4",IF(VLOOKUP(B10,[1]一阶段!$B:$O,14,0)="远射",",5",",6")))))))</f>
-        <v>2,4</v>
-      </c>
-      <c r="S10" s="2">
+        <v>4,6</v>
+      </c>
+      <c r="S10" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>375</v>
-      </c>
-      <c r="T10" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T10" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="U10" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U10" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="V10" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V10" s="2" t="e">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W10" s="2">
         <v>100</v>
@@ -4970,82 +5090,80 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
+    <row r="11" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
         <v>1010</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="B11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="5">
+      <c r="G11" s="6">
         <f>IF(VLOOKUP(B11,[1]一阶段!$B:$O,4,0)="七杀",3,IF(VLOOKUP(B11,[1]一阶段!$B:$O,4,0)="破军",1,IF(VLOOKUP(B11,[1]一阶段!$B:$O,4,0)="贪狼",2,0)))</f>
-        <v>2</v>
-      </c>
-      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
         <f>IF(VLOOKUP(B11,[1]一阶段!$B:$O,6,0)="魏",1,IF(VLOOKUP(B11,[1]一阶段!$B:$O,6,0)="蜀",2,IF(VLOOKUP(B11,[1]一阶段!$B:$O,6,0)="吴",3,IF(VLOOKUP(B11,[1]一阶段!$B:$O,6,0)="群",4,0))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="2">
         <f>IF(VLOOKUP(B11,[1]一阶段!$B:$N,5,0)="7星",4,IF(VLOOKUP(B11,[1]一阶段!$B:$N,5,0)="6星",3,IF(VLOOKUP(B11,[1]一阶段!$B:$N,5,0)="5星",3,IF(VLOOKUP(B11,[1]一阶段!$B:$N,5,0)="4星",2,IF(VLOOKUP(B11,[1]一阶段!$B:$N,5,0)="3星",1,0)))))</f>
-        <v>4</v>
-      </c>
-      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
         <f>IF(VLOOKUP(B11,[1]一阶段!$B:$N,2,0)="男",1,IF(VLOOKUP(B11,[1]一阶段!$B:$N,2,0)="女",2,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="e">
         <f>INT(LEFT(VLOOKUP(B11,[1]一阶段!$B:$N,5,0),1))</f>
-        <v>7</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L11" s="2">
         <v>1</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="2" t="str">
         <f>IF(VLOOKUP(B11,[1]一阶段!$B:$O,7,0)="力量",0,IF(VLOOKUP(B11,[1]一阶段!$B:$O,7,0)="智力",1,IF(VLOOKUP(B11,[1]一阶段!$B:$O,7,0)="敏捷",2,IF(VLOOKUP(B11,[1]一阶段!$B:$O,7,0)="体质",3,""))))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="N11" s="2">
         <f>VLOOKUP(B11,[1]一阶段!$B:$O,8,0)</f>
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="O11" s="2">
         <f>VLOOKUP(B11,[1]一阶段!$B:$O,9,0)</f>
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="P11" s="2">
         <f>VLOOKUP(B11,[1]一阶段!$B:$O,10,0)</f>
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q11" s="2">
         <f>VLOOKUP(B11,[1]一阶段!$B:$O,11,0)</f>
-        <v>95</v>
+        <v>359</v>
       </c>
       <c r="R11" s="2" t="str">
         <f>IF(VLOOKUP(B11,[1]一阶段!$B:$O,13,0)="穿刺",0,IF(VLOOKUP(B11,[1]一阶段!$B:$O,13,0)="法术",1,IF(VLOOKUP(B11,[1]一阶段!$B:$O,13,0)="粉碎",2,IF(VLOOKUP(B11,[1]一阶段!$B:$O,13,0)="横扫",3,IF(VLOOKUP(B11,[1]一阶段!$B:$O,13,0)="短兵",4,IF(VLOOKUP(B11,[1]一阶段!$B:$O,13,0)="远射",5,6))))))&amp;IF(VLOOKUP(B11,[1]一阶段!$B:$O,14,0)="","",IF(VLOOKUP(B11,[1]一阶段!$B:$O,14,0)="穿刺",",0",IF(VLOOKUP(B11,[1]一阶段!$B:$O,14,0)="法术",",1",IF(VLOOKUP(B11,[1]一阶段!$B:$O,14,0)="粉碎",",2",IF(VLOOKUP(B11,[1]一阶段!$B:$O,14,0)="横扫",",3",IF(VLOOKUP(B11,[1]一阶段!$B:$O,14,0)="短兵",",4",IF(VLOOKUP(B11,[1]一阶段!$B:$O,14,0)="远射",",5",",6")))))))</f>
-        <v>1,4</v>
-      </c>
-      <c r="S11" s="2">
+        <v>4,6</v>
+      </c>
+      <c r="S11" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>375</v>
-      </c>
-      <c r="T11" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T11" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="U11" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U11" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="V11" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V11" s="2" t="e">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W11" s="2">
         <v>100</v>
@@ -5082,84 +5200,82 @@
       </c>
       <c r="AH11" s="2">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
+    <row r="12" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
         <v>1011</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="B12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="5">
+      <c r="G12" s="6">
         <f>IF(VLOOKUP(B12,[1]一阶段!$B:$O,4,0)="七杀",3,IF(VLOOKUP(B12,[1]一阶段!$B:$O,4,0)="破军",1,IF(VLOOKUP(B12,[1]一阶段!$B:$O,4,0)="贪狼",2,0)))</f>
-        <v>2</v>
-      </c>
-      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
         <f>IF(VLOOKUP(B12,[1]一阶段!$B:$O,6,0)="魏",1,IF(VLOOKUP(B12,[1]一阶段!$B:$O,6,0)="蜀",2,IF(VLOOKUP(B12,[1]一阶段!$B:$O,6,0)="吴",3,IF(VLOOKUP(B12,[1]一阶段!$B:$O,6,0)="群",4,0))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
         <f>IF(VLOOKUP(B12,[1]一阶段!$B:$N,5,0)="7星",4,IF(VLOOKUP(B12,[1]一阶段!$B:$N,5,0)="6星",3,IF(VLOOKUP(B12,[1]一阶段!$B:$N,5,0)="5星",3,IF(VLOOKUP(B12,[1]一阶段!$B:$N,5,0)="4星",2,IF(VLOOKUP(B12,[1]一阶段!$B:$N,5,0)="3星",1,0)))))</f>
-        <v>3</v>
-      </c>
-      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
         <f>IF(VLOOKUP(B12,[1]一阶段!$B:$N,2,0)="男",1,IF(VLOOKUP(B12,[1]一阶段!$B:$N,2,0)="女",2,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="e">
         <f>INT(LEFT(VLOOKUP(B12,[1]一阶段!$B:$N,5,0),1))</f>
-        <v>6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L12" s="2">
         <v>1</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="2" t="str">
         <f>IF(VLOOKUP(B12,[1]一阶段!$B:$O,7,0)="力量",0,IF(VLOOKUP(B12,[1]一阶段!$B:$O,7,0)="智力",1,IF(VLOOKUP(B12,[1]一阶段!$B:$O,7,0)="敏捷",2,IF(VLOOKUP(B12,[1]一阶段!$B:$O,7,0)="体质",3,""))))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="N12" s="2">
         <f>VLOOKUP(B12,[1]一阶段!$B:$O,8,0)</f>
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="O12" s="2">
         <f>VLOOKUP(B12,[1]一阶段!$B:$O,9,0)</f>
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="P12" s="2">
         <f>VLOOKUP(B12,[1]一阶段!$B:$O,10,0)</f>
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="Q12" s="2">
         <f>VLOOKUP(B12,[1]一阶段!$B:$O,11,0)</f>
-        <v>68</v>
+        <v>331</v>
       </c>
       <c r="R12" s="2" t="str">
         <f>IF(VLOOKUP(B12,[1]一阶段!$B:$O,13,0)="穿刺",0,IF(VLOOKUP(B12,[1]一阶段!$B:$O,13,0)="法术",1,IF(VLOOKUP(B12,[1]一阶段!$B:$O,13,0)="粉碎",2,IF(VLOOKUP(B12,[1]一阶段!$B:$O,13,0)="横扫",3,IF(VLOOKUP(B12,[1]一阶段!$B:$O,13,0)="短兵",4,IF(VLOOKUP(B12,[1]一阶段!$B:$O,13,0)="远射",5,6))))))&amp;IF(VLOOKUP(B12,[1]一阶段!$B:$O,14,0)="","",IF(VLOOKUP(B12,[1]一阶段!$B:$O,14,0)="穿刺",",0",IF(VLOOKUP(B12,[1]一阶段!$B:$O,14,0)="法术",",1",IF(VLOOKUP(B12,[1]一阶段!$B:$O,14,0)="粉碎",",2",IF(VLOOKUP(B12,[1]一阶段!$B:$O,14,0)="横扫",",3",IF(VLOOKUP(B12,[1]一阶段!$B:$O,14,0)="短兵",",4",IF(VLOOKUP(B12,[1]一阶段!$B:$O,14,0)="远射",",5",",6")))))))</f>
-        <v>1</v>
-      </c>
-      <c r="S12" s="2">
+        <v>6,6</v>
+      </c>
+      <c r="S12" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>325</v>
-      </c>
-      <c r="T12" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T12" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="U12" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U12" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="V12" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V12" s="2" t="e">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W12" s="2">
         <v>100</v>
@@ -5196,84 +5312,82 @@
       </c>
       <c r="AH12" s="2">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="AI12" s="2"/>
-      <c r="AJ12" s="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
+    <row r="13" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
         <v>1012</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="B13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="5">
+      <c r="G13" s="6">
         <f>IF(VLOOKUP(B13,[1]一阶段!$B:$O,4,0)="七杀",3,IF(VLOOKUP(B13,[1]一阶段!$B:$O,4,0)="破军",1,IF(VLOOKUP(B13,[1]一阶段!$B:$O,4,0)="贪狼",2,0)))</f>
-        <v>3</v>
-      </c>
-      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
         <f>IF(VLOOKUP(B13,[1]一阶段!$B:$O,6,0)="魏",1,IF(VLOOKUP(B13,[1]一阶段!$B:$O,6,0)="蜀",2,IF(VLOOKUP(B13,[1]一阶段!$B:$O,6,0)="吴",3,IF(VLOOKUP(B13,[1]一阶段!$B:$O,6,0)="群",4,0))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="2">
         <f>IF(VLOOKUP(B13,[1]一阶段!$B:$N,5,0)="7星",4,IF(VLOOKUP(B13,[1]一阶段!$B:$N,5,0)="6星",3,IF(VLOOKUP(B13,[1]一阶段!$B:$N,5,0)="5星",3,IF(VLOOKUP(B13,[1]一阶段!$B:$N,5,0)="4星",2,IF(VLOOKUP(B13,[1]一阶段!$B:$N,5,0)="3星",1,0)))))</f>
-        <v>3</v>
-      </c>
-      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
         <f>IF(VLOOKUP(B13,[1]一阶段!$B:$N,2,0)="男",1,IF(VLOOKUP(B13,[1]一阶段!$B:$N,2,0)="女",2,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="e">
         <f>INT(LEFT(VLOOKUP(B13,[1]一阶段!$B:$N,5,0),1))</f>
-        <v>6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L13" s="2">
         <v>1</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="2" t="str">
         <f>IF(VLOOKUP(B13,[1]一阶段!$B:$O,7,0)="力量",0,IF(VLOOKUP(B13,[1]一阶段!$B:$O,7,0)="智力",1,IF(VLOOKUP(B13,[1]一阶段!$B:$O,7,0)="敏捷",2,IF(VLOOKUP(B13,[1]一阶段!$B:$O,7,0)="体质",3,""))))</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="N13" s="2">
         <f>VLOOKUP(B13,[1]一阶段!$B:$O,8,0)</f>
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="O13" s="2">
         <f>VLOOKUP(B13,[1]一阶段!$B:$O,9,0)</f>
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P13" s="2">
         <f>VLOOKUP(B13,[1]一阶段!$B:$O,10,0)</f>
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="Q13" s="2">
         <f>VLOOKUP(B13,[1]一阶段!$B:$O,11,0)</f>
-        <v>99</v>
+        <v>335</v>
       </c>
       <c r="R13" s="2" t="str">
         <f>IF(VLOOKUP(B13,[1]一阶段!$B:$O,13,0)="穿刺",0,IF(VLOOKUP(B13,[1]一阶段!$B:$O,13,0)="法术",1,IF(VLOOKUP(B13,[1]一阶段!$B:$O,13,0)="粉碎",2,IF(VLOOKUP(B13,[1]一阶段!$B:$O,13,0)="横扫",3,IF(VLOOKUP(B13,[1]一阶段!$B:$O,13,0)="短兵",4,IF(VLOOKUP(B13,[1]一阶段!$B:$O,13,0)="远射",5,6))))))&amp;IF(VLOOKUP(B13,[1]一阶段!$B:$O,14,0)="","",IF(VLOOKUP(B13,[1]一阶段!$B:$O,14,0)="穿刺",",0",IF(VLOOKUP(B13,[1]一阶段!$B:$O,14,0)="法术",",1",IF(VLOOKUP(B13,[1]一阶段!$B:$O,14,0)="粉碎",",2",IF(VLOOKUP(B13,[1]一阶段!$B:$O,14,0)="横扫",",3",IF(VLOOKUP(B13,[1]一阶段!$B:$O,14,0)="短兵",",4",IF(VLOOKUP(B13,[1]一阶段!$B:$O,14,0)="远射",",5",",6")))))))</f>
-        <v>2</v>
-      </c>
-      <c r="S13" s="2">
+        <v>6,6</v>
+      </c>
+      <c r="S13" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>325</v>
-      </c>
-      <c r="T13" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T13" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="U13" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U13" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="V13" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V13" s="2" t="e">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W13" s="2">
         <v>100</v>
@@ -5310,84 +5424,82 @@
       </c>
       <c r="AH13" s="2">
         <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="AI13" s="2"/>
-      <c r="AJ13" s="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
+    <row r="14" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
         <v>1013</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="B14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="5">
+      <c r="G14" s="6">
         <f>IF(VLOOKUP(B14,[1]一阶段!$B:$O,4,0)="七杀",3,IF(VLOOKUP(B14,[1]一阶段!$B:$O,4,0)="破军",1,IF(VLOOKUP(B14,[1]一阶段!$B:$O,4,0)="贪狼",2,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
         <f>IF(VLOOKUP(B14,[1]一阶段!$B:$O,6,0)="魏",1,IF(VLOOKUP(B14,[1]一阶段!$B:$O,6,0)="蜀",2,IF(VLOOKUP(B14,[1]一阶段!$B:$O,6,0)="吴",3,IF(VLOOKUP(B14,[1]一阶段!$B:$O,6,0)="群",4,0))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2">
         <f>IF(VLOOKUP(B14,[1]一阶段!$B:$N,5,0)="7星",4,IF(VLOOKUP(B14,[1]一阶段!$B:$N,5,0)="6星",3,IF(VLOOKUP(B14,[1]一阶段!$B:$N,5,0)="5星",3,IF(VLOOKUP(B14,[1]一阶段!$B:$N,5,0)="4星",2,IF(VLOOKUP(B14,[1]一阶段!$B:$N,5,0)="3星",1,0)))))</f>
-        <v>3</v>
-      </c>
-      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
         <f>IF(VLOOKUP(B14,[1]一阶段!$B:$N,2,0)="男",1,IF(VLOOKUP(B14,[1]一阶段!$B:$N,2,0)="女",2,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="e">
         <f>INT(LEFT(VLOOKUP(B14,[1]一阶段!$B:$N,5,0),1))</f>
-        <v>6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L14" s="2">
         <v>1</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="2" t="str">
         <f>IF(VLOOKUP(B14,[1]一阶段!$B:$O,7,0)="力量",0,IF(VLOOKUP(B14,[1]一阶段!$B:$O,7,0)="智力",1,IF(VLOOKUP(B14,[1]一阶段!$B:$O,7,0)="敏捷",2,IF(VLOOKUP(B14,[1]一阶段!$B:$O,7,0)="体质",3,""))))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="N14" s="2">
         <f>VLOOKUP(B14,[1]一阶段!$B:$O,8,0)</f>
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="O14" s="2">
         <f>VLOOKUP(B14,[1]一阶段!$B:$O,9,0)</f>
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="P14" s="2">
         <f>VLOOKUP(B14,[1]一阶段!$B:$O,10,0)</f>
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="2">
         <f>VLOOKUP(B14,[1]一阶段!$B:$O,11,0)</f>
-        <v>95</v>
+        <v>359</v>
       </c>
       <c r="R14" s="2" t="str">
         <f>IF(VLOOKUP(B14,[1]一阶段!$B:$O,13,0)="穿刺",0,IF(VLOOKUP(B14,[1]一阶段!$B:$O,13,0)="法术",1,IF(VLOOKUP(B14,[1]一阶段!$B:$O,13,0)="粉碎",2,IF(VLOOKUP(B14,[1]一阶段!$B:$O,13,0)="横扫",3,IF(VLOOKUP(B14,[1]一阶段!$B:$O,13,0)="短兵",4,IF(VLOOKUP(B14,[1]一阶段!$B:$O,13,0)="远射",5,6))))))&amp;IF(VLOOKUP(B14,[1]一阶段!$B:$O,14,0)="","",IF(VLOOKUP(B14,[1]一阶段!$B:$O,14,0)="穿刺",",0",IF(VLOOKUP(B14,[1]一阶段!$B:$O,14,0)="法术",",1",IF(VLOOKUP(B14,[1]一阶段!$B:$O,14,0)="粉碎",",2",IF(VLOOKUP(B14,[1]一阶段!$B:$O,14,0)="横扫",",3",IF(VLOOKUP(B14,[1]一阶段!$B:$O,14,0)="短兵",",4",IF(VLOOKUP(B14,[1]一阶段!$B:$O,14,0)="远射",",5",",6")))))))</f>
-        <v>3,0</v>
-      </c>
-      <c r="S14" s="2">
+        <v>0,6</v>
+      </c>
+      <c r="S14" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>325</v>
-      </c>
-      <c r="T14" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T14" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="U14" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U14" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="V14" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V14" s="2" t="e">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W14" s="2">
         <v>100</v>
@@ -5426,46 +5538,44 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI14" s="2"/>
-      <c r="AJ14" s="2"/>
     </row>
-    <row r="15" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
+    <row r="15" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
         <v>1014</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="5">
+      <c r="G15" s="6">
         <f>IF(VLOOKUP(B15,[1]一阶段!$B:$O,4,0)="七杀",3,IF(VLOOKUP(B15,[1]一阶段!$B:$O,4,0)="破军",1,IF(VLOOKUP(B15,[1]一阶段!$B:$O,4,0)="贪狼",2,0)))</f>
-        <v>3</v>
-      </c>
-      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
         <f>IF(VLOOKUP(B15,[1]一阶段!$B:$O,6,0)="魏",1,IF(VLOOKUP(B15,[1]一阶段!$B:$O,6,0)="蜀",2,IF(VLOOKUP(B15,[1]一阶段!$B:$O,6,0)="吴",3,IF(VLOOKUP(B15,[1]一阶段!$B:$O,6,0)="群",4,0))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2">
         <f>IF(VLOOKUP(B15,[1]一阶段!$B:$N,5,0)="7星",4,IF(VLOOKUP(B15,[1]一阶段!$B:$N,5,0)="6星",3,IF(VLOOKUP(B15,[1]一阶段!$B:$N,5,0)="5星",3,IF(VLOOKUP(B15,[1]一阶段!$B:$N,5,0)="4星",2,IF(VLOOKUP(B15,[1]一阶段!$B:$N,5,0)="3星",1,0)))))</f>
-        <v>3</v>
-      </c>
-      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
         <f>IF(VLOOKUP(B15,[1]一阶段!$B:$N,2,0)="男",1,IF(VLOOKUP(B15,[1]一阶段!$B:$N,2,0)="女",2,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="e">
         <f>INT(LEFT(VLOOKUP(B15,[1]一阶段!$B:$N,5,0),1))</f>
-        <v>6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L15" s="2">
         <v>1</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="2" t="str">
         <f>IF(VLOOKUP(B15,[1]一阶段!$B:$O,7,0)="力量",0,IF(VLOOKUP(B15,[1]一阶段!$B:$O,7,0)="智力",1,IF(VLOOKUP(B15,[1]一阶段!$B:$O,7,0)="敏捷",2,IF(VLOOKUP(B15,[1]一阶段!$B:$O,7,0)="体质",3,""))))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="N15" s="2">
         <f>VLOOKUP(B15,[1]一阶段!$B:$O,8,0)</f>
@@ -5485,23 +5595,23 @@
       </c>
       <c r="R15" s="2" t="str">
         <f>IF(VLOOKUP(B15,[1]一阶段!$B:$O,13,0)="穿刺",0,IF(VLOOKUP(B15,[1]一阶段!$B:$O,13,0)="法术",1,IF(VLOOKUP(B15,[1]一阶段!$B:$O,13,0)="粉碎",2,IF(VLOOKUP(B15,[1]一阶段!$B:$O,13,0)="横扫",3,IF(VLOOKUP(B15,[1]一阶段!$B:$O,13,0)="短兵",4,IF(VLOOKUP(B15,[1]一阶段!$B:$O,13,0)="远射",5,6))))))&amp;IF(VLOOKUP(B15,[1]一阶段!$B:$O,14,0)="","",IF(VLOOKUP(B15,[1]一阶段!$B:$O,14,0)="穿刺",",0",IF(VLOOKUP(B15,[1]一阶段!$B:$O,14,0)="法术",",1",IF(VLOOKUP(B15,[1]一阶段!$B:$O,14,0)="粉碎",",2",IF(VLOOKUP(B15,[1]一阶段!$B:$O,14,0)="横扫",",3",IF(VLOOKUP(B15,[1]一阶段!$B:$O,14,0)="短兵",",4",IF(VLOOKUP(B15,[1]一阶段!$B:$O,14,0)="远射",",5",",6")))))))</f>
-        <v>0</v>
-      </c>
-      <c r="S15" s="2">
+        <v>6,6</v>
+      </c>
+      <c r="S15" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>325</v>
-      </c>
-      <c r="T15" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T15" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="U15" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U15" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="V15" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V15" s="2" t="e">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W15" s="2">
         <v>100</v>
@@ -5538,48 +5648,46 @@
       </c>
       <c r="AH15" s="2">
         <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="AI15" s="2"/>
-      <c r="AJ15" s="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
+    <row r="16" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="4">
         <v>1015</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="B16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="5">
+      <c r="G16" s="6">
         <f>IF(VLOOKUP(B16,[1]一阶段!$B:$O,4,0)="七杀",3,IF(VLOOKUP(B16,[1]一阶段!$B:$O,4,0)="破军",1,IF(VLOOKUP(B16,[1]一阶段!$B:$O,4,0)="贪狼",2,0)))</f>
-        <v>3</v>
-      </c>
-      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
         <f>IF(VLOOKUP(B16,[1]一阶段!$B:$O,6,0)="魏",1,IF(VLOOKUP(B16,[1]一阶段!$B:$O,6,0)="蜀",2,IF(VLOOKUP(B16,[1]一阶段!$B:$O,6,0)="吴",3,IF(VLOOKUP(B16,[1]一阶段!$B:$O,6,0)="群",4,0))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2">
         <f>IF(VLOOKUP(B16,[1]一阶段!$B:$N,5,0)="7星",4,IF(VLOOKUP(B16,[1]一阶段!$B:$N,5,0)="6星",3,IF(VLOOKUP(B16,[1]一阶段!$B:$N,5,0)="5星",3,IF(VLOOKUP(B16,[1]一阶段!$B:$N,5,0)="4星",2,IF(VLOOKUP(B16,[1]一阶段!$B:$N,5,0)="3星",1,0)))))</f>
-        <v>3</v>
-      </c>
-      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
         <f>IF(VLOOKUP(B16,[1]一阶段!$B:$N,2,0)="男",1,IF(VLOOKUP(B16,[1]一阶段!$B:$N,2,0)="女",2,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="e">
         <f>INT(LEFT(VLOOKUP(B16,[1]一阶段!$B:$N,5,0),1))</f>
-        <v>6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L16" s="2">
         <v>1</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="2" t="str">
         <f>IF(VLOOKUP(B16,[1]一阶段!$B:$O,7,0)="力量",0,IF(VLOOKUP(B16,[1]一阶段!$B:$O,7,0)="智力",1,IF(VLOOKUP(B16,[1]一阶段!$B:$O,7,0)="敏捷",2,IF(VLOOKUP(B16,[1]一阶段!$B:$O,7,0)="体质",3,""))))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="N16" s="2">
         <f>VLOOKUP(B16,[1]一阶段!$B:$O,8,0)</f>
@@ -5599,23 +5707,23 @@
       </c>
       <c r="R16" s="2" t="str">
         <f>IF(VLOOKUP(B16,[1]一阶段!$B:$O,13,0)="穿刺",0,IF(VLOOKUP(B16,[1]一阶段!$B:$O,13,0)="法术",1,IF(VLOOKUP(B16,[1]一阶段!$B:$O,13,0)="粉碎",2,IF(VLOOKUP(B16,[1]一阶段!$B:$O,13,0)="横扫",3,IF(VLOOKUP(B16,[1]一阶段!$B:$O,13,0)="短兵",4,IF(VLOOKUP(B16,[1]一阶段!$B:$O,13,0)="远射",5,6))))))&amp;IF(VLOOKUP(B16,[1]一阶段!$B:$O,14,0)="","",IF(VLOOKUP(B16,[1]一阶段!$B:$O,14,0)="穿刺",",0",IF(VLOOKUP(B16,[1]一阶段!$B:$O,14,0)="法术",",1",IF(VLOOKUP(B16,[1]一阶段!$B:$O,14,0)="粉碎",",2",IF(VLOOKUP(B16,[1]一阶段!$B:$O,14,0)="横扫",",3",IF(VLOOKUP(B16,[1]一阶段!$B:$O,14,0)="短兵",",4",IF(VLOOKUP(B16,[1]一阶段!$B:$O,14,0)="远射",",5",",6")))))))</f>
-        <v>5,3</v>
-      </c>
-      <c r="S16" s="2">
+        <v>3,6</v>
+      </c>
+      <c r="S16" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>325</v>
-      </c>
-      <c r="T16" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T16" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="U16" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U16" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="V16" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V16" s="2" t="e">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W16" s="2">
         <v>100</v>
@@ -5652,48 +5760,46 @@
       </c>
       <c r="AH16" s="2">
         <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="AI16" s="2"/>
-      <c r="AJ16" s="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
+    <row r="17" spans="1:34" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="4">
         <v>1016</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="B17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="5">
+      <c r="G17" s="6">
         <f>IF(VLOOKUP(B17,[1]一阶段!$B:$O,4,0)="七杀",3,IF(VLOOKUP(B17,[1]一阶段!$B:$O,4,0)="破军",1,IF(VLOOKUP(B17,[1]一阶段!$B:$O,4,0)="贪狼",2,0)))</f>
-        <v>2</v>
-      </c>
-      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
         <f>IF(VLOOKUP(B17,[1]一阶段!$B:$O,6,0)="魏",1,IF(VLOOKUP(B17,[1]一阶段!$B:$O,6,0)="蜀",2,IF(VLOOKUP(B17,[1]一阶段!$B:$O,6,0)="吴",3,IF(VLOOKUP(B17,[1]一阶段!$B:$O,6,0)="群",4,0))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2">
         <f>IF(VLOOKUP(B17,[1]一阶段!$B:$N,5,0)="7星",4,IF(VLOOKUP(B17,[1]一阶段!$B:$N,5,0)="6星",3,IF(VLOOKUP(B17,[1]一阶段!$B:$N,5,0)="5星",3,IF(VLOOKUP(B17,[1]一阶段!$B:$N,5,0)="4星",2,IF(VLOOKUP(B17,[1]一阶段!$B:$N,5,0)="3星",1,0)))))</f>
-        <v>3</v>
-      </c>
-      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
         <f>IF(VLOOKUP(B17,[1]一阶段!$B:$N,2,0)="男",1,IF(VLOOKUP(B17,[1]一阶段!$B:$N,2,0)="女",2,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2" t="e">
         <f>INT(LEFT(VLOOKUP(B17,[1]一阶段!$B:$N,5,0),1))</f>
-        <v>6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L17" s="2">
         <v>1</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="2" t="str">
         <f>IF(VLOOKUP(B17,[1]一阶段!$B:$O,7,0)="力量",0,IF(VLOOKUP(B17,[1]一阶段!$B:$O,7,0)="智力",1,IF(VLOOKUP(B17,[1]一阶段!$B:$O,7,0)="敏捷",2,IF(VLOOKUP(B17,[1]一阶段!$B:$O,7,0)="体质",3,""))))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="N17" s="2">
         <f>VLOOKUP(B17,[1]一阶段!$B:$O,8,0)</f>
@@ -5713,23 +5819,23 @@
       </c>
       <c r="R17" s="2" t="str">
         <f>IF(VLOOKUP(B17,[1]一阶段!$B:$O,13,0)="穿刺",0,IF(VLOOKUP(B17,[1]一阶段!$B:$O,13,0)="法术",1,IF(VLOOKUP(B17,[1]一阶段!$B:$O,13,0)="粉碎",2,IF(VLOOKUP(B17,[1]一阶段!$B:$O,13,0)="横扫",3,IF(VLOOKUP(B17,[1]一阶段!$B:$O,13,0)="短兵",4,IF(VLOOKUP(B17,[1]一阶段!$B:$O,13,0)="远射",5,6))))))&amp;IF(VLOOKUP(B17,[1]一阶段!$B:$O,14,0)="","",IF(VLOOKUP(B17,[1]一阶段!$B:$O,14,0)="穿刺",",0",IF(VLOOKUP(B17,[1]一阶段!$B:$O,14,0)="法术",",1",IF(VLOOKUP(B17,[1]一阶段!$B:$O,14,0)="粉碎",",2",IF(VLOOKUP(B17,[1]一阶段!$B:$O,14,0)="横扫",",3",IF(VLOOKUP(B17,[1]一阶段!$B:$O,14,0)="短兵",",4",IF(VLOOKUP(B17,[1]一阶段!$B:$O,14,0)="远射",",5",",6")))))))</f>
-        <v>1,6</v>
-      </c>
-      <c r="S17" s="2">
+        <v>6,6</v>
+      </c>
+      <c r="S17" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>325</v>
-      </c>
-      <c r="T17" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T17" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="U17" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U17" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="V17" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V17" s="2" t="e">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W17" s="2">
         <v>100</v>
@@ -5766,84 +5872,82 @@
       </c>
       <c r="AH17" s="2">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="AI17" s="2"/>
-      <c r="AJ17" s="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
+    <row r="18" spans="1:34" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
         <v>1017</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="B18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="5">
+      <c r="G18" s="6">
         <f>IF(VLOOKUP(B18,[1]一阶段!$B:$O,4,0)="七杀",3,IF(VLOOKUP(B18,[1]一阶段!$B:$O,4,0)="破军",1,IF(VLOOKUP(B18,[1]一阶段!$B:$O,4,0)="贪狼",2,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
         <f>IF(VLOOKUP(B18,[1]一阶段!$B:$O,6,0)="魏",1,IF(VLOOKUP(B18,[1]一阶段!$B:$O,6,0)="蜀",2,IF(VLOOKUP(B18,[1]一阶段!$B:$O,6,0)="吴",3,IF(VLOOKUP(B18,[1]一阶段!$B:$O,6,0)="群",4,0))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2">
         <f>IF(VLOOKUP(B18,[1]一阶段!$B:$N,5,0)="7星",4,IF(VLOOKUP(B18,[1]一阶段!$B:$N,5,0)="6星",3,IF(VLOOKUP(B18,[1]一阶段!$B:$N,5,0)="5星",3,IF(VLOOKUP(B18,[1]一阶段!$B:$N,5,0)="4星",2,IF(VLOOKUP(B18,[1]一阶段!$B:$N,5,0)="3星",1,0)))))</f>
-        <v>4</v>
-      </c>
-      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
         <f>IF(VLOOKUP(B18,[1]一阶段!$B:$N,2,0)="男",1,IF(VLOOKUP(B18,[1]一阶段!$B:$N,2,0)="女",2,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="e">
         <f>INT(LEFT(VLOOKUP(B18,[1]一阶段!$B:$N,5,0),1))</f>
-        <v>7</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L18" s="2">
         <v>1</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="2" t="str">
         <f>IF(VLOOKUP(B18,[1]一阶段!$B:$O,7,0)="力量",0,IF(VLOOKUP(B18,[1]一阶段!$B:$O,7,0)="智力",1,IF(VLOOKUP(B18,[1]一阶段!$B:$O,7,0)="敏捷",2,IF(VLOOKUP(B18,[1]一阶段!$B:$O,7,0)="体质",3,""))))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="N18" s="2">
         <f>VLOOKUP(B18,[1]一阶段!$B:$O,8,0)</f>
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="O18" s="2">
         <f>VLOOKUP(B18,[1]一阶段!$B:$O,9,0)</f>
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="P18" s="2">
         <f>VLOOKUP(B18,[1]一阶段!$B:$O,10,0)</f>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Q18" s="2">
         <f>VLOOKUP(B18,[1]一阶段!$B:$O,11,0)</f>
-        <v>90</v>
+        <v>370</v>
       </c>
       <c r="R18" s="2" t="str">
         <f>IF(VLOOKUP(B18,[1]一阶段!$B:$O,13,0)="穿刺",0,IF(VLOOKUP(B18,[1]一阶段!$B:$O,13,0)="法术",1,IF(VLOOKUP(B18,[1]一阶段!$B:$O,13,0)="粉碎",2,IF(VLOOKUP(B18,[1]一阶段!$B:$O,13,0)="横扫",3,IF(VLOOKUP(B18,[1]一阶段!$B:$O,13,0)="短兵",4,IF(VLOOKUP(B18,[1]一阶段!$B:$O,13,0)="远射",5,6))))))&amp;IF(VLOOKUP(B18,[1]一阶段!$B:$O,14,0)="","",IF(VLOOKUP(B18,[1]一阶段!$B:$O,14,0)="穿刺",",0",IF(VLOOKUP(B18,[1]一阶段!$B:$O,14,0)="法术",",1",IF(VLOOKUP(B18,[1]一阶段!$B:$O,14,0)="粉碎",",2",IF(VLOOKUP(B18,[1]一阶段!$B:$O,14,0)="横扫",",3",IF(VLOOKUP(B18,[1]一阶段!$B:$O,14,0)="短兵",",4",IF(VLOOKUP(B18,[1]一阶段!$B:$O,14,0)="远射",",5",",6")))))))</f>
-        <v>0,4</v>
-      </c>
-      <c r="S18" s="2">
+        <v>4,6</v>
+      </c>
+      <c r="S18" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>375</v>
-      </c>
-      <c r="T18" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T18" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="U18" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U18" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="V18" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V18" s="2" t="e">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W18" s="2">
         <v>100</v>
@@ -5882,82 +5986,80 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI18" s="2"/>
-      <c r="AJ18" s="2"/>
     </row>
-    <row r="19" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
+    <row r="19" spans="1:34" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="4">
         <v>1018</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="B19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="5">
+      <c r="G19" s="6">
         <f>IF(VLOOKUP(B19,[1]一阶段!$B:$O,4,0)="七杀",3,IF(VLOOKUP(B19,[1]一阶段!$B:$O,4,0)="破军",1,IF(VLOOKUP(B19,[1]一阶段!$B:$O,4,0)="贪狼",2,0)))</f>
-        <v>2</v>
-      </c>
-      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
         <f>IF(VLOOKUP(B19,[1]一阶段!$B:$O,6,0)="魏",1,IF(VLOOKUP(B19,[1]一阶段!$B:$O,6,0)="蜀",2,IF(VLOOKUP(B19,[1]一阶段!$B:$O,6,0)="吴",3,IF(VLOOKUP(B19,[1]一阶段!$B:$O,6,0)="群",4,0))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2">
         <f>IF(VLOOKUP(B19,[1]一阶段!$B:$N,5,0)="7星",4,IF(VLOOKUP(B19,[1]一阶段!$B:$N,5,0)="6星",3,IF(VLOOKUP(B19,[1]一阶段!$B:$N,5,0)="5星",3,IF(VLOOKUP(B19,[1]一阶段!$B:$N,5,0)="4星",2,IF(VLOOKUP(B19,[1]一阶段!$B:$N,5,0)="3星",1,0)))))</f>
-        <v>4</v>
-      </c>
-      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
         <f>IF(VLOOKUP(B19,[1]一阶段!$B:$N,2,0)="男",1,IF(VLOOKUP(B19,[1]一阶段!$B:$N,2,0)="女",2,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="e">
         <f>INT(LEFT(VLOOKUP(B19,[1]一阶段!$B:$N,5,0),1))</f>
-        <v>7</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L19" s="2">
         <v>1</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="2" t="str">
         <f>IF(VLOOKUP(B19,[1]一阶段!$B:$O,7,0)="力量",0,IF(VLOOKUP(B19,[1]一阶段!$B:$O,7,0)="智力",1,IF(VLOOKUP(B19,[1]一阶段!$B:$O,7,0)="敏捷",2,IF(VLOOKUP(B19,[1]一阶段!$B:$O,7,0)="体质",3,""))))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="N19" s="2">
         <f>VLOOKUP(B19,[1]一阶段!$B:$O,8,0)</f>
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="O19" s="2">
         <f>VLOOKUP(B19,[1]一阶段!$B:$O,9,0)</f>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P19" s="2">
         <f>VLOOKUP(B19,[1]一阶段!$B:$O,10,0)</f>
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="Q19" s="2">
         <f>VLOOKUP(B19,[1]一阶段!$B:$O,11,0)</f>
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="R19" s="2" t="str">
         <f>IF(VLOOKUP(B19,[1]一阶段!$B:$O,13,0)="穿刺",0,IF(VLOOKUP(B19,[1]一阶段!$B:$O,13,0)="法术",1,IF(VLOOKUP(B19,[1]一阶段!$B:$O,13,0)="粉碎",2,IF(VLOOKUP(B19,[1]一阶段!$B:$O,13,0)="横扫",3,IF(VLOOKUP(B19,[1]一阶段!$B:$O,13,0)="短兵",4,IF(VLOOKUP(B19,[1]一阶段!$B:$O,13,0)="远射",5,6))))))&amp;IF(VLOOKUP(B19,[1]一阶段!$B:$O,14,0)="","",IF(VLOOKUP(B19,[1]一阶段!$B:$O,14,0)="穿刺",",0",IF(VLOOKUP(B19,[1]一阶段!$B:$O,14,0)="法术",",1",IF(VLOOKUP(B19,[1]一阶段!$B:$O,14,0)="粉碎",",2",IF(VLOOKUP(B19,[1]一阶段!$B:$O,14,0)="横扫",",3",IF(VLOOKUP(B19,[1]一阶段!$B:$O,14,0)="短兵",",4",IF(VLOOKUP(B19,[1]一阶段!$B:$O,14,0)="远射",",5",",6")))))))</f>
-        <v>1</v>
-      </c>
-      <c r="S19" s="2">
+        <v>6,6</v>
+      </c>
+      <c r="S19" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>375</v>
-      </c>
-      <c r="T19" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T19" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="U19" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U19" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="V19" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V19" s="2" t="e">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W19" s="2">
         <v>100</v>
@@ -5994,84 +6096,82 @@
       </c>
       <c r="AH19" s="2">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="AI19" s="2"/>
-      <c r="AJ19" s="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
+    <row r="20" spans="1:34" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="4">
         <v>1019</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="B20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="5">
+      <c r="G20" s="6">
         <f>IF(VLOOKUP(B20,[1]一阶段!$B:$O,4,0)="七杀",3,IF(VLOOKUP(B20,[1]一阶段!$B:$O,4,0)="破军",1,IF(VLOOKUP(B20,[1]一阶段!$B:$O,4,0)="贪狼",2,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
         <f>IF(VLOOKUP(B20,[1]一阶段!$B:$O,6,0)="魏",1,IF(VLOOKUP(B20,[1]一阶段!$B:$O,6,0)="蜀",2,IF(VLOOKUP(B20,[1]一阶段!$B:$O,6,0)="吴",3,IF(VLOOKUP(B20,[1]一阶段!$B:$O,6,0)="群",4,0))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2">
         <f>IF(VLOOKUP(B20,[1]一阶段!$B:$N,5,0)="7星",4,IF(VLOOKUP(B20,[1]一阶段!$B:$N,5,0)="6星",3,IF(VLOOKUP(B20,[1]一阶段!$B:$N,5,0)="5星",3,IF(VLOOKUP(B20,[1]一阶段!$B:$N,5,0)="4星",2,IF(VLOOKUP(B20,[1]一阶段!$B:$N,5,0)="3星",1,0)))))</f>
-        <v>3</v>
-      </c>
-      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
         <f>IF(VLOOKUP(B20,[1]一阶段!$B:$N,2,0)="男",1,IF(VLOOKUP(B20,[1]一阶段!$B:$N,2,0)="女",2,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="e">
         <f>INT(LEFT(VLOOKUP(B20,[1]一阶段!$B:$N,5,0),1))</f>
-        <v>6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L20" s="2">
         <v>1</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="2" t="str">
         <f>IF(VLOOKUP(B20,[1]一阶段!$B:$O,7,0)="力量",0,IF(VLOOKUP(B20,[1]一阶段!$B:$O,7,0)="智力",1,IF(VLOOKUP(B20,[1]一阶段!$B:$O,7,0)="敏捷",2,IF(VLOOKUP(B20,[1]一阶段!$B:$O,7,0)="体质",3,""))))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="N20" s="2">
         <f>VLOOKUP(B20,[1]一阶段!$B:$O,8,0)</f>
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="O20" s="2">
         <f>VLOOKUP(B20,[1]一阶段!$B:$O,9,0)</f>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P20" s="2">
         <f>VLOOKUP(B20,[1]一阶段!$B:$O,10,0)</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q20" s="2">
         <f>VLOOKUP(B20,[1]一阶段!$B:$O,11,0)</f>
-        <v>90</v>
+        <v>359</v>
       </c>
       <c r="R20" s="2" t="str">
         <f>IF(VLOOKUP(B20,[1]一阶段!$B:$O,13,0)="穿刺",0,IF(VLOOKUP(B20,[1]一阶段!$B:$O,13,0)="法术",1,IF(VLOOKUP(B20,[1]一阶段!$B:$O,13,0)="粉碎",2,IF(VLOOKUP(B20,[1]一阶段!$B:$O,13,0)="横扫",3,IF(VLOOKUP(B20,[1]一阶段!$B:$O,13,0)="短兵",4,IF(VLOOKUP(B20,[1]一阶段!$B:$O,13,0)="远射",5,6))))))&amp;IF(VLOOKUP(B20,[1]一阶段!$B:$O,14,0)="","",IF(VLOOKUP(B20,[1]一阶段!$B:$O,14,0)="穿刺",",0",IF(VLOOKUP(B20,[1]一阶段!$B:$O,14,0)="法术",",1",IF(VLOOKUP(B20,[1]一阶段!$B:$O,14,0)="粉碎",",2",IF(VLOOKUP(B20,[1]一阶段!$B:$O,14,0)="横扫",",3",IF(VLOOKUP(B20,[1]一阶段!$B:$O,14,0)="短兵",",4",IF(VLOOKUP(B20,[1]一阶段!$B:$O,14,0)="远射",",5",",6")))))))</f>
-        <v>3</v>
-      </c>
-      <c r="S20" s="2">
+        <v>6,6</v>
+      </c>
+      <c r="S20" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>325</v>
-      </c>
-      <c r="T20" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T20" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="U20" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U20" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="V20" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V20" s="2" t="e">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W20" s="2">
         <v>100</v>
@@ -6110,82 +6210,80 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI20" s="2"/>
-      <c r="AJ20" s="2"/>
     </row>
-    <row r="21" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
+    <row r="21" spans="1:34" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="4">
         <v>1020</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="B21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="5">
+      <c r="G21" s="6">
         <f>IF(VLOOKUP(B21,[1]一阶段!$B:$O,4,0)="七杀",3,IF(VLOOKUP(B21,[1]一阶段!$B:$O,4,0)="破军",1,IF(VLOOKUP(B21,[1]一阶段!$B:$O,4,0)="贪狼",2,0)))</f>
-        <v>3</v>
-      </c>
-      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
         <f>IF(VLOOKUP(B21,[1]一阶段!$B:$O,6,0)="魏",1,IF(VLOOKUP(B21,[1]一阶段!$B:$O,6,0)="蜀",2,IF(VLOOKUP(B21,[1]一阶段!$B:$O,6,0)="吴",3,IF(VLOOKUP(B21,[1]一阶段!$B:$O,6,0)="群",4,0))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2">
         <f>IF(VLOOKUP(B21,[1]一阶段!$B:$N,5,0)="7星",4,IF(VLOOKUP(B21,[1]一阶段!$B:$N,5,0)="6星",3,IF(VLOOKUP(B21,[1]一阶段!$B:$N,5,0)="5星",3,IF(VLOOKUP(B21,[1]一阶段!$B:$N,5,0)="4星",2,IF(VLOOKUP(B21,[1]一阶段!$B:$N,5,0)="3星",1,0)))))</f>
-        <v>3</v>
-      </c>
-      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
         <f>IF(VLOOKUP(B21,[1]一阶段!$B:$N,2,0)="男",1,IF(VLOOKUP(B21,[1]一阶段!$B:$N,2,0)="女",2,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="e">
         <f>INT(LEFT(VLOOKUP(B21,[1]一阶段!$B:$N,5,0),1))</f>
-        <v>6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L21" s="2">
         <v>1</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="2" t="str">
         <f>IF(VLOOKUP(B21,[1]一阶段!$B:$O,7,0)="力量",0,IF(VLOOKUP(B21,[1]一阶段!$B:$O,7,0)="智力",1,IF(VLOOKUP(B21,[1]一阶段!$B:$O,7,0)="敏捷",2,IF(VLOOKUP(B21,[1]一阶段!$B:$O,7,0)="体质",3,""))))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="N21" s="2">
         <f>VLOOKUP(B21,[1]一阶段!$B:$O,8,0)</f>
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="O21" s="2">
         <f>VLOOKUP(B21,[1]一阶段!$B:$O,9,0)</f>
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="P21" s="2">
         <f>VLOOKUP(B21,[1]一阶段!$B:$O,10,0)</f>
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="Q21" s="2">
         <f>VLOOKUP(B21,[1]一阶段!$B:$O,11,0)</f>
-        <v>88</v>
+        <v>346</v>
       </c>
       <c r="R21" s="2" t="str">
         <f>IF(VLOOKUP(B21,[1]一阶段!$B:$O,13,0)="穿刺",0,IF(VLOOKUP(B21,[1]一阶段!$B:$O,13,0)="法术",1,IF(VLOOKUP(B21,[1]一阶段!$B:$O,13,0)="粉碎",2,IF(VLOOKUP(B21,[1]一阶段!$B:$O,13,0)="横扫",3,IF(VLOOKUP(B21,[1]一阶段!$B:$O,13,0)="短兵",4,IF(VLOOKUP(B21,[1]一阶段!$B:$O,13,0)="远射",5,6))))))&amp;IF(VLOOKUP(B21,[1]一阶段!$B:$O,14,0)="","",IF(VLOOKUP(B21,[1]一阶段!$B:$O,14,0)="穿刺",",0",IF(VLOOKUP(B21,[1]一阶段!$B:$O,14,0)="法术",",1",IF(VLOOKUP(B21,[1]一阶段!$B:$O,14,0)="粉碎",",2",IF(VLOOKUP(B21,[1]一阶段!$B:$O,14,0)="横扫",",3",IF(VLOOKUP(B21,[1]一阶段!$B:$O,14,0)="短兵",",4",IF(VLOOKUP(B21,[1]一阶段!$B:$O,14,0)="远射",",5",",6")))))))</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="2">
+        <v>6,6</v>
+      </c>
+      <c r="S21" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>325</v>
-      </c>
-      <c r="T21" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T21" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="U21" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U21" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="V21" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V21" s="2" t="e">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W21" s="2">
         <v>100</v>
@@ -6222,84 +6320,82 @@
       </c>
       <c r="AH21" s="2">
         <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="AI21" s="2"/>
-      <c r="AJ21" s="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
+    <row r="22" spans="1:34" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="4">
         <v>1021</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="B22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="5">
+      <c r="G22" s="6">
         <f>IF(VLOOKUP(B22,[1]一阶段!$B:$O,4,0)="七杀",3,IF(VLOOKUP(B22,[1]一阶段!$B:$O,4,0)="破军",1,IF(VLOOKUP(B22,[1]一阶段!$B:$O,4,0)="贪狼",2,0)))</f>
-        <v>2</v>
-      </c>
-      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
         <f>IF(VLOOKUP(B22,[1]一阶段!$B:$O,6,0)="魏",1,IF(VLOOKUP(B22,[1]一阶段!$B:$O,6,0)="蜀",2,IF(VLOOKUP(B22,[1]一阶段!$B:$O,6,0)="吴",3,IF(VLOOKUP(B22,[1]一阶段!$B:$O,6,0)="群",4,0))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2">
         <f>IF(VLOOKUP(B22,[1]一阶段!$B:$N,5,0)="7星",4,IF(VLOOKUP(B22,[1]一阶段!$B:$N,5,0)="6星",3,IF(VLOOKUP(B22,[1]一阶段!$B:$N,5,0)="5星",3,IF(VLOOKUP(B22,[1]一阶段!$B:$N,5,0)="4星",2,IF(VLOOKUP(B22,[1]一阶段!$B:$N,5,0)="3星",1,0)))))</f>
-        <v>3</v>
-      </c>
-      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
         <f>IF(VLOOKUP(B22,[1]一阶段!$B:$N,2,0)="男",1,IF(VLOOKUP(B22,[1]一阶段!$B:$N,2,0)="女",2,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2" t="e">
         <f>INT(LEFT(VLOOKUP(B22,[1]一阶段!$B:$N,5,0),1))</f>
-        <v>6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L22" s="2">
         <v>1</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="2" t="str">
         <f>IF(VLOOKUP(B22,[1]一阶段!$B:$O,7,0)="力量",0,IF(VLOOKUP(B22,[1]一阶段!$B:$O,7,0)="智力",1,IF(VLOOKUP(B22,[1]一阶段!$B:$O,7,0)="敏捷",2,IF(VLOOKUP(B22,[1]一阶段!$B:$O,7,0)="体质",3,""))))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="N22" s="2">
         <f>VLOOKUP(B22,[1]一阶段!$B:$O,8,0)</f>
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="O22" s="2">
         <f>VLOOKUP(B22,[1]一阶段!$B:$O,9,0)</f>
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="P22" s="2">
         <f>VLOOKUP(B22,[1]一阶段!$B:$O,10,0)</f>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Q22" s="2">
         <f>VLOOKUP(B22,[1]一阶段!$B:$O,11,0)</f>
-        <v>90</v>
+        <v>339</v>
       </c>
       <c r="R22" s="2" t="str">
         <f>IF(VLOOKUP(B22,[1]一阶段!$B:$O,13,0)="穿刺",0,IF(VLOOKUP(B22,[1]一阶段!$B:$O,13,0)="法术",1,IF(VLOOKUP(B22,[1]一阶段!$B:$O,13,0)="粉碎",2,IF(VLOOKUP(B22,[1]一阶段!$B:$O,13,0)="横扫",3,IF(VLOOKUP(B22,[1]一阶段!$B:$O,13,0)="短兵",4,IF(VLOOKUP(B22,[1]一阶段!$B:$O,13,0)="远射",5,6))))))&amp;IF(VLOOKUP(B22,[1]一阶段!$B:$O,14,0)="","",IF(VLOOKUP(B22,[1]一阶段!$B:$O,14,0)="穿刺",",0",IF(VLOOKUP(B22,[1]一阶段!$B:$O,14,0)="法术",",1",IF(VLOOKUP(B22,[1]一阶段!$B:$O,14,0)="粉碎",",2",IF(VLOOKUP(B22,[1]一阶段!$B:$O,14,0)="横扫",",3",IF(VLOOKUP(B22,[1]一阶段!$B:$O,14,0)="短兵",",4",IF(VLOOKUP(B22,[1]一阶段!$B:$O,14,0)="远射",",5",",6")))))))</f>
-        <v>1</v>
-      </c>
-      <c r="S22" s="2">
+        <v>6,6</v>
+      </c>
+      <c r="S22" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>325</v>
-      </c>
-      <c r="T22" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T22" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="U22" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U22" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="V22" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V22" s="2" t="e">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W22" s="2">
         <v>100</v>
@@ -6336,84 +6432,82 @@
       </c>
       <c r="AH22" s="2">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="AI22" s="2"/>
-      <c r="AJ22" s="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="1">
+    <row r="23" spans="1:34" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="4">
         <v>1022</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="B23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="5">
+      <c r="G23" s="6">
         <f>IF(VLOOKUP(B23,[1]一阶段!$B:$O,4,0)="七杀",3,IF(VLOOKUP(B23,[1]一阶段!$B:$O,4,0)="破军",1,IF(VLOOKUP(B23,[1]一阶段!$B:$O,4,0)="贪狼",2,0)))</f>
-        <v>3</v>
-      </c>
-      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
         <f>IF(VLOOKUP(B23,[1]一阶段!$B:$O,6,0)="魏",1,IF(VLOOKUP(B23,[1]一阶段!$B:$O,6,0)="蜀",2,IF(VLOOKUP(B23,[1]一阶段!$B:$O,6,0)="吴",3,IF(VLOOKUP(B23,[1]一阶段!$B:$O,6,0)="群",4,0))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2">
         <f>IF(VLOOKUP(B23,[1]一阶段!$B:$N,5,0)="7星",4,IF(VLOOKUP(B23,[1]一阶段!$B:$N,5,0)="6星",3,IF(VLOOKUP(B23,[1]一阶段!$B:$N,5,0)="5星",3,IF(VLOOKUP(B23,[1]一阶段!$B:$N,5,0)="4星",2,IF(VLOOKUP(B23,[1]一阶段!$B:$N,5,0)="3星",1,0)))))</f>
-        <v>3</v>
-      </c>
-      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
         <f>IF(VLOOKUP(B23,[1]一阶段!$B:$N,2,0)="男",1,IF(VLOOKUP(B23,[1]一阶段!$B:$N,2,0)="女",2,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2" t="e">
         <f>INT(LEFT(VLOOKUP(B23,[1]一阶段!$B:$N,5,0),1))</f>
-        <v>6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L23" s="2">
         <v>1</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="2" t="str">
         <f>IF(VLOOKUP(B23,[1]一阶段!$B:$O,7,0)="力量",0,IF(VLOOKUP(B23,[1]一阶段!$B:$O,7,0)="智力",1,IF(VLOOKUP(B23,[1]一阶段!$B:$O,7,0)="敏捷",2,IF(VLOOKUP(B23,[1]一阶段!$B:$O,7,0)="体质",3,""))))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="N23" s="2">
         <f>VLOOKUP(B23,[1]一阶段!$B:$O,8,0)</f>
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="O23" s="2">
         <f>VLOOKUP(B23,[1]一阶段!$B:$O,9,0)</f>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="P23" s="2">
         <f>VLOOKUP(B23,[1]一阶段!$B:$O,10,0)</f>
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="Q23" s="2">
         <f>VLOOKUP(B23,[1]一阶段!$B:$O,11,0)</f>
-        <v>96</v>
+        <v>353</v>
       </c>
       <c r="R23" s="2" t="str">
         <f>IF(VLOOKUP(B23,[1]一阶段!$B:$O,13,0)="穿刺",0,IF(VLOOKUP(B23,[1]一阶段!$B:$O,13,0)="法术",1,IF(VLOOKUP(B23,[1]一阶段!$B:$O,13,0)="粉碎",2,IF(VLOOKUP(B23,[1]一阶段!$B:$O,13,0)="横扫",3,IF(VLOOKUP(B23,[1]一阶段!$B:$O,13,0)="短兵",4,IF(VLOOKUP(B23,[1]一阶段!$B:$O,13,0)="远射",5,6))))))&amp;IF(VLOOKUP(B23,[1]一阶段!$B:$O,14,0)="","",IF(VLOOKUP(B23,[1]一阶段!$B:$O,14,0)="穿刺",",0",IF(VLOOKUP(B23,[1]一阶段!$B:$O,14,0)="法术",",1",IF(VLOOKUP(B23,[1]一阶段!$B:$O,14,0)="粉碎",",2",IF(VLOOKUP(B23,[1]一阶段!$B:$O,14,0)="横扫",",3",IF(VLOOKUP(B23,[1]一阶段!$B:$O,14,0)="短兵",",4",IF(VLOOKUP(B23,[1]一阶段!$B:$O,14,0)="远射",",5",",6")))))))</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="2">
+        <v>6,6</v>
+      </c>
+      <c r="S23" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>325</v>
-      </c>
-      <c r="T23" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T23" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="U23" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U23" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="V23" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V23" s="2" t="e">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W23" s="2">
         <v>100</v>
@@ -6450,48 +6544,46 @@
       </c>
       <c r="AH23" s="2">
         <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="AI23" s="2"/>
-      <c r="AJ23" s="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="1">
+    <row r="24" spans="1:34" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="4">
         <v>1023</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="B24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="5">
+      <c r="G24" s="6">
         <f>IF(VLOOKUP(B24,[1]一阶段!$B:$O,4,0)="七杀",3,IF(VLOOKUP(B24,[1]一阶段!$B:$O,4,0)="破军",1,IF(VLOOKUP(B24,[1]一阶段!$B:$O,4,0)="贪狼",2,0)))</f>
-        <v>3</v>
-      </c>
-      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
         <f>IF(VLOOKUP(B24,[1]一阶段!$B:$O,6,0)="魏",1,IF(VLOOKUP(B24,[1]一阶段!$B:$O,6,0)="蜀",2,IF(VLOOKUP(B24,[1]一阶段!$B:$O,6,0)="吴",3,IF(VLOOKUP(B24,[1]一阶段!$B:$O,6,0)="群",4,0))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2">
         <f>IF(VLOOKUP(B24,[1]一阶段!$B:$N,5,0)="7星",4,IF(VLOOKUP(B24,[1]一阶段!$B:$N,5,0)="6星",3,IF(VLOOKUP(B24,[1]一阶段!$B:$N,5,0)="5星",3,IF(VLOOKUP(B24,[1]一阶段!$B:$N,5,0)="4星",2,IF(VLOOKUP(B24,[1]一阶段!$B:$N,5,0)="3星",1,0)))))</f>
-        <v>3</v>
-      </c>
-      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
         <f>IF(VLOOKUP(B24,[1]一阶段!$B:$N,2,0)="男",1,IF(VLOOKUP(B24,[1]一阶段!$B:$N,2,0)="女",2,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2" t="e">
         <f>INT(LEFT(VLOOKUP(B24,[1]一阶段!$B:$N,5,0),1))</f>
-        <v>6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L24" s="2">
         <v>1</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="2" t="str">
         <f>IF(VLOOKUP(B24,[1]一阶段!$B:$O,7,0)="力量",0,IF(VLOOKUP(B24,[1]一阶段!$B:$O,7,0)="智力",1,IF(VLOOKUP(B24,[1]一阶段!$B:$O,7,0)="敏捷",2,IF(VLOOKUP(B24,[1]一阶段!$B:$O,7,0)="体质",3,""))))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="N24" s="2">
         <f>VLOOKUP(B24,[1]一阶段!$B:$O,8,0)</f>
@@ -6511,23 +6603,23 @@
       </c>
       <c r="R24" s="2" t="str">
         <f>IF(VLOOKUP(B24,[1]一阶段!$B:$O,13,0)="穿刺",0,IF(VLOOKUP(B24,[1]一阶段!$B:$O,13,0)="法术",1,IF(VLOOKUP(B24,[1]一阶段!$B:$O,13,0)="粉碎",2,IF(VLOOKUP(B24,[1]一阶段!$B:$O,13,0)="横扫",3,IF(VLOOKUP(B24,[1]一阶段!$B:$O,13,0)="短兵",4,IF(VLOOKUP(B24,[1]一阶段!$B:$O,13,0)="远射",5,6))))))&amp;IF(VLOOKUP(B24,[1]一阶段!$B:$O,14,0)="","",IF(VLOOKUP(B24,[1]一阶段!$B:$O,14,0)="穿刺",",0",IF(VLOOKUP(B24,[1]一阶段!$B:$O,14,0)="法术",",1",IF(VLOOKUP(B24,[1]一阶段!$B:$O,14,0)="粉碎",",2",IF(VLOOKUP(B24,[1]一阶段!$B:$O,14,0)="横扫",",3",IF(VLOOKUP(B24,[1]一阶段!$B:$O,14,0)="短兵",",4",IF(VLOOKUP(B24,[1]一阶段!$B:$O,14,0)="远射",",5",",6")))))))</f>
-        <v>5,3</v>
-      </c>
-      <c r="S24" s="2">
+        <v>3,6</v>
+      </c>
+      <c r="S24" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>325</v>
-      </c>
-      <c r="T24" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T24" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="U24" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U24" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="V24" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V24" s="2" t="e">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W24" s="2">
         <v>100</v>
@@ -6564,48 +6656,46 @@
       </c>
       <c r="AH24" s="2">
         <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="AI24" s="2"/>
-      <c r="AJ24" s="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="1">
+    <row r="25" spans="1:34" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="4">
         <v>1024</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="B25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="5">
+      <c r="G25" s="6">
         <f>IF(VLOOKUP(B25,[1]一阶段!$B:$O,4,0)="七杀",3,IF(VLOOKUP(B25,[1]一阶段!$B:$O,4,0)="破军",1,IF(VLOOKUP(B25,[1]一阶段!$B:$O,4,0)="贪狼",2,0)))</f>
-        <v>2</v>
-      </c>
-      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="6">
         <f>IF(VLOOKUP(B25,[1]一阶段!$B:$O,6,0)="魏",1,IF(VLOOKUP(B25,[1]一阶段!$B:$O,6,0)="蜀",2,IF(VLOOKUP(B25,[1]一阶段!$B:$O,6,0)="吴",3,IF(VLOOKUP(B25,[1]一阶段!$B:$O,6,0)="群",4,0))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2">
         <f>IF(VLOOKUP(B25,[1]一阶段!$B:$N,5,0)="7星",4,IF(VLOOKUP(B25,[1]一阶段!$B:$N,5,0)="6星",3,IF(VLOOKUP(B25,[1]一阶段!$B:$N,5,0)="5星",3,IF(VLOOKUP(B25,[1]一阶段!$B:$N,5,0)="4星",2,IF(VLOOKUP(B25,[1]一阶段!$B:$N,5,0)="3星",1,0)))))</f>
-        <v>3</v>
-      </c>
-      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
         <f>IF(VLOOKUP(B25,[1]一阶段!$B:$N,2,0)="男",1,IF(VLOOKUP(B25,[1]一阶段!$B:$N,2,0)="女",2,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2" t="e">
         <f>INT(LEFT(VLOOKUP(B25,[1]一阶段!$B:$N,5,0),1))</f>
-        <v>6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L25" s="2">
         <v>1</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="2" t="str">
         <f>IF(VLOOKUP(B25,[1]一阶段!$B:$O,7,0)="力量",0,IF(VLOOKUP(B25,[1]一阶段!$B:$O,7,0)="智力",1,IF(VLOOKUP(B25,[1]一阶段!$B:$O,7,0)="敏捷",2,IF(VLOOKUP(B25,[1]一阶段!$B:$O,7,0)="体质",3,""))))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="N25" s="2">
         <f>VLOOKUP(B25,[1]一阶段!$B:$O,8,0)</f>
@@ -6625,23 +6715,23 @@
       </c>
       <c r="R25" s="2" t="str">
         <f>IF(VLOOKUP(B25,[1]一阶段!$B:$O,13,0)="穿刺",0,IF(VLOOKUP(B25,[1]一阶段!$B:$O,13,0)="法术",1,IF(VLOOKUP(B25,[1]一阶段!$B:$O,13,0)="粉碎",2,IF(VLOOKUP(B25,[1]一阶段!$B:$O,13,0)="横扫",3,IF(VLOOKUP(B25,[1]一阶段!$B:$O,13,0)="短兵",4,IF(VLOOKUP(B25,[1]一阶段!$B:$O,13,0)="远射",5,6))))))&amp;IF(VLOOKUP(B25,[1]一阶段!$B:$O,14,0)="","",IF(VLOOKUP(B25,[1]一阶段!$B:$O,14,0)="穿刺",",0",IF(VLOOKUP(B25,[1]一阶段!$B:$O,14,0)="法术",",1",IF(VLOOKUP(B25,[1]一阶段!$B:$O,14,0)="粉碎",",2",IF(VLOOKUP(B25,[1]一阶段!$B:$O,14,0)="横扫",",3",IF(VLOOKUP(B25,[1]一阶段!$B:$O,14,0)="短兵",",4",IF(VLOOKUP(B25,[1]一阶段!$B:$O,14,0)="远射",",5",",6")))))))</f>
-        <v>0,1</v>
-      </c>
-      <c r="S25" s="2">
+        <v>1,6</v>
+      </c>
+      <c r="S25" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>325</v>
-      </c>
-      <c r="T25" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T25" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="U25" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U25" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="V25" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V25" s="2" t="e">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W25" s="2">
         <v>100</v>
@@ -6678,84 +6768,82 @@
       </c>
       <c r="AH25" s="2">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="AI25" s="2"/>
-      <c r="AJ25" s="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="1">
+    <row r="26" spans="1:34" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="4">
         <v>1025</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="B26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="5">
+      <c r="G26" s="6">
         <f>IF(VLOOKUP(B26,[1]一阶段!$B:$O,4,0)="七杀",3,IF(VLOOKUP(B26,[1]一阶段!$B:$O,4,0)="破军",1,IF(VLOOKUP(B26,[1]一阶段!$B:$O,4,0)="贪狼",2,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
         <f>IF(VLOOKUP(B26,[1]一阶段!$B:$O,6,0)="魏",1,IF(VLOOKUP(B26,[1]一阶段!$B:$O,6,0)="蜀",2,IF(VLOOKUP(B26,[1]一阶段!$B:$O,6,0)="吴",3,IF(VLOOKUP(B26,[1]一阶段!$B:$O,6,0)="群",4,0))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2">
         <f>IF(VLOOKUP(B26,[1]一阶段!$B:$N,5,0)="7星",4,IF(VLOOKUP(B26,[1]一阶段!$B:$N,5,0)="6星",3,IF(VLOOKUP(B26,[1]一阶段!$B:$N,5,0)="5星",3,IF(VLOOKUP(B26,[1]一阶段!$B:$N,5,0)="4星",2,IF(VLOOKUP(B26,[1]一阶段!$B:$N,5,0)="3星",1,0)))))</f>
-        <v>4</v>
-      </c>
-      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
         <f>IF(VLOOKUP(B26,[1]一阶段!$B:$N,2,0)="男",1,IF(VLOOKUP(B26,[1]一阶段!$B:$N,2,0)="女",2,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2" t="e">
         <f>INT(LEFT(VLOOKUP(B26,[1]一阶段!$B:$N,5,0),1))</f>
-        <v>7</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L26" s="2">
         <v>1</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="2" t="str">
         <f>IF(VLOOKUP(B26,[1]一阶段!$B:$O,7,0)="力量",0,IF(VLOOKUP(B26,[1]一阶段!$B:$O,7,0)="智力",1,IF(VLOOKUP(B26,[1]一阶段!$B:$O,7,0)="敏捷",2,IF(VLOOKUP(B26,[1]一阶段!$B:$O,7,0)="体质",3,""))))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="N26" s="2">
         <f>VLOOKUP(B26,[1]一阶段!$B:$O,8,0)</f>
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="O26" s="2">
         <f>VLOOKUP(B26,[1]一阶段!$B:$O,9,0)</f>
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="P26" s="2">
         <f>VLOOKUP(B26,[1]一阶段!$B:$O,10,0)</f>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="2">
         <f>VLOOKUP(B26,[1]一阶段!$B:$O,11,0)</f>
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="R26" s="2" t="str">
         <f>IF(VLOOKUP(B26,[1]一阶段!$B:$O,13,0)="穿刺",0,IF(VLOOKUP(B26,[1]一阶段!$B:$O,13,0)="法术",1,IF(VLOOKUP(B26,[1]一阶段!$B:$O,13,0)="粉碎",2,IF(VLOOKUP(B26,[1]一阶段!$B:$O,13,0)="横扫",3,IF(VLOOKUP(B26,[1]一阶段!$B:$O,13,0)="短兵",4,IF(VLOOKUP(B26,[1]一阶段!$B:$O,13,0)="远射",5,6))))))&amp;IF(VLOOKUP(B26,[1]一阶段!$B:$O,14,0)="","",IF(VLOOKUP(B26,[1]一阶段!$B:$O,14,0)="穿刺",",0",IF(VLOOKUP(B26,[1]一阶段!$B:$O,14,0)="法术",",1",IF(VLOOKUP(B26,[1]一阶段!$B:$O,14,0)="粉碎",",2",IF(VLOOKUP(B26,[1]一阶段!$B:$O,14,0)="横扫",",3",IF(VLOOKUP(B26,[1]一阶段!$B:$O,14,0)="短兵",",4",IF(VLOOKUP(B26,[1]一阶段!$B:$O,14,0)="远射",",5",",6")))))))</f>
-        <v>3,5</v>
-      </c>
-      <c r="S26" s="2">
+        <v>5,6</v>
+      </c>
+      <c r="S26" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>375</v>
-      </c>
-      <c r="T26" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T26" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="U26" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U26" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="V26" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V26" s="2" t="e">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W26" s="2">
         <v>100</v>
@@ -6794,50 +6882,48 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI26" s="2"/>
-      <c r="AJ26" s="2"/>
     </row>
-    <row r="27" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="1">
+    <row r="27" spans="1:34" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="4">
         <v>1026</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="B27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="5">
+      <c r="G27" s="6">
         <f>IF(VLOOKUP(B27,[1]一阶段!$B:$O,4,0)="七杀",3,IF(VLOOKUP(B27,[1]一阶段!$B:$O,4,0)="破军",1,IF(VLOOKUP(B27,[1]一阶段!$B:$O,4,0)="贪狼",2,0)))</f>
-        <v>2</v>
-      </c>
-      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
         <f>IF(VLOOKUP(B27,[1]一阶段!$B:$O,6,0)="魏",1,IF(VLOOKUP(B27,[1]一阶段!$B:$O,6,0)="蜀",2,IF(VLOOKUP(B27,[1]一阶段!$B:$O,6,0)="吴",3,IF(VLOOKUP(B27,[1]一阶段!$B:$O,6,0)="群",4,0))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I27" s="2">
         <f>IF(VLOOKUP(B27,[1]一阶段!$B:$N,5,0)="7星",4,IF(VLOOKUP(B27,[1]一阶段!$B:$N,5,0)="6星",3,IF(VLOOKUP(B27,[1]一阶段!$B:$N,5,0)="5星",3,IF(VLOOKUP(B27,[1]一阶段!$B:$N,5,0)="4星",2,IF(VLOOKUP(B27,[1]一阶段!$B:$N,5,0)="3星",1,0)))))</f>
-        <v>4</v>
-      </c>
-      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
         <f>IF(VLOOKUP(B27,[1]一阶段!$B:$N,2,0)="男",1,IF(VLOOKUP(B27,[1]一阶段!$B:$N,2,0)="女",2,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2" t="e">
         <f>INT(LEFT(VLOOKUP(B27,[1]一阶段!$B:$N,5,0),1))</f>
-        <v>7</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L27" s="2">
         <v>1</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="2" t="str">
         <f>IF(VLOOKUP(B27,[1]一阶段!$B:$O,7,0)="力量",0,IF(VLOOKUP(B27,[1]一阶段!$B:$O,7,0)="智力",1,IF(VLOOKUP(B27,[1]一阶段!$B:$O,7,0)="敏捷",2,IF(VLOOKUP(B27,[1]一阶段!$B:$O,7,0)="体质",3,""))))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="N27" s="2">
         <f>VLOOKUP(B27,[1]一阶段!$B:$O,8,0)</f>
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="O27" s="2">
         <f>VLOOKUP(B27,[1]一阶段!$B:$O,9,0)</f>
@@ -6845,31 +6931,31 @@
       </c>
       <c r="P27" s="2">
         <f>VLOOKUP(B27,[1]一阶段!$B:$O,10,0)</f>
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="Q27" s="2">
         <f>VLOOKUP(B27,[1]一阶段!$B:$O,11,0)</f>
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="R27" s="2" t="str">
         <f>IF(VLOOKUP(B27,[1]一阶段!$B:$O,13,0)="穿刺",0,IF(VLOOKUP(B27,[1]一阶段!$B:$O,13,0)="法术",1,IF(VLOOKUP(B27,[1]一阶段!$B:$O,13,0)="粉碎",2,IF(VLOOKUP(B27,[1]一阶段!$B:$O,13,0)="横扫",3,IF(VLOOKUP(B27,[1]一阶段!$B:$O,13,0)="短兵",4,IF(VLOOKUP(B27,[1]一阶段!$B:$O,13,0)="远射",5,6))))))&amp;IF(VLOOKUP(B27,[1]一阶段!$B:$O,14,0)="","",IF(VLOOKUP(B27,[1]一阶段!$B:$O,14,0)="穿刺",",0",IF(VLOOKUP(B27,[1]一阶段!$B:$O,14,0)="法术",",1",IF(VLOOKUP(B27,[1]一阶段!$B:$O,14,0)="粉碎",",2",IF(VLOOKUP(B27,[1]一阶段!$B:$O,14,0)="横扫",",3",IF(VLOOKUP(B27,[1]一阶段!$B:$O,14,0)="短兵",",4",IF(VLOOKUP(B27,[1]一阶段!$B:$O,14,0)="远射",",5",",6")))))))</f>
-        <v>1</v>
-      </c>
-      <c r="S27" s="2">
+        <v>6,6</v>
+      </c>
+      <c r="S27" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>375</v>
-      </c>
-      <c r="T27" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T27" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="U27" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U27" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="V27" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V27" s="2" t="e">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W27" s="2">
         <v>100</v>
@@ -6906,84 +6992,82 @@
       </c>
       <c r="AH27" s="2">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="AI27" s="2"/>
-      <c r="AJ27" s="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="1">
+    <row r="28" spans="1:34" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="4">
         <v>1027</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="B28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="5">
+      <c r="G28" s="6">
         <f>IF(VLOOKUP(B28,[1]一阶段!$B:$O,4,0)="七杀",3,IF(VLOOKUP(B28,[1]一阶段!$B:$O,4,0)="破军",1,IF(VLOOKUP(B28,[1]一阶段!$B:$O,4,0)="贪狼",2,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
         <f>IF(VLOOKUP(B28,[1]一阶段!$B:$O,6,0)="魏",1,IF(VLOOKUP(B28,[1]一阶段!$B:$O,6,0)="蜀",2,IF(VLOOKUP(B28,[1]一阶段!$B:$O,6,0)="吴",3,IF(VLOOKUP(B28,[1]一阶段!$B:$O,6,0)="群",4,0))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I28" s="2">
         <f>IF(VLOOKUP(B28,[1]一阶段!$B:$N,5,0)="7星",4,IF(VLOOKUP(B28,[1]一阶段!$B:$N,5,0)="6星",3,IF(VLOOKUP(B28,[1]一阶段!$B:$N,5,0)="5星",3,IF(VLOOKUP(B28,[1]一阶段!$B:$N,5,0)="4星",2,IF(VLOOKUP(B28,[1]一阶段!$B:$N,5,0)="3星",1,0)))))</f>
-        <v>3</v>
-      </c>
-      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
         <f>IF(VLOOKUP(B28,[1]一阶段!$B:$N,2,0)="男",1,IF(VLOOKUP(B28,[1]一阶段!$B:$N,2,0)="女",2,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2" t="e">
         <f>INT(LEFT(VLOOKUP(B28,[1]一阶段!$B:$N,5,0),1))</f>
-        <v>6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L28" s="2">
         <v>1</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="2" t="str">
         <f>IF(VLOOKUP(B28,[1]一阶段!$B:$O,7,0)="力量",0,IF(VLOOKUP(B28,[1]一阶段!$B:$O,7,0)="智力",1,IF(VLOOKUP(B28,[1]一阶段!$B:$O,7,0)="敏捷",2,IF(VLOOKUP(B28,[1]一阶段!$B:$O,7,0)="体质",3,""))))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="N28" s="2">
         <f>VLOOKUP(B28,[1]一阶段!$B:$O,8,0)</f>
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="O28" s="2">
         <f>VLOOKUP(B28,[1]一阶段!$B:$O,9,0)</f>
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="P28" s="2">
         <f>VLOOKUP(B28,[1]一阶段!$B:$O,10,0)</f>
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="Q28" s="2">
         <f>VLOOKUP(B28,[1]一阶段!$B:$O,11,0)</f>
-        <v>92</v>
+        <v>336</v>
       </c>
       <c r="R28" s="2" t="str">
         <f>IF(VLOOKUP(B28,[1]一阶段!$B:$O,13,0)="穿刺",0,IF(VLOOKUP(B28,[1]一阶段!$B:$O,13,0)="法术",1,IF(VLOOKUP(B28,[1]一阶段!$B:$O,13,0)="粉碎",2,IF(VLOOKUP(B28,[1]一阶段!$B:$O,13,0)="横扫",3,IF(VLOOKUP(B28,[1]一阶段!$B:$O,13,0)="短兵",4,IF(VLOOKUP(B28,[1]一阶段!$B:$O,13,0)="远射",5,6))))))&amp;IF(VLOOKUP(B28,[1]一阶段!$B:$O,14,0)="","",IF(VLOOKUP(B28,[1]一阶段!$B:$O,14,0)="穿刺",",0",IF(VLOOKUP(B28,[1]一阶段!$B:$O,14,0)="法术",",1",IF(VLOOKUP(B28,[1]一阶段!$B:$O,14,0)="粉碎",",2",IF(VLOOKUP(B28,[1]一阶段!$B:$O,14,0)="横扫",",3",IF(VLOOKUP(B28,[1]一阶段!$B:$O,14,0)="短兵",",4",IF(VLOOKUP(B28,[1]一阶段!$B:$O,14,0)="远射",",5",",6")))))))</f>
-        <v>1</v>
-      </c>
-      <c r="S28" s="2">
+        <v>6,6</v>
+      </c>
+      <c r="S28" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>325</v>
-      </c>
-      <c r="T28" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T28" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="U28" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U28" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="V28" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V28" s="2" t="e">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W28" s="2">
         <v>100</v>
@@ -7022,82 +7106,80 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI28" s="2"/>
-      <c r="AJ28" s="2"/>
     </row>
-    <row r="29" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="1">
+    <row r="29" spans="1:34" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="4">
         <v>1028</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="B29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="5">
+      <c r="G29" s="6">
         <f>IF(VLOOKUP(B29,[1]一阶段!$B:$O,4,0)="七杀",3,IF(VLOOKUP(B29,[1]一阶段!$B:$O,4,0)="破军",1,IF(VLOOKUP(B29,[1]一阶段!$B:$O,4,0)="贪狼",2,0)))</f>
-        <v>2</v>
-      </c>
-      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6">
         <f>IF(VLOOKUP(B29,[1]一阶段!$B:$O,6,0)="魏",1,IF(VLOOKUP(B29,[1]一阶段!$B:$O,6,0)="蜀",2,IF(VLOOKUP(B29,[1]一阶段!$B:$O,6,0)="吴",3,IF(VLOOKUP(B29,[1]一阶段!$B:$O,6,0)="群",4,0))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I29" s="2">
         <f>IF(VLOOKUP(B29,[1]一阶段!$B:$N,5,0)="7星",4,IF(VLOOKUP(B29,[1]一阶段!$B:$N,5,0)="6星",3,IF(VLOOKUP(B29,[1]一阶段!$B:$N,5,0)="5星",3,IF(VLOOKUP(B29,[1]一阶段!$B:$N,5,0)="4星",2,IF(VLOOKUP(B29,[1]一阶段!$B:$N,5,0)="3星",1,0)))))</f>
-        <v>3</v>
-      </c>
-      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
         <f>IF(VLOOKUP(B29,[1]一阶段!$B:$N,2,0)="男",1,IF(VLOOKUP(B29,[1]一阶段!$B:$N,2,0)="女",2,0))</f>
-        <v>2</v>
-      </c>
-      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2" t="e">
         <f>INT(LEFT(VLOOKUP(B29,[1]一阶段!$B:$N,5,0),1))</f>
-        <v>6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L29" s="2">
         <v>1</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="2" t="str">
         <f>IF(VLOOKUP(B29,[1]一阶段!$B:$O,7,0)="力量",0,IF(VLOOKUP(B29,[1]一阶段!$B:$O,7,0)="智力",1,IF(VLOOKUP(B29,[1]一阶段!$B:$O,7,0)="敏捷",2,IF(VLOOKUP(B29,[1]一阶段!$B:$O,7,0)="体质",3,""))))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="N29" s="2">
         <f>VLOOKUP(B29,[1]一阶段!$B:$O,8,0)</f>
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="O29" s="2">
         <f>VLOOKUP(B29,[1]一阶段!$B:$O,9,0)</f>
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P29" s="2">
         <f>VLOOKUP(B29,[1]一阶段!$B:$O,10,0)</f>
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="Q29" s="2">
         <f>VLOOKUP(B29,[1]一阶段!$B:$O,11,0)</f>
-        <v>80</v>
+        <v>336</v>
       </c>
       <c r="R29" s="2" t="str">
         <f>IF(VLOOKUP(B29,[1]一阶段!$B:$O,13,0)="穿刺",0,IF(VLOOKUP(B29,[1]一阶段!$B:$O,13,0)="法术",1,IF(VLOOKUP(B29,[1]一阶段!$B:$O,13,0)="粉碎",2,IF(VLOOKUP(B29,[1]一阶段!$B:$O,13,0)="横扫",3,IF(VLOOKUP(B29,[1]一阶段!$B:$O,13,0)="短兵",4,IF(VLOOKUP(B29,[1]一阶段!$B:$O,13,0)="远射",5,6))))))&amp;IF(VLOOKUP(B29,[1]一阶段!$B:$O,14,0)="","",IF(VLOOKUP(B29,[1]一阶段!$B:$O,14,0)="穿刺",",0",IF(VLOOKUP(B29,[1]一阶段!$B:$O,14,0)="法术",",1",IF(VLOOKUP(B29,[1]一阶段!$B:$O,14,0)="粉碎",",2",IF(VLOOKUP(B29,[1]一阶段!$B:$O,14,0)="横扫",",3",IF(VLOOKUP(B29,[1]一阶段!$B:$O,14,0)="短兵",",4",IF(VLOOKUP(B29,[1]一阶段!$B:$O,14,0)="远射",",5",",6")))))))</f>
-        <v>1</v>
-      </c>
-      <c r="S29" s="2">
+        <v>6,6</v>
+      </c>
+      <c r="S29" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>325</v>
-      </c>
-      <c r="T29" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T29" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="U29" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U29" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="V29" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V29" s="2" t="e">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W29" s="2">
         <v>100</v>
@@ -7134,84 +7216,82 @@
       </c>
       <c r="AH29" s="2">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="AI29" s="2"/>
-      <c r="AJ29" s="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="1">
+    <row r="30" spans="1:34" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="4">
         <v>1029</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="B30" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="5">
+      <c r="G30" s="6">
         <f>IF(VLOOKUP(B30,[1]一阶段!$B:$O,4,0)="七杀",3,IF(VLOOKUP(B30,[1]一阶段!$B:$O,4,0)="破军",1,IF(VLOOKUP(B30,[1]一阶段!$B:$O,4,0)="贪狼",2,0)))</f>
-        <v>2</v>
-      </c>
-      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6">
         <f>IF(VLOOKUP(B30,[1]一阶段!$B:$O,6,0)="魏",1,IF(VLOOKUP(B30,[1]一阶段!$B:$O,6,0)="蜀",2,IF(VLOOKUP(B30,[1]一阶段!$B:$O,6,0)="吴",3,IF(VLOOKUP(B30,[1]一阶段!$B:$O,6,0)="群",4,0))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I30" s="2">
         <f>IF(VLOOKUP(B30,[1]一阶段!$B:$N,5,0)="7星",4,IF(VLOOKUP(B30,[1]一阶段!$B:$N,5,0)="6星",3,IF(VLOOKUP(B30,[1]一阶段!$B:$N,5,0)="5星",3,IF(VLOOKUP(B30,[1]一阶段!$B:$N,5,0)="4星",2,IF(VLOOKUP(B30,[1]一阶段!$B:$N,5,0)="3星",1,0)))))</f>
-        <v>3</v>
-      </c>
-      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
         <f>IF(VLOOKUP(B30,[1]一阶段!$B:$N,2,0)="男",1,IF(VLOOKUP(B30,[1]一阶段!$B:$N,2,0)="女",2,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2" t="e">
         <f>INT(LEFT(VLOOKUP(B30,[1]一阶段!$B:$N,5,0),1))</f>
-        <v>6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L30" s="2">
         <v>1</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="2" t="str">
         <f>IF(VLOOKUP(B30,[1]一阶段!$B:$O,7,0)="力量",0,IF(VLOOKUP(B30,[1]一阶段!$B:$O,7,0)="智力",1,IF(VLOOKUP(B30,[1]一阶段!$B:$O,7,0)="敏捷",2,IF(VLOOKUP(B30,[1]一阶段!$B:$O,7,0)="体质",3,""))))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="N30" s="2">
         <f>VLOOKUP(B30,[1]一阶段!$B:$O,8,0)</f>
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="O30" s="2">
         <f>VLOOKUP(B30,[1]一阶段!$B:$O,9,0)</f>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P30" s="2">
         <f>VLOOKUP(B30,[1]一阶段!$B:$O,10,0)</f>
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="Q30" s="2">
         <f>VLOOKUP(B30,[1]一阶段!$B:$O,11,0)</f>
-        <v>82</v>
+        <v>335</v>
       </c>
       <c r="R30" s="2" t="str">
         <f>IF(VLOOKUP(B30,[1]一阶段!$B:$O,13,0)="穿刺",0,IF(VLOOKUP(B30,[1]一阶段!$B:$O,13,0)="法术",1,IF(VLOOKUP(B30,[1]一阶段!$B:$O,13,0)="粉碎",2,IF(VLOOKUP(B30,[1]一阶段!$B:$O,13,0)="横扫",3,IF(VLOOKUP(B30,[1]一阶段!$B:$O,13,0)="短兵",4,IF(VLOOKUP(B30,[1]一阶段!$B:$O,13,0)="远射",5,6))))))&amp;IF(VLOOKUP(B30,[1]一阶段!$B:$O,14,0)="","",IF(VLOOKUP(B30,[1]一阶段!$B:$O,14,0)="穿刺",",0",IF(VLOOKUP(B30,[1]一阶段!$B:$O,14,0)="法术",",1",IF(VLOOKUP(B30,[1]一阶段!$B:$O,14,0)="粉碎",",2",IF(VLOOKUP(B30,[1]一阶段!$B:$O,14,0)="横扫",",3",IF(VLOOKUP(B30,[1]一阶段!$B:$O,14,0)="短兵",",4",IF(VLOOKUP(B30,[1]一阶段!$B:$O,14,0)="远射",",5",",6")))))))</f>
-        <v>1,6</v>
-      </c>
-      <c r="S30" s="2">
+        <v>6,6</v>
+      </c>
+      <c r="S30" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>325</v>
-      </c>
-      <c r="T30" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T30" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="U30" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U30" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="V30" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V30" s="2" t="e">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W30" s="2">
         <v>100</v>
@@ -7248,84 +7328,82 @@
       </c>
       <c r="AH30" s="2">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="AI30" s="2"/>
-      <c r="AJ30" s="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="1">
+    <row r="31" spans="1:34" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="4">
         <v>1030</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="B31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="5">
+      <c r="G31" s="6">
         <f>IF(VLOOKUP(B31,[1]一阶段!$B:$O,4,0)="七杀",3,IF(VLOOKUP(B31,[1]一阶段!$B:$O,4,0)="破军",1,IF(VLOOKUP(B31,[1]一阶段!$B:$O,4,0)="贪狼",2,0)))</f>
-        <v>2</v>
-      </c>
-      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6">
         <f>IF(VLOOKUP(B31,[1]一阶段!$B:$O,6,0)="魏",1,IF(VLOOKUP(B31,[1]一阶段!$B:$O,6,0)="蜀",2,IF(VLOOKUP(B31,[1]一阶段!$B:$O,6,0)="吴",3,IF(VLOOKUP(B31,[1]一阶段!$B:$O,6,0)="群",4,0))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I31" s="2">
         <f>IF(VLOOKUP(B31,[1]一阶段!$B:$N,5,0)="7星",4,IF(VLOOKUP(B31,[1]一阶段!$B:$N,5,0)="6星",3,IF(VLOOKUP(B31,[1]一阶段!$B:$N,5,0)="5星",3,IF(VLOOKUP(B31,[1]一阶段!$B:$N,5,0)="4星",2,IF(VLOOKUP(B31,[1]一阶段!$B:$N,5,0)="3星",1,0)))))</f>
-        <v>3</v>
-      </c>
-      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
         <f>IF(VLOOKUP(B31,[1]一阶段!$B:$N,2,0)="男",1,IF(VLOOKUP(B31,[1]一阶段!$B:$N,2,0)="女",2,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2" t="e">
         <f>INT(LEFT(VLOOKUP(B31,[1]一阶段!$B:$N,5,0),1))</f>
-        <v>6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L31" s="2">
         <v>1</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="2" t="str">
         <f>IF(VLOOKUP(B31,[1]一阶段!$B:$O,7,0)="力量",0,IF(VLOOKUP(B31,[1]一阶段!$B:$O,7,0)="智力",1,IF(VLOOKUP(B31,[1]一阶段!$B:$O,7,0)="敏捷",2,IF(VLOOKUP(B31,[1]一阶段!$B:$O,7,0)="体质",3,""))))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="N31" s="2">
         <f>VLOOKUP(B31,[1]一阶段!$B:$O,8,0)</f>
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="O31" s="2">
         <f>VLOOKUP(B31,[1]一阶段!$B:$O,9,0)</f>
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P31" s="2">
         <f>VLOOKUP(B31,[1]一阶段!$B:$O,10,0)</f>
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="Q31" s="2">
         <f>VLOOKUP(B31,[1]一阶段!$B:$O,11,0)</f>
-        <v>87</v>
+        <v>345</v>
       </c>
       <c r="R31" s="2" t="str">
         <f>IF(VLOOKUP(B31,[1]一阶段!$B:$O,13,0)="穿刺",0,IF(VLOOKUP(B31,[1]一阶段!$B:$O,13,0)="法术",1,IF(VLOOKUP(B31,[1]一阶段!$B:$O,13,0)="粉碎",2,IF(VLOOKUP(B31,[1]一阶段!$B:$O,13,0)="横扫",3,IF(VLOOKUP(B31,[1]一阶段!$B:$O,13,0)="短兵",4,IF(VLOOKUP(B31,[1]一阶段!$B:$O,13,0)="远射",5,6))))))&amp;IF(VLOOKUP(B31,[1]一阶段!$B:$O,14,0)="","",IF(VLOOKUP(B31,[1]一阶段!$B:$O,14,0)="穿刺",",0",IF(VLOOKUP(B31,[1]一阶段!$B:$O,14,0)="法术",",1",IF(VLOOKUP(B31,[1]一阶段!$B:$O,14,0)="粉碎",",2",IF(VLOOKUP(B31,[1]一阶段!$B:$O,14,0)="横扫",",3",IF(VLOOKUP(B31,[1]一阶段!$B:$O,14,0)="短兵",",4",IF(VLOOKUP(B31,[1]一阶段!$B:$O,14,0)="远射",",5",",6")))))))</f>
-        <v>1,4</v>
-      </c>
-      <c r="S31" s="2">
+        <v>4,6</v>
+      </c>
+      <c r="S31" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>325</v>
-      </c>
-      <c r="T31" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T31" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="U31" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U31" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="V31" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V31" s="2" t="e">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W31" s="2">
         <v>100</v>
@@ -7362,84 +7440,82 @@
       </c>
       <c r="AH31" s="2">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="AI31" s="2"/>
-      <c r="AJ31" s="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="1">
+    <row r="32" spans="1:34" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="4">
         <v>1031</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="B32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="5">
+      <c r="G32" s="6">
         <f>IF(VLOOKUP(B32,[1]一阶段!$B:$O,4,0)="七杀",3,IF(VLOOKUP(B32,[1]一阶段!$B:$O,4,0)="破军",1,IF(VLOOKUP(B32,[1]一阶段!$B:$O,4,0)="贪狼",2,0)))</f>
-        <v>3</v>
-      </c>
-      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="6">
         <f>IF(VLOOKUP(B32,[1]一阶段!$B:$O,6,0)="魏",1,IF(VLOOKUP(B32,[1]一阶段!$B:$O,6,0)="蜀",2,IF(VLOOKUP(B32,[1]一阶段!$B:$O,6,0)="吴",3,IF(VLOOKUP(B32,[1]一阶段!$B:$O,6,0)="群",4,0))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I32" s="2">
         <f>IF(VLOOKUP(B32,[1]一阶段!$B:$N,5,0)="7星",4,IF(VLOOKUP(B32,[1]一阶段!$B:$N,5,0)="6星",3,IF(VLOOKUP(B32,[1]一阶段!$B:$N,5,0)="5星",3,IF(VLOOKUP(B32,[1]一阶段!$B:$N,5,0)="4星",2,IF(VLOOKUP(B32,[1]一阶段!$B:$N,5,0)="3星",1,0)))))</f>
-        <v>3</v>
-      </c>
-      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
         <f>IF(VLOOKUP(B32,[1]一阶段!$B:$N,2,0)="男",1,IF(VLOOKUP(B32,[1]一阶段!$B:$N,2,0)="女",2,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2" t="e">
         <f>INT(LEFT(VLOOKUP(B32,[1]一阶段!$B:$N,5,0),1))</f>
-        <v>6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L32" s="2">
         <v>1</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="2" t="str">
         <f>IF(VLOOKUP(B32,[1]一阶段!$B:$O,7,0)="力量",0,IF(VLOOKUP(B32,[1]一阶段!$B:$O,7,0)="智力",1,IF(VLOOKUP(B32,[1]一阶段!$B:$O,7,0)="敏捷",2,IF(VLOOKUP(B32,[1]一阶段!$B:$O,7,0)="体质",3,""))))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="N32" s="2">
         <f>VLOOKUP(B32,[1]一阶段!$B:$O,8,0)</f>
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="O32" s="2">
         <f>VLOOKUP(B32,[1]一阶段!$B:$O,9,0)</f>
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="P32" s="2">
         <f>VLOOKUP(B32,[1]一阶段!$B:$O,10,0)</f>
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="Q32" s="2">
         <f>VLOOKUP(B32,[1]一阶段!$B:$O,11,0)</f>
-        <v>92</v>
+        <v>337</v>
       </c>
       <c r="R32" s="2" t="str">
         <f>IF(VLOOKUP(B32,[1]一阶段!$B:$O,13,0)="穿刺",0,IF(VLOOKUP(B32,[1]一阶段!$B:$O,13,0)="法术",1,IF(VLOOKUP(B32,[1]一阶段!$B:$O,13,0)="粉碎",2,IF(VLOOKUP(B32,[1]一阶段!$B:$O,13,0)="横扫",3,IF(VLOOKUP(B32,[1]一阶段!$B:$O,13,0)="短兵",4,IF(VLOOKUP(B32,[1]一阶段!$B:$O,13,0)="远射",5,6))))))&amp;IF(VLOOKUP(B32,[1]一阶段!$B:$O,14,0)="","",IF(VLOOKUP(B32,[1]一阶段!$B:$O,14,0)="穿刺",",0",IF(VLOOKUP(B32,[1]一阶段!$B:$O,14,0)="法术",",1",IF(VLOOKUP(B32,[1]一阶段!$B:$O,14,0)="粉碎",",2",IF(VLOOKUP(B32,[1]一阶段!$B:$O,14,0)="横扫",",3",IF(VLOOKUP(B32,[1]一阶段!$B:$O,14,0)="短兵",",4",IF(VLOOKUP(B32,[1]一阶段!$B:$O,14,0)="远射",",5",",6")))))))</f>
-        <v>0,2</v>
-      </c>
-      <c r="S32" s="2">
+        <v>2,6</v>
+      </c>
+      <c r="S32" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>325</v>
-      </c>
-      <c r="T32" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T32" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="U32" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U32" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="V32" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V32" s="2" t="e">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W32" s="2">
         <v>100</v>
@@ -7476,56 +7552,54 @@
       </c>
       <c r="AH32" s="2">
         <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="AI32" s="2"/>
-      <c r="AJ32" s="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:36" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="1">
+    <row r="33" spans="1:34" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="4">
         <v>1032</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="B33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="5">
+      <c r="G33" s="6">
         <f>IF(VLOOKUP(B33,[1]一阶段!$B:$O,4,0)="七杀",3,IF(VLOOKUP(B33,[1]一阶段!$B:$O,4,0)="破军",1,IF(VLOOKUP(B33,[1]一阶段!$B:$O,4,0)="贪狼",2,0)))</f>
-        <v>3</v>
-      </c>
-      <c r="H33" s="5">
+        <v>0</v>
+      </c>
+      <c r="H33" s="6">
         <f>IF(VLOOKUP(B33,[1]一阶段!$B:$O,6,0)="魏",1,IF(VLOOKUP(B33,[1]一阶段!$B:$O,6,0)="蜀",2,IF(VLOOKUP(B33,[1]一阶段!$B:$O,6,0)="吴",3,IF(VLOOKUP(B33,[1]一阶段!$B:$O,6,0)="群",4,0))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I33" s="2">
         <f>IF(VLOOKUP(B33,[1]一阶段!$B:$N,5,0)="7星",4,IF(VLOOKUP(B33,[1]一阶段!$B:$N,5,0)="6星",3,IF(VLOOKUP(B33,[1]一阶段!$B:$N,5,0)="5星",3,IF(VLOOKUP(B33,[1]一阶段!$B:$N,5,0)="4星",2,IF(VLOOKUP(B33,[1]一阶段!$B:$N,5,0)="3星",1,0)))))</f>
-        <v>3</v>
-      </c>
-      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
         <f>IF(VLOOKUP(B33,[1]一阶段!$B:$N,2,0)="男",1,IF(VLOOKUP(B33,[1]一阶段!$B:$N,2,0)="女",2,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2" t="e">
         <f>INT(LEFT(VLOOKUP(B33,[1]一阶段!$B:$N,5,0),1))</f>
-        <v>6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L33" s="2">
         <v>1</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="2" t="str">
         <f>IF(VLOOKUP(B33,[1]一阶段!$B:$O,7,0)="力量",0,IF(VLOOKUP(B33,[1]一阶段!$B:$O,7,0)="智力",1,IF(VLOOKUP(B33,[1]一阶段!$B:$O,7,0)="敏捷",2,IF(VLOOKUP(B33,[1]一阶段!$B:$O,7,0)="体质",3,""))))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="N33" s="2">
         <f>VLOOKUP(B33,[1]一阶段!$B:$O,8,0)</f>
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="O33" s="2">
         <f>VLOOKUP(B33,[1]一阶段!$B:$O,9,0)</f>
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="P33" s="2">
         <f>VLOOKUP(B33,[1]一阶段!$B:$O,10,0)</f>
@@ -7533,27 +7607,27 @@
       </c>
       <c r="Q33" s="2">
         <f>VLOOKUP(B33,[1]一阶段!$B:$O,11,0)</f>
-        <v>90</v>
+        <v>343</v>
       </c>
       <c r="R33" s="2" t="str">
         <f>IF(VLOOKUP(B33,[1]一阶段!$B:$O,13,0)="穿刺",0,IF(VLOOKUP(B33,[1]一阶段!$B:$O,13,0)="法术",1,IF(VLOOKUP(B33,[1]一阶段!$B:$O,13,0)="粉碎",2,IF(VLOOKUP(B33,[1]一阶段!$B:$O,13,0)="横扫",3,IF(VLOOKUP(B33,[1]一阶段!$B:$O,13,0)="短兵",4,IF(VLOOKUP(B33,[1]一阶段!$B:$O,13,0)="远射",5,6))))))&amp;IF(VLOOKUP(B33,[1]一阶段!$B:$O,14,0)="","",IF(VLOOKUP(B33,[1]一阶段!$B:$O,14,0)="穿刺",",0",IF(VLOOKUP(B33,[1]一阶段!$B:$O,14,0)="法术",",1",IF(VLOOKUP(B33,[1]一阶段!$B:$O,14,0)="粉碎",",2",IF(VLOOKUP(B33,[1]一阶段!$B:$O,14,0)="横扫",",3",IF(VLOOKUP(B33,[1]一阶段!$B:$O,14,0)="短兵",",4",IF(VLOOKUP(B33,[1]一阶段!$B:$O,14,0)="远射",",5",",6")))))))</f>
-        <v>3,2</v>
-      </c>
-      <c r="S33" s="2">
+        <v>2,6</v>
+      </c>
+      <c r="S33" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>325</v>
-      </c>
-      <c r="T33" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T33" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="U33" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U33" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="V33" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V33" s="2" t="e">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W33" s="2">
         <v>100</v>
@@ -7590,18 +7664,12 @@
       </c>
       <c r="AH33" s="2">
         <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="AI33" s="2"/>
-      <c r="AJ33" s="2"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="11">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写0-2的整数" sqref="AI1:AI33">
-      <formula1>0</formula1>
-      <formula2>2</formula2>
-    </dataValidation>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="10">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写大于等于0的浮点数" sqref="X1:AG33">
       <formula1>0</formula1>
     </dataValidation>

--- a/Document/Config/Config_Actor.xlsx
+++ b/Document/Config/Config_Actor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\NewPhoenix\Document\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\GitHub\NewPhoenix\Document\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1822,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5144,40 +5144,40 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="10">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写大于等于0的浮点数" sqref="X1:AG33">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写大于等于0的浮点数" sqref="X2:AG33">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能输入自然数" sqref="S1:W33">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能输入自然数" sqref="S2:W33">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写0-3整数" sqref="M1:M33">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写0-3整数" sqref="M2:M33">
       <formula1>0</formula1>
       <formula2>3</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写自然数" sqref="AH1:AH33 N1:Q33">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写自然数" sqref="N2:Q33 AH2:AH33">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写1-255的正整数" sqref="L1:L33">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写1-255的正整数" sqref="L2:L33">
       <formula1>1</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写0-2整数" sqref="J1:J33">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写0-2整数" sqref="J2:J33">
       <formula1>0</formula1>
       <formula2>2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写0-4整数" sqref="H1 I1:I33">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写0-4整数" sqref="I2:I33">
       <formula1>0</formula1>
       <formula2>4</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写1-7的正整数" sqref="K1:K33">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写1-7的正整数" sqref="K2:K33">
       <formula1>1</formula1>
       <formula2>7</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="请输入正确的ID格式" error="1000-9999" sqref="A1:A33">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="请输入正确的ID格式" error="1000-9999" sqref="A2:A33">
       <formula1>1000</formula1>
       <formula2>9999</formula2>
     </dataValidation>
-    <dataValidation type="whole" imeMode="off" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写0-3的整数" sqref="H2:H33 G1:G33">
+    <dataValidation type="whole" imeMode="off" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写0-3的整数" sqref="H2:H33 G2:G33">
       <formula1>0</formula1>
       <formula2>3</formula2>
     </dataValidation>

--- a/Document/Config/Config_Actor.xlsx
+++ b/Document/Config/Config_Actor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\GitHub\NewPhoenix\Document\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\NewPhoenix\Document\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1021,7 +1021,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="149">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1389,6 +1389,106 @@
   </si>
   <si>
     <t>10320,10321,10322,10323,10324,10325,10326,10327,10328,10329</t>
+  </si>
+  <si>
+    <t>Hczw30</t>
+  </si>
+  <si>
+    <t>Hbgj26</t>
+  </si>
+  <si>
+    <t>Hdw36</t>
+  </si>
+  <si>
+    <t>Hdj42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hgj13</t>
+  </si>
+  <si>
+    <t>Hgn18</t>
+  </si>
+  <si>
+    <t>Hgj33</t>
+  </si>
+  <si>
+    <t>Hhl31</t>
+  </si>
+  <si>
+    <t>Hjk24</t>
+  </si>
+  <si>
+    <t>Hjwg34</t>
+  </si>
+  <si>
+    <t>Hlb02</t>
+  </si>
+  <si>
+    <t>Hlb08</t>
+  </si>
+  <si>
+    <t>Hmc27</t>
+  </si>
+  <si>
+    <t>Hmh39</t>
+  </si>
+  <si>
+    <t>Hqhg32</t>
+  </si>
+  <si>
+    <t>Hsw40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hxc22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hxhd17</t>
+  </si>
+  <si>
+    <t>Hzf05</t>
+  </si>
+  <si>
+    <t>Hzg03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hzgl21</t>
+  </si>
+  <si>
+    <t>Hzl20</t>
+  </si>
+  <si>
+    <t>Hzy11</t>
+  </si>
+  <si>
+    <t>G5kl</t>
+  </si>
+  <si>
+    <t>G4kl</t>
+  </si>
+  <si>
+    <t>G3kl</t>
+  </si>
+  <si>
+    <t>G8gj</t>
+  </si>
+  <si>
+    <t>G7db</t>
+  </si>
+  <si>
+    <t>G21cs</t>
+  </si>
+  <si>
+    <t>G22ys</t>
+  </si>
+  <si>
+    <t>G1qd</t>
+  </si>
+  <si>
+    <t>Hssx10</t>
   </si>
 </sst>
 </file>
@@ -1823,7 +1923,7 @@
   <dimension ref="A1:AI33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1980,7 +2080,9 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="G2" s="6">
         <v>3</v>
       </c>
@@ -2079,7 +2181,9 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="G3" s="6">
         <v>2</v>
       </c>
@@ -2178,7 +2282,9 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G4" s="6">
         <v>1</v>
       </c>
@@ -2277,7 +2383,9 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="G5" s="6">
         <v>2</v>
       </c>
@@ -2376,7 +2484,9 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="G6" s="6">
         <v>1</v>
       </c>
@@ -2475,7 +2585,9 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="G7" s="6">
         <v>2</v>
       </c>
@@ -2574,7 +2686,9 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="G8" s="6">
         <v>1</v>
       </c>
@@ -2673,7 +2787,9 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="G9" s="6">
         <v>2</v>
       </c>
@@ -2772,7 +2888,9 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G10" s="6">
         <v>3</v>
       </c>
@@ -2871,7 +2989,9 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="G11" s="6">
         <v>2</v>
       </c>
@@ -2970,7 +3090,9 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="G12" s="6">
         <v>1</v>
       </c>
@@ -3069,7 +3191,9 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
       <c r="G13" s="6">
         <v>3</v>
       </c>
@@ -3168,7 +3292,9 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="G14" s="6">
         <v>1</v>
       </c>
@@ -3267,7 +3393,9 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G15" s="6">
         <v>1</v>
       </c>
@@ -3366,7 +3494,9 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="G16" s="6">
         <v>2</v>
       </c>
@@ -3465,7 +3595,9 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="G17" s="6">
         <v>3</v>
       </c>
@@ -3564,7 +3696,9 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="G18" s="6">
         <v>1</v>
       </c>
@@ -3663,7 +3797,9 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="G19" s="6">
         <v>3</v>
       </c>
@@ -3762,7 +3898,9 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="G20" s="6">
         <v>3</v>
       </c>
@@ -3861,7 +3999,9 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="G21" s="6">
         <v>2</v>
       </c>
@@ -3960,7 +4100,9 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="G22" s="6">
         <v>1</v>
       </c>
@@ -4059,7 +4201,9 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="G23" s="6">
         <v>3</v>
       </c>
@@ -4158,7 +4302,9 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="G24" s="6">
         <v>2</v>
       </c>
@@ -4257,7 +4403,9 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="G25" s="6">
         <v>3</v>
       </c>
@@ -4356,7 +4504,9 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="G26" s="6">
         <v>3</v>
       </c>
@@ -4455,7 +4605,9 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="G27" s="6">
         <v>2</v>
       </c>
@@ -4554,7 +4706,9 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="G28" s="6">
         <v>1</v>
       </c>
@@ -4653,7 +4807,9 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="G29" s="6">
         <v>2</v>
       </c>
@@ -4752,7 +4908,9 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="G30" s="6">
         <v>2</v>
       </c>
@@ -4851,7 +5009,9 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="G31" s="6">
         <v>2</v>
       </c>
@@ -4950,7 +5110,9 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="G32" s="6">
         <v>3</v>
       </c>
@@ -5049,7 +5211,9 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="G33" s="6">
         <v>3</v>
       </c>
@@ -5177,7 +5341,7 @@
       <formula1>1000</formula1>
       <formula2>9999</formula2>
     </dataValidation>
-    <dataValidation type="whole" imeMode="off" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写0-3的整数" sqref="H2:H33 G2:G33">
+    <dataValidation type="whole" imeMode="off" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写0-3的整数" sqref="G2:H33">
       <formula1>0</formula1>
       <formula2>3</formula2>
     </dataValidation>
